--- a/target/test-classes/TestData/NewData.xlsx
+++ b/target/test-classes/TestData/NewData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jteja\WISHES\TestAutomation\GFL.Wishes\src\test\resources\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jteja\GFLAutomation\GFL.Wishes\src\test\resources\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03BCF965-C5F5-4850-88BB-65105BD83AAE}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D9E6A2D-0BA3-4790-BD93-94C9A37994F1}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-1545" windowWidth="29040" windowHeight="15840" firstSheet="11" activeTab="18" xr2:uid="{24025A28-F3F9-43F5-89B1-20F9E5BBA4E0}"/>
+    <workbookView xWindow="-57720" yWindow="15" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{24025A28-F3F9-43F5-89B1-20F9E5BBA4E0}"/>
   </bookViews>
   <sheets>
     <sheet name="RunModes" sheetId="1" r:id="rId1"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1065" uniqueCount="561">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1073" uniqueCount="572">
   <si>
     <t>TestCaseID</t>
   </si>
@@ -210,9 +210,6 @@
     <t>CSAM_CA_TS01_TC01</t>
   </si>
   <si>
-    <t>ServiceLineCreate</t>
-  </si>
-  <si>
     <t>Dummy</t>
   </si>
   <si>
@@ -231,18 +228,6 @@
     <t>pi_create_prospect_popup_combobox</t>
   </si>
   <si>
-    <t>Test1</t>
-  </si>
-  <si>
-    <t>Test2</t>
-  </si>
-  <si>
-    <t>Test3</t>
-  </si>
-  <si>
-    <t>Test4</t>
-  </si>
-  <si>
     <t>Test5</t>
   </si>
   <si>
@@ -348,9 +333,6 @@
     <t>pc_website_textfield</t>
   </si>
   <si>
-    <t>www.test2.com</t>
-  </si>
-  <si>
     <t>pc_salesrep_dropdown</t>
   </si>
   <si>
@@ -1735,6 +1717,57 @@
   </si>
   <si>
     <t>slc_monthly_rate_save_button</t>
+  </si>
+  <si>
+    <t>UAT_PM_NP_CP_TS01_TC03</t>
+  </si>
+  <si>
+    <t>UAT_PM_NP_CP_TS01_TC01</t>
+  </si>
+  <si>
+    <t>UAT_PM_NP_CP_TS01_TC02</t>
+  </si>
+  <si>
+    <t>UAT_PM_NP_CP_TS01_TC04</t>
+  </si>
+  <si>
+    <t>www.tc4.com</t>
+  </si>
+  <si>
+    <t>TC4Contact</t>
+  </si>
+  <si>
+    <t>TC4Position</t>
+  </si>
+  <si>
+    <t>TC4@email.com</t>
+  </si>
+  <si>
+    <t>147</t>
+  </si>
+  <si>
+    <t>3216547890</t>
+  </si>
+  <si>
+    <t>358</t>
+  </si>
+  <si>
+    <t>UAT_PM_NP_CP_TS01_TC05</t>
+  </si>
+  <si>
+    <t>www.tc5.com</t>
+  </si>
+  <si>
+    <t>TC5Contact</t>
+  </si>
+  <si>
+    <t>TC5Position</t>
+  </si>
+  <si>
+    <t>TC5@email.com</t>
+  </si>
+  <si>
+    <t>1223452346</t>
   </si>
 </sst>
 </file>
@@ -1860,9 +1893,6 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1871,6 +1901,9 @@
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2190,7 +2223,7 @@
   <dimension ref="A1:L27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+      <selection activeCell="C2" sqref="C2:D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2208,18 +2241,18 @@
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
     </row>
     <row r="2" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -2401,9 +2434,7 @@
       <c r="G9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H9" s="3" t="s">
-        <v>22</v>
-      </c>
+      <c r="H9" s="3"/>
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
@@ -2618,9 +2649,7 @@
       <c r="B21" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C21" s="3" t="s">
-        <v>27</v>
-      </c>
+      <c r="C21" s="3"/>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
@@ -2638,33 +2667,15 @@
       <c r="B22" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="K22" s="3" t="s">
-        <v>25</v>
-      </c>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
       <c r="L22" s="3"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
@@ -2674,12 +2685,8 @@
       <c r="B23" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C23" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>25</v>
-      </c>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
@@ -2696,15 +2703,9 @@
       <c r="B24" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C24" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>43</v>
-      </c>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
@@ -2738,12 +2739,8 @@
       <c r="B26" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>52</v>
-      </c>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
@@ -2755,26 +2752,16 @@
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>485</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>517</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>22</v>
-      </c>
+        <v>479</v>
+      </c>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
       <c r="H27" s="3"/>
       <c r="I27" s="3"/>
       <c r="J27" s="3"/>
@@ -2844,10 +2831,10 @@
   <sheetData>
     <row r="1" spans="1:11" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>53</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>54</v>
       </c>
       <c r="C1" s="7" t="s">
         <v>21</v>
@@ -2859,310 +2846,310 @@
         <v>44</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="J1" s="6" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="K1" s="6" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="8" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="8" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="8" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="8" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="8" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="8" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="8" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="J8" s="8" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="K8" s="8" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="8" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="I9" s="8" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="J9" s="8" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="K9" s="8" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="I10" s="8" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="J10" s="8" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="K10" s="8" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="8" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I11" s="8" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="J11" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K11" s="8" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="8" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>533</v>
+        <v>527</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>534</v>
+        <v>528</v>
       </c>
       <c r="H12" s="8" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="I12" s="8" t="s">
-        <v>521</v>
+        <v>515</v>
       </c>
       <c r="J12" s="8" t="s">
-        <v>535</v>
+        <v>529</v>
       </c>
       <c r="K12" s="8" t="s">
-        <v>536</v>
+        <v>530</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="8" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="8" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="8" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="8" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
     </row>
     <row r="17" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="8" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
     </row>
     <row r="18" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="8" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
     </row>
     <row r="19" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="8" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
     </row>
     <row r="20" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="8" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
     </row>
     <row r="21" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="8" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
     </row>
     <row r="22" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="8" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
     </row>
     <row r="23" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="8" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
     </row>
     <row r="24" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="8" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
     </row>
     <row r="25" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="8" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
     </row>
     <row r="26" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="8" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
     </row>
     <row r="27" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="8" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
     </row>
     <row r="28" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="8" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
     </row>
     <row r="29" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="8" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
     </row>
     <row r="30" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="8" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
     </row>
     <row r="31" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="8" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
     </row>
     <row r="32" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="8" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
     </row>
     <row r="33" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="8" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
     </row>
     <row r="34" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="8" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
     </row>
     <row r="35" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="8" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
     </row>
     <row r="36" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="8" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
     </row>
     <row r="37" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="8" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
     </row>
     <row r="38" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3179,7 +3166,7 @@
     <row r="49" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="50" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B50" s="8" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
     </row>
     <row r="51" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3220,7 +3207,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
     </row>
   </sheetData>
@@ -3246,10 +3233,10 @@
   <sheetData>
     <row r="1" spans="1:9" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>53</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>54</v>
       </c>
       <c r="C1" s="7" t="s">
         <v>21</v>
@@ -3267,64 +3254,64 @@
     </row>
     <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="8" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="8" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="8" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="8" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="8" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="8" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="8" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="8" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="8" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3369,7 +3356,7 @@
     <row r="49" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="50" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B50" s="8" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
     </row>
     <row r="51" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3403,10 +3390,10 @@
   <sheetData>
     <row r="1" spans="1:9" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>53</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>54</v>
       </c>
       <c r="C1" s="7" t="s">
         <v>18</v>
@@ -3424,170 +3411,170 @@
     </row>
     <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="8" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>508</v>
+        <v>502</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="8" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>509</v>
+        <v>503</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="8" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="8" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="8" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="8" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="8" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="8" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="8" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="8" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="8" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="8" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>510</v>
+        <v>504</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="8" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="8" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="17" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="8" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
     </row>
     <row r="18" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="8" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
     </row>
     <row r="19" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="8" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
     </row>
     <row r="20" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3619,7 +3606,7 @@
     <row r="46" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="47" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="8" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
     </row>
     <row r="48" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3663,13 +3650,13 @@
   <sheetData>
     <row r="1" spans="1:8" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="6" t="s">
-        <v>54</v>
-      </c>
       <c r="C1" s="7" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="D1" s="7"/>
       <c r="E1" s="7"/>
@@ -3679,161 +3666,161 @@
     </row>
     <row r="2" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="8" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="8" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="8" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="8" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="8" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="8" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="8" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="8" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="8" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="8" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="8" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="8" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="8" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="8" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
     </row>
     <row r="17" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="8" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
     </row>
     <row r="18" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="8" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
     </row>
     <row r="19" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="8" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
     </row>
     <row r="20" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="8" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
     </row>
     <row r="21" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="8" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
     </row>
     <row r="22" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="8" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
     </row>
     <row r="23" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="8" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
     </row>
     <row r="24" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="8" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
     </row>
     <row r="25" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="8" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
     </row>
     <row r="26" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="8" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
     </row>
     <row r="27" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="8" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
     </row>
     <row r="28" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="8" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
     </row>
     <row r="29" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="8" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
     </row>
     <row r="30" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="8" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
     </row>
     <row r="31" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="8" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
     </row>
     <row r="32" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3859,7 +3846,7 @@
     <row r="52" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="53" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B53" s="8" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
     </row>
     <row r="54" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3889,7 +3876,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D89BA3D3-1B94-4C77-B8E7-B6D246A7B5C9}">
   <dimension ref="A1:K59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
@@ -3904,10 +3891,10 @@
   <sheetData>
     <row r="1" spans="1:11" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>53</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>54</v>
       </c>
       <c r="C1" s="7" t="s">
         <v>51</v>
@@ -3919,638 +3906,638 @@
         <v>44</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="J1" s="6" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="K1" s="6" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="8" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="8" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="8" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="I4" s="8" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="J4" s="8" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="K4" s="8" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="8" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="8" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="F6" s="8" t="s">
+        <v>531</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>375</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>516</v>
+      </c>
+      <c r="I6" s="8" t="s">
+        <v>538</v>
+      </c>
+      <c r="J6" s="8" t="s">
         <v>537</v>
       </c>
-      <c r="G6" s="8" t="s">
-        <v>381</v>
-      </c>
-      <c r="H6" s="8" t="s">
-        <v>522</v>
-      </c>
-      <c r="I6" s="8" t="s">
-        <v>544</v>
-      </c>
-      <c r="J6" s="8" t="s">
-        <v>543</v>
-      </c>
       <c r="K6" s="8" t="s">
-        <v>542</v>
+        <v>536</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="8" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="C7" s="8" t="s">
+        <v>377</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>378</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>377</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>539</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>540</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>505</v>
+      </c>
+      <c r="I7" s="8" t="s">
+        <v>377</v>
+      </c>
+      <c r="J7" s="8" t="s">
+        <v>541</v>
+      </c>
+      <c r="K7" s="8" t="s">
         <v>383</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>384</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>383</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>545</v>
-      </c>
-      <c r="G7" s="8" t="s">
-        <v>546</v>
-      </c>
-      <c r="H7" s="8" t="s">
-        <v>511</v>
-      </c>
-      <c r="I7" s="8" t="s">
-        <v>383</v>
-      </c>
-      <c r="J7" s="8" t="s">
-        <v>547</v>
-      </c>
-      <c r="K7" s="8" t="s">
-        <v>389</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="8" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>548</v>
+        <v>542</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>548</v>
+        <v>542</v>
       </c>
       <c r="J8" s="8" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="K8" s="8" t="s">
-        <v>548</v>
+        <v>542</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="8" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>539</v>
+        <v>533</v>
       </c>
       <c r="I9" s="8" t="s">
-        <v>540</v>
+        <v>534</v>
       </c>
       <c r="J9" s="8" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="K9" s="8" t="s">
-        <v>541</v>
+        <v>535</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>549</v>
+        <v>543</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="I10" s="8" t="s">
-        <v>551</v>
+        <v>545</v>
       </c>
       <c r="J10" s="8" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="K10" s="8" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="8" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="I11" s="8" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="J11" s="8" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="K11" s="8" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="8" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="G12" s="11" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="H12" s="11" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="I12" s="11" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="J12" s="11" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="K12" s="11" t="s">
-        <v>555</v>
+        <v>549</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="8" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="F13" s="12" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="G13" s="12" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="H13" s="12" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="I13" s="12" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="J13" s="12" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="K13" s="12" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="8" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="G14" s="8" t="s">
+        <v>544</v>
+      </c>
+      <c r="H14" s="8" t="s">
+        <v>393</v>
+      </c>
+      <c r="I14" s="8" t="s">
         <v>550</v>
       </c>
-      <c r="H14" s="8" t="s">
-        <v>399</v>
-      </c>
-      <c r="I14" s="8" t="s">
-        <v>556</v>
-      </c>
       <c r="J14" s="8" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="K14" s="8" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="8" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="H15" s="8" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="I15" s="8" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="J15" s="8" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="K15" s="8" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="8" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="17" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="8" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="H17" s="8" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="I17" s="8" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="J17" s="8" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="K17" s="8" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
     </row>
     <row r="18" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="8" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="19" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="8" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H19" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I19" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J19" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K19" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="20" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="8" t="s">
-        <v>557</v>
+        <v>551</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="J20" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="21" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="8" t="s">
-        <v>558</v>
+        <v>552</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J21" s="8" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
     </row>
     <row r="22" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="8" t="s">
-        <v>559</v>
+        <v>553</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
     </row>
     <row r="23" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="8" t="s">
-        <v>560</v>
+        <v>554</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="J23" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="24" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="8" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I24" s="8" t="s">
-        <v>552</v>
+        <v>546</v>
       </c>
     </row>
     <row r="25" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="8" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
     </row>
     <row r="26" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="8" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
     </row>
     <row r="27" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="8" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
     </row>
     <row r="28" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="8" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="29" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="8" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
     </row>
     <row r="30" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="8" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
     </row>
     <row r="31" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="8" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
     </row>
     <row r="32" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="8" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
     </row>
     <row r="33" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="8" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
     </row>
     <row r="34" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="8" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
     </row>
     <row r="35" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="8" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
     </row>
     <row r="36" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="8" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
     </row>
     <row r="37" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="8" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
     </row>
     <row r="38" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="8" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
     </row>
     <row r="39" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="8" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
     </row>
     <row r="40" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="8" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
     </row>
     <row r="41" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="8" t="s">
-        <v>553</v>
+        <v>547</v>
       </c>
     </row>
     <row r="42" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="8" t="s">
-        <v>554</v>
+        <v>548</v>
       </c>
       <c r="I42" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="43" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="8" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
     </row>
     <row r="44" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="8" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
     </row>
     <row r="45" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="8" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
     </row>
     <row r="46" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4605,10 +4592,10 @@
   <sheetData>
     <row r="1" spans="1:9" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>53</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>54</v>
       </c>
       <c r="C1" s="7"/>
       <c r="D1" s="7"/>
@@ -4620,212 +4607,212 @@
     </row>
     <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="8" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="8" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="8" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="8" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="8" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="8" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="8" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="8" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="8" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="8" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="8" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="8" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="8" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="8" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
     </row>
     <row r="17" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="8" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
     </row>
     <row r="18" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="8" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
     </row>
     <row r="19" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="8" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
     </row>
     <row r="20" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="8" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
     </row>
     <row r="21" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="8" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
     </row>
     <row r="22" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="8" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
     </row>
     <row r="23" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="8" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
     </row>
     <row r="24" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="8" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
     </row>
     <row r="25" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="8" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
     </row>
     <row r="26" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="8" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
     </row>
     <row r="27" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="8" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
     </row>
     <row r="28" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="8" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
     </row>
     <row r="29" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="8" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
     </row>
     <row r="30" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="8" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
     </row>
     <row r="31" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="8" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
     </row>
     <row r="32" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="8" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
     </row>
     <row r="33" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="8" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
     </row>
     <row r="34" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="8" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
     </row>
     <row r="35" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="8" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
     </row>
     <row r="36" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="8" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
     </row>
     <row r="37" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="8" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
     </row>
     <row r="38" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="8" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
     </row>
     <row r="39" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="8" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
     </row>
     <row r="40" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="8" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
     </row>
     <row r="41" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="8" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
     </row>
     <row r="42" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="8" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
     </row>
     <row r="43" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="8" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
     </row>
     <row r="44" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4879,77 +4866,77 @@
   <sheetData>
     <row r="1" spans="1:9" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="6" t="s">
-        <v>54</v>
-      </c>
       <c r="C1" s="7" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="H1" s="7" t="s">
-        <v>485</v>
-      </c>
-      <c r="I1" s="14"/>
+        <v>479</v>
+      </c>
+      <c r="I1" s="13"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="15"/>
-      <c r="B2" s="15" t="s">
-        <v>514</v>
-      </c>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
+      <c r="A2" s="14"/>
+      <c r="B2" s="14" t="s">
+        <v>508</v>
+      </c>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="15"/>
-      <c r="B3" s="15" t="s">
-        <v>515</v>
-      </c>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
+      <c r="A3" s="14"/>
+      <c r="B3" s="14" t="s">
+        <v>509</v>
+      </c>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="15"/>
-      <c r="B4" s="15" t="s">
-        <v>516</v>
-      </c>
-      <c r="C4" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="D4" s="15" t="s">
-        <v>474</v>
-      </c>
-      <c r="E4" s="15" t="s">
-        <v>474</v>
-      </c>
-      <c r="F4" s="15" t="s">
-        <v>474</v>
-      </c>
-      <c r="G4" s="15" t="s">
-        <v>474</v>
-      </c>
-      <c r="H4" s="15" t="s">
-        <v>474</v>
+      <c r="A4" s="14"/>
+      <c r="B4" s="14" t="s">
+        <v>510</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>468</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>468</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>468</v>
+      </c>
+      <c r="G4" s="14" t="s">
+        <v>468</v>
+      </c>
+      <c r="H4" s="14" t="s">
+        <v>468</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5030,10 +5017,10 @@
   <dimension ref="A1:V33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="6" ySplit="19" topLeftCell="O20" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="19" topLeftCell="G20" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A20" sqref="A20"/>
-      <selection pane="bottomRight" activeCell="Q5" sqref="Q5"/>
+      <selection pane="bottomRight" activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5048,10 +5035,10 @@
   <sheetData>
     <row r="1" spans="1:22" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>53</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>54</v>
       </c>
       <c r="C1" s="7" t="s">
         <v>3</v>
@@ -5093,281 +5080,281 @@
         <v>41</v>
       </c>
       <c r="P1" s="7" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="S1" s="2" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="T1" s="2" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="U1" s="2" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="V1" s="2" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B2" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B3" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C3" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="L3" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q3" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="R3" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="S3" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="T3" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="U3" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="V3" s="8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" ht="30" x14ac:dyDescent="0.25">
+      <c r="B4" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="D3" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="H3" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="I3" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="J3" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="K3" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="L3" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q3" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="R3" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="S3" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="T3" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="U3" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="V3" s="8" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B4" s="8" t="s">
+      <c r="C4" s="8" t="s">
+        <v>556</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>557</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>555</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>558</v>
+      </c>
+      <c r="G4" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="H4" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="I4" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="J4" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="F4" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="H4" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="I4" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="J4" s="8" t="s">
-        <v>66</v>
-      </c>
       <c r="K4" s="8" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="L4" s="9" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
       <c r="Q4" s="8" t="s">
-        <v>523</v>
+        <v>517</v>
       </c>
       <c r="R4" s="8" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
       <c r="S4" s="8" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="T4" s="8" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
       <c r="U4" s="8" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
       <c r="V4" s="8" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B5" s="8" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B6" s="8" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B7" s="8" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B8" s="8" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B9" s="8" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B11" s="8" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B12" s="8" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B13" s="8" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B14" s="8" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B15" s="8" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B16" s="8" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B17" s="8" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B18" s="8" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B19" s="8" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B20" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B21" s="8" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="22" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B22" s="8" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="23" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B23" s="8" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="24" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B24" s="8" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="25" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B25" s="8" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="26" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B26" s="8" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="27" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B27" s="8" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="28" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B28" s="8" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="29" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B29" s="8" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="30" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B30" s="8" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="31" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B31" s="8" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="32" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B32" s="8" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B33" s="8" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -5379,12 +5366,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBCAE703-B904-44CB-A990-CED3724569EE}">
   <dimension ref="A1:P56"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="6" ySplit="18" topLeftCell="L43" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="6" ySplit="18" topLeftCell="L19" activePane="bottomRight" state="frozen"/>
       <selection activeCell="G19" sqref="G19"/>
       <selection pane="topRight" activeCell="G19" sqref="G19"/>
       <selection pane="bottomLeft" activeCell="G19" sqref="G19"/>
-      <selection pane="bottomRight" activeCell="E18" sqref="E18"/>
+      <selection pane="bottomRight" activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5398,10 +5385,10 @@
   <sheetData>
     <row r="1" spans="1:16" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>53</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>54</v>
       </c>
       <c r="C1" s="7" t="s">
         <v>6</v>
@@ -5428,1218 +5415,1314 @@
         <v>44</v>
       </c>
       <c r="K1" s="6" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="L1" s="6" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="M1" s="6" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="N1" s="6" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="O1" s="6" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="P1" s="6" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="8" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="C2" s="8" t="s">
+        <v>557</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>555</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>558</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>566</v>
+      </c>
+      <c r="H2" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="H2" s="8" t="s">
-        <v>65</v>
-      </c>
       <c r="J2" s="9" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
       <c r="K2" s="8" t="s">
-        <v>523</v>
+        <v>517</v>
       </c>
       <c r="L2" s="8" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
       <c r="M2" s="8" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="N2" s="8" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
       <c r="O2" s="8" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
       <c r="P2" s="8" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>98</v>
+        <v>92</v>
+      </c>
+      <c r="C3" s="10"/>
+      <c r="E3" s="10" t="s">
+        <v>559</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>567</v>
       </c>
       <c r="K3" s="10" t="s">
-        <v>513</v>
+        <v>507</v>
       </c>
       <c r="L3" s="10" t="s">
-        <v>513</v>
+        <v>507</v>
       </c>
       <c r="M3" s="10" t="s">
-        <v>513</v>
+        <v>507</v>
       </c>
       <c r="N3" s="10" t="s">
-        <v>513</v>
+        <v>507</v>
       </c>
       <c r="O3" s="10" t="s">
-        <v>513</v>
+        <v>507</v>
       </c>
       <c r="P3" s="10" t="s">
-        <v>513</v>
+        <v>507</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="8" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>100</v>
+        <v>94</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>94</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="J4" s="8" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="K4" s="8" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="L4" s="8" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="M4" s="8" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="N4" s="8" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="O4" s="8" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="P4" s="8" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="8" t="s">
-        <v>101</v>
+        <v>95</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>512</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>512</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>512</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>153</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="K5" s="8" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="L5" s="8" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="M5" s="8" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="N5" s="8" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="O5" s="8" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="P5" s="8" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="8" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>103</v>
+        <v>97</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>97</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="J6" s="8" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="K6" s="8" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="L6" s="8" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="M6" s="8" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="N6" s="8" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="O6" s="8" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="P6" s="8" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
     </row>
     <row r="7" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="8" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="L7" s="8" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="M7" s="8" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="N7" s="8" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="O7" s="8" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="P7" s="8" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
     </row>
     <row r="8" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="8" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="9" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="8" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="L9" s="8" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="M9" s="8" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="N9" s="8" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="O9" s="8" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="P9" s="8" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
     </row>
     <row r="10" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
     </row>
     <row r="11" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="8" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="F11" s="12"/>
     </row>
     <row r="12" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="8" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
     </row>
     <row r="13" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="8" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
     </row>
     <row r="14" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="8" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
     </row>
     <row r="15" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="8" t="s">
-        <v>112</v>
+        <v>106</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>56</v>
       </c>
       <c r="H15" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L15" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M15" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N15" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O15" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P15" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="16" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="8" t="s">
-        <v>113</v>
+        <v>107</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>468</v>
       </c>
       <c r="H16" s="8" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
       <c r="L16" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M16" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N16" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O16" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P16" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="17" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="8" t="s">
-        <v>114</v>
+        <v>108</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>568</v>
       </c>
       <c r="H17" s="8" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
       <c r="L17" s="8" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="M17" s="8" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="N17" s="8" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="O17" s="8" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="P17" s="8" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
     </row>
     <row r="18" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="8" t="s">
-        <v>115</v>
+        <v>109</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>569</v>
       </c>
       <c r="H18" s="8" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="L18" s="8" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="M18" s="8" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="N18" s="8" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="O18" s="8" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="P18" s="8" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
     </row>
     <row r="19" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="8" t="s">
-        <v>116</v>
+        <v>110</v>
+      </c>
+      <c r="F19" s="10" t="s">
+        <v>570</v>
       </c>
       <c r="K19" s="10"/>
       <c r="L19" s="10" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="M19" s="10" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="N19" s="10" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="O19" s="10" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="P19" s="10" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
     </row>
     <row r="20" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="8" t="s">
-        <v>117</v>
+        <v>111</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>571</v>
       </c>
       <c r="H20" s="8" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="L20" s="8" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="M20" s="8" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="N20" s="8" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="O20" s="8" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="P20" s="8" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
     </row>
     <row r="21" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="8" t="s">
-        <v>118</v>
+        <v>112</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>175</v>
       </c>
       <c r="L21" s="8" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="M21" s="8" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="N21" s="8" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="O21" s="8" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="P21" s="8" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
     </row>
     <row r="22" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="8" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="L22" s="8" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="M22" s="8" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="N22" s="8" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="O22" s="8" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="P22" s="8" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
     </row>
     <row r="23" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="8" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="L23" s="8" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="M23" s="8" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="N23" s="8" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="O23" s="8" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="P23" s="8" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
     </row>
     <row r="24" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="8" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
     </row>
     <row r="25" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="8" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="H25" s="8" t="s">
-        <v>503</v>
+        <v>497</v>
       </c>
       <c r="L25" s="8" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="N25" s="8" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="O25" s="8" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="P25" s="8" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
     </row>
     <row r="26" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="8" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="L26" s="8" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="N26" s="8" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="O26" s="8" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="P26" s="8" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
     </row>
     <row r="27" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="8" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="H27" s="8" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
       <c r="L27" s="8" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="N27" s="8" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="O27" s="8" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="P27" s="8" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
     </row>
     <row r="28" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="8" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="H28" s="8" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
       <c r="L28" s="8" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="N28" s="8" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="O28" s="8" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="P28" s="8" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
     </row>
     <row r="29" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="8" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="H29" s="8" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
       <c r="L29" s="8" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="N29" s="8" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="O29" s="8" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="P29" s="8" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
     </row>
     <row r="30" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="8" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="H30" s="8" t="s">
-        <v>507</v>
+        <v>501</v>
       </c>
       <c r="L30" s="8" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="N30" s="8" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="O30" s="8" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="P30" s="8" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
     </row>
     <row r="31" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="8" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="H31" s="8" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
       <c r="L31" s="8" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="N31" s="8" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="O31" s="8" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="P31" s="8" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
     </row>
     <row r="32" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="8" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="L32" s="8" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="N32" s="8" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="O32" s="8" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="P32" s="8" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
     </row>
     <row r="33" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="8" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="L33" s="8" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="N33" s="8" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="O33" s="8" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="P33" s="8" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
     </row>
     <row r="34" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="8" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="L34" s="8" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
       <c r="N34" s="8" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
       <c r="O34" s="8" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
       <c r="P34" s="8" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
     </row>
     <row r="35" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="8" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="L35" s="8" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="N35" s="8" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="O35" s="8" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="P35" s="8" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
     </row>
     <row r="36" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="8" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="L36" s="8" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="N36" s="8" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="O36" s="8" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="P36" s="8" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
     </row>
     <row r="37" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="8" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="L37" s="8" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="N37" s="8" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="O37" s="8" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="P37" s="8" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
     </row>
     <row r="38" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="8" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="K38" s="8" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="L38" s="8" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="M38" s="8" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="N38" s="8" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="O38" s="8" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="P38" s="8" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
     </row>
     <row r="39" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="8" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="K39" s="8" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="L39" s="8" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="M39" s="8" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="N39" s="8" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="O39" s="8" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="P39" s="8" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
     </row>
     <row r="40" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="8" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="L40" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N40" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O40" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P40" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="41" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="8" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="K41" s="8" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="M41" s="8" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
     </row>
     <row r="42" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="8" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="K42" s="8" t="s">
-        <v>531</v>
+        <v>525</v>
       </c>
       <c r="M42" s="8" t="s">
-        <v>531</v>
+        <v>525</v>
       </c>
     </row>
     <row r="43" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="8" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="K43" s="8" t="s">
-        <v>532</v>
+        <v>526</v>
       </c>
       <c r="M43" s="8" t="s">
-        <v>532</v>
+        <v>526</v>
       </c>
     </row>
     <row r="44" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="8" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="K44" s="8" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="M44" s="8" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
     </row>
     <row r="45" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="8" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="K45" s="8" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="M45" s="8" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
     </row>
     <row r="46" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="8" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="K46" s="8" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="M46" s="8" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
     </row>
     <row r="47" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="8" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="L47" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N47" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O47" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P47" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="48" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B48" s="8" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="K48" s="8" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="M48" s="8" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
     </row>
     <row r="49" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B49" s="8" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
     </row>
     <row r="50" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B50" s="8" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
     </row>
     <row r="51" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B51" s="8" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="K51" s="8" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="M51" s="8" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
     </row>
     <row r="52" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B52" s="8" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
     </row>
     <row r="53" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B53" s="8" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
     </row>
     <row r="54" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B54" s="8" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
     </row>
     <row r="55" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B55" s="8" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
     </row>
     <row r="56" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B56" s="8" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C3" r:id="rId1" xr:uid="{331CB57D-ECAE-4991-83A0-97CD772BF10F}"/>
-    <hyperlink ref="K3" r:id="rId2" xr:uid="{CDCB38A1-1D82-43AA-A055-AA4330DF4F35}"/>
-    <hyperlink ref="L3" r:id="rId3" xr:uid="{03226BE3-858B-44C0-98AE-47DC31A68C05}"/>
-    <hyperlink ref="L19" r:id="rId4" xr:uid="{8967C149-D616-452B-A8E6-2BAEBD34909F}"/>
-    <hyperlink ref="M3" r:id="rId5" xr:uid="{91FF370C-C306-49CE-9D07-E6321C31FA28}"/>
-    <hyperlink ref="M19" r:id="rId6" xr:uid="{A919C707-EF43-41FF-9940-17452EC8DB69}"/>
-    <hyperlink ref="N3" r:id="rId7" xr:uid="{44D201BB-B6F7-4819-9064-4AA8634A770A}"/>
-    <hyperlink ref="N19" r:id="rId8" xr:uid="{4DA2B24E-2F01-4479-95D2-250B455BAFAB}"/>
-    <hyperlink ref="O3" r:id="rId9" xr:uid="{6BF68FFC-D454-475A-BF8E-E30662284174}"/>
-    <hyperlink ref="O19" r:id="rId10" xr:uid="{21433FA7-7870-4110-9F2E-7032B1A9357A}"/>
-    <hyperlink ref="P3" r:id="rId11" xr:uid="{C53CC221-9593-4E4B-801B-FD0FDA666BA2}"/>
-    <hyperlink ref="P19" r:id="rId12" xr:uid="{9477FB47-51EC-4EAC-A0A1-0AF14903FCBE}"/>
+    <hyperlink ref="K3" r:id="rId1" xr:uid="{CDCB38A1-1D82-43AA-A055-AA4330DF4F35}"/>
+    <hyperlink ref="L3" r:id="rId2" xr:uid="{03226BE3-858B-44C0-98AE-47DC31A68C05}"/>
+    <hyperlink ref="L19" r:id="rId3" xr:uid="{8967C149-D616-452B-A8E6-2BAEBD34909F}"/>
+    <hyperlink ref="M3" r:id="rId4" xr:uid="{91FF370C-C306-49CE-9D07-E6321C31FA28}"/>
+    <hyperlink ref="M19" r:id="rId5" xr:uid="{A919C707-EF43-41FF-9940-17452EC8DB69}"/>
+    <hyperlink ref="N3" r:id="rId6" xr:uid="{44D201BB-B6F7-4819-9064-4AA8634A770A}"/>
+    <hyperlink ref="N19" r:id="rId7" xr:uid="{4DA2B24E-2F01-4479-95D2-250B455BAFAB}"/>
+    <hyperlink ref="O3" r:id="rId8" xr:uid="{6BF68FFC-D454-475A-BF8E-E30662284174}"/>
+    <hyperlink ref="O19" r:id="rId9" xr:uid="{21433FA7-7870-4110-9F2E-7032B1A9357A}"/>
+    <hyperlink ref="P3" r:id="rId10" xr:uid="{C53CC221-9593-4E4B-801B-FD0FDA666BA2}"/>
+    <hyperlink ref="P19" r:id="rId11" xr:uid="{9477FB47-51EC-4EAC-A0A1-0AF14903FCBE}"/>
+    <hyperlink ref="E3" r:id="rId12" xr:uid="{234D8D67-FA59-4ACE-B44A-14E53C227A80}"/>
+    <hyperlink ref="F3" r:id="rId13" xr:uid="{3909C171-1942-4DF8-9C8F-D5D495B925A7}"/>
+    <hyperlink ref="F19" r:id="rId14" xr:uid="{83ABD523-9D02-4B23-9C35-C5A9352D8CB4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId13"/>
+  <pageSetup orientation="portrait" r:id="rId15"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6407F73-CE66-4381-9A7E-E095E10C11FE}">
-  <dimension ref="A1:K57"/>
+  <dimension ref="A1:L57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="6" ySplit="18" topLeftCell="G19" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="18" topLeftCell="H19" activePane="bottomRight" state="frozen"/>
       <selection activeCell="G19" sqref="G19"/>
       <selection pane="topRight" activeCell="G19" sqref="G19"/>
       <selection pane="bottomLeft" activeCell="G19" sqref="G19"/>
-      <selection pane="bottomRight" activeCell="D32" sqref="D32"/>
+      <selection pane="bottomRight" activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.42578125" style="8" customWidth="1"/>
     <col min="2" max="2" width="46.42578125" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="11" width="22.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="8"/>
+    <col min="3" max="12" width="22.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="6" t="s">
-        <v>54</v>
-      </c>
       <c r="C1" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="E1" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="F1" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="G1" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="H1" s="7"/>
       <c r="I1" s="7"/>
       <c r="J1" s="7"/>
       <c r="K1" s="7"/>
-    </row>
-    <row r="2" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L1" s="7"/>
+    </row>
+    <row r="2" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="8" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="8" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="8" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="8" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="8" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="8" t="s">
+    <row r="8" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="8" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="8" t="s">
+      <c r="D8" s="8" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="8" t="s">
+      <c r="G8" s="8" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="8" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="8" t="s">
+    <row r="10" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="D6" s="8" t="s">
+    </row>
+    <row r="11" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="8" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="8" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="8" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="8" t="s">
         <v>162</v>
       </c>
-      <c r="G6" s="8" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="8" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>162</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="8" t="s">
+    </row>
+    <row r="15" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="8" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="8" t="s">
+    <row r="16" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="8" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="8" t="s">
+      <c r="C16" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="H16" s="8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="8" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="8" t="s">
+      <c r="C17" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="H17" s="8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="8" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="8" t="s">
+      <c r="C18" s="8" t="s">
+        <v>560</v>
+      </c>
+      <c r="H18" s="8" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="8" t="s">
+    <row r="19" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="8" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="8" t="s">
+      <c r="C19" s="8" t="s">
+        <v>561</v>
+      </c>
+      <c r="H19" s="8" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="8" t="s">
+    <row r="20" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="8" t="s">
         <v>170</v>
       </c>
-      <c r="G16" s="8" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="17" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="8" t="s">
+      <c r="C20" s="10" t="s">
+        <v>562</v>
+      </c>
+      <c r="H20" s="10" t="s">
         <v>171</v>
       </c>
-      <c r="G17" s="8" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="18" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="8" t="s">
+    </row>
+    <row r="21" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="G18" s="8" t="s">
+      <c r="C21" s="8" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="19" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="8" t="s">
+      <c r="H21" s="8" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="8" t="s">
         <v>174</v>
       </c>
-      <c r="G19" s="8" t="s">
+      <c r="C22" s="8" t="s">
+        <v>563</v>
+      </c>
+      <c r="H22" s="8" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="20" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="8" t="s">
+    <row r="23" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="8" t="s">
         <v>176</v>
       </c>
-      <c r="G20" s="10" t="s">
+      <c r="C23" s="8" t="s">
+        <v>564</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="8" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="21" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="8" t="s">
+      <c r="C24" s="8" t="s">
+        <v>565</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="8" t="s">
         <v>178</v>
       </c>
-      <c r="G21" s="8" t="s">
+      <c r="D25" s="8" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="22" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="8" t="s">
+    <row r="26" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="8" t="s">
         <v>180</v>
       </c>
-      <c r="G22" s="8" t="s">
+      <c r="H26" s="8" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="23" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="8" t="s">
+    <row r="27" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="8" t="s">
         <v>182</v>
       </c>
-      <c r="C23" s="8" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="24" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="8" t="s">
+      <c r="D27" s="8" t="s">
         <v>183</v>
       </c>
-      <c r="C24" s="8" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="25" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="8" t="s">
+      <c r="H27" s="8" t="s">
         <v>184</v>
       </c>
-      <c r="C25" s="8" t="s">
+    </row>
+    <row r="28" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="8" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="26" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="8" t="s">
+      <c r="D28" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="H28" s="8" t="s">
         <v>186</v>
       </c>
-      <c r="G26" s="8" t="s">
+    </row>
+    <row r="29" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="8" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="27" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="8" t="s">
+      <c r="D29" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="H29" s="8" t="s">
         <v>188</v>
       </c>
-      <c r="C27" s="8" t="s">
+    </row>
+    <row r="30" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="8" t="s">
         <v>189</v>
       </c>
-      <c r="G27" s="8" t="s">
+      <c r="H30" s="8" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="28" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="8" t="s">
+    <row r="31" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="8" t="s">
         <v>191</v>
       </c>
-      <c r="C28" s="8" t="s">
-        <v>179</v>
-      </c>
-      <c r="G28" s="8" t="s">
+      <c r="H31" s="8" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="29" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="8" t="s">
+    <row r="32" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="8" t="s">
         <v>193</v>
       </c>
-      <c r="C29" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="G29" s="8" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="30" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="8" t="s">
-        <v>195</v>
-      </c>
-      <c r="G30" s="8" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="31" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="8" t="s">
-        <v>197</v>
-      </c>
-      <c r="G31" s="8" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="32" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="8" t="s">
-        <v>199</v>
-      </c>
-      <c r="G32" s="8" t="s">
-        <v>57</v>
+      <c r="H32" s="8" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="33" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="8" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
     </row>
     <row r="34" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="8" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
     </row>
     <row r="35" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="8" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="36" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="8" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
     </row>
     <row r="37" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="8" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
     </row>
     <row r="38" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="8" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
     </row>
     <row r="39" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="8" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
     </row>
     <row r="40" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="8" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
     </row>
     <row r="41" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6661,8 +6744,9 @@
     <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C27" r:id="rId1" xr:uid="{14065AD4-5E53-40D0-8D3C-19AE13D0371C}"/>
-    <hyperlink ref="G20" r:id="rId2" xr:uid="{FB398F4C-10CD-47D5-8830-D3A7E7332D57}"/>
+    <hyperlink ref="D27" r:id="rId1" xr:uid="{14065AD4-5E53-40D0-8D3C-19AE13D0371C}"/>
+    <hyperlink ref="H20" r:id="rId2" xr:uid="{FB398F4C-10CD-47D5-8830-D3A7E7332D57}"/>
+    <hyperlink ref="C20" r:id="rId3" xr:uid="{7B2FD991-8FB3-4CFB-A818-1EE11BDD04E6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6700,10 +6784,10 @@
   <sheetData>
     <row r="1" spans="1:9" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>53</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>54</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>42</v>
@@ -6723,191 +6807,191 @@
     </row>
     <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="8" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="8" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="8" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="8" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="8" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="8" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="8" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="D8" s="11"/>
     </row>
     <row r="9" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="8" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="8" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="8" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="8" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="8" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="8" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="8" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
     </row>
     <row r="17" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="8" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
     </row>
     <row r="18" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="8" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
     </row>
     <row r="19" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="8" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
     </row>
     <row r="20" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="8" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
     </row>
     <row r="21" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="8" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
     </row>
     <row r="22" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="8" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
     </row>
     <row r="23" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="8" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
     </row>
     <row r="24" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="8" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
     </row>
     <row r="25" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="8" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
     </row>
     <row r="26" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="8" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
     </row>
     <row r="27" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="8" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
     </row>
     <row r="28" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="8" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
     </row>
     <row r="29" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="8" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
       <c r="F29" s="9" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
     </row>
     <row r="30" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6964,10 +7048,10 @@
   <sheetData>
     <row r="1" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>53</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>54</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>44</v>
@@ -6985,197 +7069,197 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B2" s="8" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B3" s="8" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B4" s="8" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B5" s="8" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B6" s="8" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B7" s="8" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B8" s="8" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="D8" s="12"/>
       <c r="E8" s="8" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B9" s="8" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B11" s="8" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B12" s="8" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B13" s="8" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B14" s="8" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B15" s="8" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B16" s="8" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B17" s="8" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B18" s="8" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B19" s="8" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B20" s="8" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B21" s="8" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
     </row>
     <row r="22" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B22" s="8" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
     </row>
     <row r="23" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B23" s="8" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
     </row>
     <row r="24" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B24" s="8" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
     </row>
     <row r="25" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B25" s="8" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
     </row>
     <row r="26" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B26" s="8" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
     </row>
     <row r="27" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/target/test-classes/TestData/NewData.xlsx
+++ b/target/test-classes/TestData/NewData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jteja\GFLAutomation\GFL.Wishes\src\test\resources\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D9E6A2D-0BA3-4790-BD93-94C9A37994F1}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{631D04B3-4CE9-49F0-9464-8A06C3FCB838}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-57720" yWindow="15" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{24025A28-F3F9-43F5-89B1-20F9E5BBA4E0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{24025A28-F3F9-43F5-89B1-20F9E5BBA4E0}"/>
   </bookViews>
   <sheets>
     <sheet name="RunModes" sheetId="1" r:id="rId1"/>

--- a/target/test-classes/TestData/NewData.xlsx
+++ b/target/test-classes/TestData/NewData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jteja\GFLAutomation\GFL.Wishes\src\test\resources\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{631D04B3-4CE9-49F0-9464-8A06C3FCB838}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66060CB0-A490-4AA8-9147-6F3AB941E77F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{24025A28-F3F9-43F5-89B1-20F9E5BBA4E0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="11" activeTab="18" xr2:uid="{24025A28-F3F9-43F5-89B1-20F9E5BBA4E0}"/>
   </bookViews>
   <sheets>
     <sheet name="RunModes" sheetId="1" r:id="rId1"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1073" uniqueCount="572">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="674" uniqueCount="493">
   <si>
     <t>TestCaseID</t>
   </si>
@@ -228,18 +228,6 @@
     <t>pi_create_prospect_popup_combobox</t>
   </si>
   <si>
-    <t>Test5</t>
-  </si>
-  <si>
-    <t>Test6</t>
-  </si>
-  <si>
-    <t>Test7</t>
-  </si>
-  <si>
-    <t>AutomationTest8</t>
-  </si>
-  <si>
     <t>pi_create_prospect_discard_button</t>
   </si>
   <si>
@@ -555,33 +543,18 @@
     <t>pe_contact_name_textfield</t>
   </si>
   <si>
-    <t>Contact1</t>
-  </si>
-  <si>
     <t>pe_contact_position_textfield</t>
   </si>
   <si>
-    <t>Position1</t>
-  </si>
-  <si>
     <t>pe_contact_email_textfield</t>
   </si>
   <si>
-    <t>contact1@email.com</t>
-  </si>
-  <si>
     <t>pe_contact_primary_phone_textfield</t>
   </si>
   <si>
-    <t>1234567890</t>
-  </si>
-  <si>
     <t>pe_contact_primary_extn_textfield</t>
   </si>
   <si>
-    <t>123</t>
-  </si>
-  <si>
     <t>pe_contact_secondary_phone_textfield</t>
   </si>
   <si>
@@ -591,30 +564,15 @@
     <t>pe_delete_contact_button</t>
   </si>
   <si>
-    <t>Test4_Contact</t>
-  </si>
-  <si>
     <t>pe_company_line1_textfield</t>
   </si>
   <si>
-    <t>CompanyAddress1</t>
-  </si>
-  <si>
     <t>pe_company_line2_textfield</t>
   </si>
   <si>
-    <t>Test4Contact@test.com</t>
-  </si>
-  <si>
-    <t>CompanyAddress2</t>
-  </si>
-  <si>
     <t>pe_company_city_textfield</t>
   </si>
   <si>
-    <t>CompanyCity</t>
-  </si>
-  <si>
     <t>pe_company_address_country_dropdown</t>
   </si>
   <si>
@@ -630,9 +588,6 @@
     <t>pe_company_address_zipcode_textfield</t>
   </si>
   <si>
-    <t>L3Z 0J9</t>
-  </si>
-  <si>
     <t>pe_billing_address_same_checkbox</t>
   </si>
   <si>
@@ -840,18 +795,9 @@
     <t>ac_agreement_name_combobox</t>
   </si>
   <si>
-    <t>xyyyzzz</t>
-  </si>
-  <si>
     <t>ac_po_number_textfield</t>
   </si>
   <si>
-    <t>1234</t>
-  </si>
-  <si>
-    <t>Create New</t>
-  </si>
-  <si>
     <t>ac_created_on_textfield</t>
   </si>
   <si>
@@ -873,9 +819,6 @@
     <t>ac_add_new_site_button</t>
   </si>
   <si>
-    <t>Adele</t>
-  </si>
-  <si>
     <t>ac_site_name_textfield</t>
   </si>
   <si>
@@ -969,9 +912,6 @@
     <t>acc_upload_document_textfield</t>
   </si>
   <si>
-    <t>C:\Users\jteja\Downloads\9689_Agreement.pdf</t>
-  </si>
-  <si>
     <t>acc_discard_popup_button</t>
   </si>
   <si>
@@ -984,9 +924,6 @@
     <t>sc_site_name_textfield</t>
   </si>
   <si>
-    <t>Site1</t>
-  </si>
-  <si>
     <t>sc_sales_rep_dropdown</t>
   </si>
   <si>
@@ -1002,9 +939,6 @@
     <t>sc_address_ciy_textfield</t>
   </si>
   <si>
-    <t>Test8SiteName</t>
-  </si>
-  <si>
     <t>sc_address_country_dropdown</t>
   </si>
   <si>
@@ -1014,45 +948,21 @@
     <t>sc_address_zipcode_textfield</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
     <t>sc_contact_name_textfield</t>
   </si>
   <si>
-    <t>Address Line 1</t>
-  </si>
-  <si>
-    <t>SiteContact1</t>
-  </si>
-  <si>
     <t>sc_contact_position_textfield</t>
   </si>
   <si>
-    <t>Address Line 2</t>
-  </si>
-  <si>
     <t>sc_contact_email_textfield</t>
   </si>
   <si>
-    <t>Address City</t>
-  </si>
-  <si>
-    <t>contactsite@email.com</t>
-  </si>
-  <si>
     <t>sc_contact_primary_phone_textfield</t>
   </si>
   <si>
-    <t>1234569870</t>
-  </si>
-  <si>
     <t>sc_contact_primary_extn_textfield</t>
   </si>
   <si>
-    <t>125</t>
-  </si>
-  <si>
     <t>sc_contact_secondary_phone_textfield</t>
   </si>
   <si>
@@ -1062,712 +972,565 @@
     <t>sc_discard_button</t>
   </si>
   <si>
+    <t>sc_saveandsubmit_button</t>
+  </si>
+  <si>
+    <t>se_slider_left_button</t>
+  </si>
+  <si>
+    <t>se_search_site_combobox</t>
+  </si>
+  <si>
+    <t>se_slider_right_button</t>
+  </si>
+  <si>
+    <t>se_details_tab_button</t>
+  </si>
+  <si>
+    <t>se_site_name_textfield</t>
+  </si>
+  <si>
+    <t>se_sales_rep_dropdown</t>
+  </si>
+  <si>
+    <t>se_site_address_same_checkbox</t>
+  </si>
+  <si>
+    <t>se_address_line1_textfield</t>
+  </si>
+  <si>
+    <t>se_address_line2_textfield</t>
+  </si>
+  <si>
+    <t>se_address_ciy_textfield</t>
+  </si>
+  <si>
+    <t>se_address_country_dropdown</t>
+  </si>
+  <si>
+    <t>se_address_province_dropdown</t>
+  </si>
+  <si>
+    <t>se_address_zipcode_textfield</t>
+  </si>
+  <si>
+    <t>se_contact_tab_button</t>
+  </si>
+  <si>
+    <t>se_contact_name_textfield</t>
+  </si>
+  <si>
+    <t>se_contact_position_textfield</t>
+  </si>
+  <si>
+    <t>se_contact_email_textfield</t>
+  </si>
+  <si>
+    <t>se_contact_primary_phone_textfield</t>
+  </si>
+  <si>
+    <t>se_contact_primary_extn_textfield</t>
+  </si>
+  <si>
+    <t>se_contact_secondary_phone_textfield</t>
+  </si>
+  <si>
+    <t>se_contact_secondary_extn_textfield</t>
+  </si>
+  <si>
+    <t>se_agreements_tab_button</t>
+  </si>
+  <si>
+    <t>se_create_report_button</t>
+  </si>
+  <si>
+    <t>se_agreements_results</t>
+  </si>
+  <si>
+    <t>se_documents_tab_button</t>
+  </si>
+  <si>
+    <t>se_upload_documents_link</t>
+  </si>
+  <si>
+    <t>se_comments_tab_button</t>
+  </si>
+  <si>
+    <t>se_history_tab_button</t>
+  </si>
+  <si>
+    <t>se_discard_button</t>
+  </si>
+  <si>
+    <t>se_save_site_changes_button</t>
+  </si>
+  <si>
+    <t>slc_home_link</t>
+  </si>
+  <si>
+    <t>slc_agreements_link</t>
+  </si>
+  <si>
+    <t>slc_service_type_dropdown</t>
+  </si>
+  <si>
+    <t>slc_margin_radio</t>
+  </si>
+  <si>
+    <t>slc_container_count_textfield</t>
+  </si>
+  <si>
+    <t>slc_service_frequency_dropdown</t>
+  </si>
+  <si>
+    <t>slc_container_type_dropdown</t>
+  </si>
+  <si>
+    <t>slc_container_size_dropdown</t>
+  </si>
+  <si>
+    <t>slc_material_type_dropdown</t>
+  </si>
+  <si>
+    <t>slc_route_dropdown</t>
+  </si>
+  <si>
+    <t>slc_route_density_dropdown</t>
+  </si>
+  <si>
+    <t>slc_location_type_textfield</t>
+  </si>
+  <si>
+    <t>slc_disposal_site_dropdown</t>
+  </si>
+  <si>
+    <t>slc_weight_textfield</t>
+  </si>
+  <si>
+    <t>slc_uom_dropdown</t>
+  </si>
+  <si>
+    <t>slc_container_rental_fee_textfield</t>
+  </si>
+  <si>
+    <t>slc_clear_calculations_button</t>
+  </si>
+  <si>
+    <t>slc_calculate_button</t>
+  </si>
+  <si>
+    <t>slc_delivery_extrafee_textfield</t>
+  </si>
+  <si>
+    <t>slc_extra_lift_extrafee_textfield</t>
+  </si>
+  <si>
+    <t>slc_removal_extrafee_textfield</t>
+  </si>
+  <si>
+    <t>slc_relocation_extrafee_textfield</t>
+  </si>
+  <si>
+    <t>slc_admin_extrafee_textfield</t>
+  </si>
+  <si>
+    <t>slc_commodity_surcharge_extrafee_textfield</t>
+  </si>
+  <si>
+    <t>slc_additional_extrafee_button</t>
+  </si>
+  <si>
+    <t>slc_additional_extrafee_name_textfield</t>
+  </si>
+  <si>
+    <t>slc_additional_extrafee_amount_textfield</t>
+  </si>
+  <si>
+    <t>slc_additional_extrafee_discard_button</t>
+  </si>
+  <si>
+    <t>slc_additional_extrafee_save_button</t>
+  </si>
+  <si>
+    <t>slc_oil_extrafee_radio</t>
+  </si>
+  <si>
+    <t>slc_oil_extrafee_amount_textfield</t>
+  </si>
+  <si>
+    <t>slc_environmental_extrafee_radio</t>
+  </si>
+  <si>
+    <t>slc_environmental_extrafee_amount_textfield</t>
+  </si>
+  <si>
+    <t>slc_recycling_extrafee_radio</t>
+  </si>
+  <si>
+    <t>slc_recycling_extrafee_amount_textfield</t>
+  </si>
+  <si>
+    <t>slc_additional_notes_textfield</t>
+  </si>
+  <si>
+    <t>slc_discard_button</t>
+  </si>
+  <si>
+    <t>slc_add_service_button</t>
+  </si>
+  <si>
+    <t>sle_home_link</t>
+  </si>
+  <si>
+    <t>sle_agreements_link</t>
+  </si>
+  <si>
+    <t>sle_service_type_dropdown</t>
+  </si>
+  <si>
+    <t>sle_margin_radio</t>
+  </si>
+  <si>
+    <t>sle_container_count_textfield</t>
+  </si>
+  <si>
+    <t>sle_service_frequency_dropdown</t>
+  </si>
+  <si>
+    <t>sle_container_type_dropdown</t>
+  </si>
+  <si>
+    <t>sle_container_size_dropdown</t>
+  </si>
+  <si>
+    <t>sle_material_type_dropdown</t>
+  </si>
+  <si>
+    <t>sle_route_dropdown</t>
+  </si>
+  <si>
+    <t>sle_route_density_dropdown</t>
+  </si>
+  <si>
+    <t>sle_location_type_textfield</t>
+  </si>
+  <si>
+    <t>sle_disposal_site_dropdown</t>
+  </si>
+  <si>
+    <t>sle_weight_textfield</t>
+  </si>
+  <si>
+    <t>sle_uom_dropdown</t>
+  </si>
+  <si>
+    <t>sle_container_rental_fee_textfield</t>
+  </si>
+  <si>
+    <t>sle_clear_calculations_button</t>
+  </si>
+  <si>
+    <t>sle_calculate_button</t>
+  </si>
+  <si>
+    <t>sle_total_sell_edit_button</t>
+  </si>
+  <si>
+    <t>sle_total_sell_textfield</t>
+  </si>
+  <si>
+    <t>sle_total_sell_cancel_button</t>
+  </si>
+  <si>
+    <t>sle_total_sell_save_button</t>
+  </si>
+  <si>
+    <t>sle_delivery_extrafee_textfield</t>
+  </si>
+  <si>
+    <t>sle_extra_lift_extrafee_textfield</t>
+  </si>
+  <si>
+    <t>sle_removal_extrafee_textfield</t>
+  </si>
+  <si>
+    <t>sle_relocation_extrafee_textfield</t>
+  </si>
+  <si>
+    <t>sle_admin_extrafee_textfield</t>
+  </si>
+  <si>
+    <t>sle_commodity_surcharge_extrafee_textfield</t>
+  </si>
+  <si>
+    <t>sle_additional_extrafee_button</t>
+  </si>
+  <si>
+    <t>sle_additional_extrafee_name_textfield</t>
+  </si>
+  <si>
+    <t>sle_additional_extrafee_amount_textfield</t>
+  </si>
+  <si>
+    <t>sle_additional_extrafee_discard_button</t>
+  </si>
+  <si>
+    <t>sle_additional_extrafee_save_button</t>
+  </si>
+  <si>
+    <t>sle_oil_extrafee_radio</t>
+  </si>
+  <si>
+    <t>sle_oil_extrafee_amount_textfield</t>
+  </si>
+  <si>
+    <t>sle_environmental_extrafee_radio</t>
+  </si>
+  <si>
+    <t>sle_environmental_extrafee_amount_textfield</t>
+  </si>
+  <si>
+    <t>sle_recycling_extrafee_radio</t>
+  </si>
+  <si>
+    <t>sle_recycling_extrafee_amount_textfield</t>
+  </si>
+  <si>
+    <t>sle_additional_notes_textfield</t>
+  </si>
+  <si>
+    <t>sle_discard_button</t>
+  </si>
+  <si>
+    <t>sle_add_service_button</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>CAPR_APCON_TS01_TC01</t>
+  </si>
+  <si>
+    <t>258</t>
+  </si>
+  <si>
+    <t>cnm_edit_region_dropdown</t>
+  </si>
+  <si>
+    <t>cnm_edit_business_unit_dropdown</t>
+  </si>
+  <si>
+    <t>cnm_edit_approvals_checkbox</t>
+  </si>
+  <si>
+    <t>CntNMntEdit</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>slc_clear_extrafees_button</t>
+  </si>
+  <si>
+    <t>slc_total_button</t>
+  </si>
+  <si>
+    <t>slc_monthly_rate_edit_button</t>
+  </si>
+  <si>
+    <t>slc_monthly_rate_textfield</t>
+  </si>
+  <si>
+    <t>slc_monthly_rate_cancel_button</t>
+  </si>
+  <si>
+    <t>slc_monthly_rate_save_button</t>
+  </si>
+  <si>
+    <t>UAT_PM_NP_CP_TS01_TC01</t>
+  </si>
+  <si>
+    <t>UAT_PM_NP_CP_TS01_TC02</t>
+  </si>
+  <si>
+    <t>UAT_PM_NP_CP_TS01_TC03</t>
+  </si>
+  <si>
+    <t>UAT_PM_NP_CP_TS01_TC04</t>
+  </si>
+  <si>
+    <t>1234567899</t>
+  </si>
+  <si>
+    <t>147</t>
+  </si>
+  <si>
+    <t>2589631470</t>
+  </si>
+  <si>
+    <t>UAT_PM_NP_CP_TS01_TC05</t>
+  </si>
+  <si>
+    <t>TC5Contact</t>
+  </si>
+  <si>
+    <t>TC5Position</t>
+  </si>
+  <si>
+    <t>TC5@email.com</t>
+  </si>
+  <si>
+    <t>1478529632</t>
+  </si>
+  <si>
+    <t>159</t>
+  </si>
+  <si>
+    <t>3579518520</t>
+  </si>
+  <si>
+    <t>259</t>
+  </si>
+  <si>
+    <t>UAT_PM_NP_CP_TS01_TC06</t>
+  </si>
+  <si>
+    <t>UAT_PM_NP_CP_TS01_TC07</t>
+  </si>
+  <si>
+    <t>TC7Contact</t>
+  </si>
+  <si>
+    <t>TC7Position</t>
+  </si>
+  <si>
+    <t>TC7@email.com</t>
+  </si>
+  <si>
+    <t>TC6Contact</t>
+  </si>
+  <si>
+    <t>TC6Position</t>
+  </si>
+  <si>
+    <t>TC6@EMAIL.COM</t>
+  </si>
+  <si>
+    <t>TC4Contact</t>
+  </si>
+  <si>
+    <t>TC4Position</t>
+  </si>
+  <si>
+    <t>TC4@email.com</t>
+  </si>
+  <si>
+    <t>TC7Site</t>
+  </si>
+  <si>
+    <t>SiteAddress1</t>
+  </si>
+  <si>
+    <t>SiteAddress2</t>
+  </si>
+  <si>
+    <t>SiteCity</t>
+  </si>
+  <si>
+    <t>L3Z0J7</t>
+  </si>
+  <si>
+    <t>TC7Positon</t>
+  </si>
+  <si>
+    <t>1593578420</t>
+  </si>
+  <si>
+    <t>1478523690</t>
+  </si>
+  <si>
+    <t>257</t>
+  </si>
+  <si>
+    <t>UAT_PM_NP_CP_TS01_TC08</t>
+  </si>
+  <si>
+    <t>TC8Contact</t>
+  </si>
+  <si>
+    <t>TC8Position</t>
+  </si>
+  <si>
+    <t>TC8@email.com</t>
+  </si>
+  <si>
+    <t>TC8Site</t>
+  </si>
+  <si>
+    <t>TC8Positon</t>
+  </si>
+  <si>
+    <t>15987453</t>
+  </si>
+  <si>
+    <t>APCON1</t>
+  </si>
+  <si>
+    <t>123456789</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>Front End</t>
+  </si>
+  <si>
+    <t>Site</t>
+  </si>
+  <si>
+    <t>l1</t>
+  </si>
+  <si>
+    <t>l2</t>
+  </si>
+  <si>
+    <t>city</t>
+  </si>
+  <si>
     <t>L3Z0J9</t>
   </si>
   <si>
-    <t>sc_saveandsubmit_button</t>
-  </si>
-  <si>
-    <t>Test8SiteContact</t>
-  </si>
-  <si>
-    <t>se_slider_left_button</t>
-  </si>
-  <si>
-    <t>se_search_site_combobox</t>
-  </si>
-  <si>
-    <t>se_slider_right_button</t>
-  </si>
-  <si>
-    <t>se_details_tab_button</t>
-  </si>
-  <si>
-    <t>se_site_name_textfield</t>
-  </si>
-  <si>
-    <t>se_sales_rep_dropdown</t>
-  </si>
-  <si>
-    <t>se_site_address_same_checkbox</t>
-  </si>
-  <si>
-    <t>se_address_line1_textfield</t>
-  </si>
-  <si>
-    <t>se_address_line2_textfield</t>
-  </si>
-  <si>
-    <t>se_address_ciy_textfield</t>
-  </si>
-  <si>
-    <t>se_address_country_dropdown</t>
-  </si>
-  <si>
-    <t>se_address_province_dropdown</t>
-  </si>
-  <si>
-    <t>se_address_zipcode_textfield</t>
-  </si>
-  <si>
-    <t>se_contact_tab_button</t>
-  </si>
-  <si>
-    <t>se_contact_name_textfield</t>
-  </si>
-  <si>
-    <t>se_contact_position_textfield</t>
-  </si>
-  <si>
-    <t>se_contact_email_textfield</t>
-  </si>
-  <si>
-    <t>se_contact_primary_phone_textfield</t>
-  </si>
-  <si>
-    <t>se_contact_primary_extn_textfield</t>
-  </si>
-  <si>
-    <t>se_contact_secondary_phone_textfield</t>
-  </si>
-  <si>
-    <t>se_contact_secondary_extn_textfield</t>
-  </si>
-  <si>
-    <t>se_agreements_tab_button</t>
-  </si>
-  <si>
-    <t>se_create_report_button</t>
-  </si>
-  <si>
-    <t>se_agreements_results</t>
-  </si>
-  <si>
-    <t>se_documents_tab_button</t>
-  </si>
-  <si>
-    <t>se_upload_documents_link</t>
-  </si>
-  <si>
-    <t>se_comments_tab_button</t>
-  </si>
-  <si>
-    <t>se_history_tab_button</t>
-  </si>
-  <si>
-    <t>se_discard_button</t>
-  </si>
-  <si>
-    <t>se_save_site_changes_button</t>
-  </si>
-  <si>
-    <t>slc_home_link</t>
-  </si>
-  <si>
-    <t>slc_agreements_link</t>
-  </si>
-  <si>
-    <t>slc_service_type_dropdown</t>
-  </si>
-  <si>
-    <t>Front End</t>
-  </si>
-  <si>
-    <t>slc_margin_radio</t>
-  </si>
-  <si>
-    <t>slc_container_count_textfield</t>
-  </si>
-  <si>
     <t>20</t>
   </si>
   <si>
-    <t>slc_service_frequency_dropdown</t>
-  </si>
-  <si>
     <t>Weekly</t>
   </si>
   <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>slc_container_type_dropdown</t>
-  </si>
-  <si>
     <t>FL Loose</t>
   </si>
   <si>
-    <t>slc_container_size_dropdown</t>
-  </si>
-  <si>
     <t>8 yrd</t>
   </si>
   <si>
-    <t>7 times per week</t>
-  </si>
-  <si>
-    <t>slc_material_type_dropdown</t>
-  </si>
-  <si>
     <t>OCC Loose</t>
   </si>
   <si>
-    <t>slc_route_dropdown</t>
-  </si>
-  <si>
     <t>Halifax</t>
   </si>
   <si>
-    <t>slc_route_density_dropdown</t>
-  </si>
-  <si>
     <t>Medium Density</t>
   </si>
   <si>
-    <t>slc_location_type_textfield</t>
-  </si>
-  <si>
     <t>yard</t>
   </si>
   <si>
-    <t>slc_disposal_site_dropdown</t>
-  </si>
-  <si>
     <t>Scotia Recycle Dartmouth</t>
   </si>
   <si>
-    <t>slc_weight_textfield</t>
-  </si>
-  <si>
-    <t>Organic Waste</t>
-  </si>
-  <si>
-    <t>slc_uom_dropdown</t>
-  </si>
-  <si>
-    <t>slc_container_rental_fee_textfield</t>
+    <t>KG/yrd</t>
   </si>
   <si>
     <t>500</t>
-  </si>
-  <si>
-    <t>slc_clear_calculations_button</t>
-  </si>
-  <si>
-    <t>slc_calculate_button</t>
-  </si>
-  <si>
-    <t>Low Density</t>
-  </si>
-  <si>
-    <t>Yard</t>
-  </si>
-  <si>
-    <t>Miller Compost</t>
-  </si>
-  <si>
-    <t>slc_delivery_extrafee_textfield</t>
-  </si>
-  <si>
-    <t>slc_extra_lift_extrafee_textfield</t>
-  </si>
-  <si>
-    <t>KG/Yrd</t>
-  </si>
-  <si>
-    <t>slc_removal_extrafee_textfield</t>
-  </si>
-  <si>
-    <t>slc_relocation_extrafee_textfield</t>
-  </si>
-  <si>
-    <t>slc_admin_extrafee_textfield</t>
-  </si>
-  <si>
-    <t>slc_commodity_surcharge_extrafee_textfield</t>
-  </si>
-  <si>
-    <t>slc_additional_extrafee_button</t>
-  </si>
-  <si>
-    <t>slc_additional_extrafee_name_textfield</t>
-  </si>
-  <si>
-    <t>slc_additional_extrafee_amount_textfield</t>
-  </si>
-  <si>
-    <t>slc_additional_extrafee_discard_button</t>
-  </si>
-  <si>
-    <t>slc_additional_extrafee_save_button</t>
-  </si>
-  <si>
-    <t>slc_oil_extrafee_radio</t>
-  </si>
-  <si>
-    <t>slc_oil_extrafee_amount_textfield</t>
-  </si>
-  <si>
-    <t>slc_environmental_extrafee_radio</t>
-  </si>
-  <si>
-    <t>slc_environmental_extrafee_amount_textfield</t>
-  </si>
-  <si>
-    <t>slc_recycling_extrafee_radio</t>
-  </si>
-  <si>
-    <t>slc_recycling_extrafee_amount_textfield</t>
-  </si>
-  <si>
-    <t>slc_additional_notes_textfield</t>
-  </si>
-  <si>
-    <t>slc_discard_button</t>
-  </si>
-  <si>
-    <t>slc_add_service_button</t>
-  </si>
-  <si>
-    <t>sle_home_link</t>
-  </si>
-  <si>
-    <t>sle_agreements_link</t>
-  </si>
-  <si>
-    <t>sle_service_type_dropdown</t>
-  </si>
-  <si>
-    <t>sle_margin_radio</t>
-  </si>
-  <si>
-    <t>sle_container_count_textfield</t>
-  </si>
-  <si>
-    <t>sle_service_frequency_dropdown</t>
-  </si>
-  <si>
-    <t>sle_container_type_dropdown</t>
-  </si>
-  <si>
-    <t>sle_container_size_dropdown</t>
-  </si>
-  <si>
-    <t>sle_material_type_dropdown</t>
-  </si>
-  <si>
-    <t>sle_route_dropdown</t>
-  </si>
-  <si>
-    <t>sle_route_density_dropdown</t>
-  </si>
-  <si>
-    <t>sle_location_type_textfield</t>
-  </si>
-  <si>
-    <t>sle_disposal_site_dropdown</t>
-  </si>
-  <si>
-    <t>sle_weight_textfield</t>
-  </si>
-  <si>
-    <t>sle_uom_dropdown</t>
-  </si>
-  <si>
-    <t>sle_container_rental_fee_textfield</t>
-  </si>
-  <si>
-    <t>sle_clear_calculations_button</t>
-  </si>
-  <si>
-    <t>sle_calculate_button</t>
-  </si>
-  <si>
-    <t>sle_total_sell_edit_button</t>
-  </si>
-  <si>
-    <t>sle_total_sell_textfield</t>
-  </si>
-  <si>
-    <t>sle_total_sell_cancel_button</t>
-  </si>
-  <si>
-    <t>sle_total_sell_save_button</t>
-  </si>
-  <si>
-    <t>sle_delivery_extrafee_textfield</t>
-  </si>
-  <si>
-    <t>sle_extra_lift_extrafee_textfield</t>
-  </si>
-  <si>
-    <t>sle_removal_extrafee_textfield</t>
-  </si>
-  <si>
-    <t>sle_relocation_extrafee_textfield</t>
-  </si>
-  <si>
-    <t>sle_admin_extrafee_textfield</t>
-  </si>
-  <si>
-    <t>sle_commodity_surcharge_extrafee_textfield</t>
-  </si>
-  <si>
-    <t>sle_additional_extrafee_button</t>
-  </si>
-  <si>
-    <t>sle_additional_extrafee_name_textfield</t>
-  </si>
-  <si>
-    <t>sle_additional_extrafee_amount_textfield</t>
-  </si>
-  <si>
-    <t>sle_additional_extrafee_discard_button</t>
-  </si>
-  <si>
-    <t>sle_additional_extrafee_save_button</t>
-  </si>
-  <si>
-    <t>sle_oil_extrafee_radio</t>
-  </si>
-  <si>
-    <t>sle_oil_extrafee_amount_textfield</t>
-  </si>
-  <si>
-    <t>sle_environmental_extrafee_radio</t>
-  </si>
-  <si>
-    <t>sle_environmental_extrafee_amount_textfield</t>
-  </si>
-  <si>
-    <t>sle_recycling_extrafee_radio</t>
-  </si>
-  <si>
-    <t>sle_recycling_extrafee_amount_textfield</t>
-  </si>
-  <si>
-    <t>sle_additional_notes_textfield</t>
-  </si>
-  <si>
-    <t>sle_discard_button</t>
-  </si>
-  <si>
-    <t>sle_add_service_button</t>
-  </si>
-  <si>
-    <t>prospectValidation6</t>
-  </si>
-  <si>
-    <t>no</t>
-  </si>
-  <si>
-    <t>BillingAddress1_Edited</t>
-  </si>
-  <si>
-    <t>BillingAddress2_Edited</t>
-  </si>
-  <si>
-    <t>BillingCity_Edited</t>
-  </si>
-  <si>
-    <t>prospectValidation9</t>
-  </si>
-  <si>
-    <t>prospectValidation9_edited</t>
-  </si>
-  <si>
-    <t>SiteNameEdited</t>
-  </si>
-  <si>
-    <t>Rency Naveen</t>
-  </si>
-  <si>
-    <t>CM_EC_Ecus_TS01_TC04</t>
-  </si>
-  <si>
-    <t>prospectValidation6_edited</t>
-  </si>
-  <si>
-    <t>PM_NP_PE_TS02_TC02</t>
-  </si>
-  <si>
-    <t>CAPR_APCON_TS01_TC01</t>
-  </si>
-  <si>
-    <t>08/15/2019</t>
-  </si>
-  <si>
-    <t>ApprContact1</t>
-  </si>
-  <si>
-    <t>ApprContact1@email.com</t>
-  </si>
-  <si>
-    <t>1478952360</t>
-  </si>
-  <si>
-    <t>357</t>
-  </si>
-  <si>
-    <t>9874563210</t>
-  </si>
-  <si>
-    <t>258</t>
-  </si>
-  <si>
-    <t>BillingAddress1</t>
-  </si>
-  <si>
-    <t>BillingAddress2</t>
-  </si>
-  <si>
-    <t>BillingCity</t>
-  </si>
-  <si>
-    <t>ApprSite1</t>
-  </si>
-  <si>
-    <t>3 year term</t>
-  </si>
-  <si>
-    <t>rency Naveen</t>
-  </si>
-  <si>
-    <t>Monali</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>director</t>
-  </si>
-  <si>
-    <t>4554545454</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12 high st </t>
-  </si>
-  <si>
-    <t>hamilton</t>
-  </si>
-  <si>
-    <t>canada</t>
-  </si>
-  <si>
-    <t>ontario</t>
-  </si>
-  <si>
-    <t>h4h3h3</t>
-  </si>
-  <si>
-    <t>eglington</t>
-  </si>
-  <si>
-    <t>Monali Patel</t>
-  </si>
-  <si>
-    <t>5656556565</t>
-  </si>
-  <si>
-    <t>Bi-Weekly</t>
-  </si>
-  <si>
-    <t>2 yrd</t>
-  </si>
-  <si>
-    <t>www.manager.approva2l.ca</t>
-  </si>
-  <si>
-    <t>cnm_edit_region_dropdown</t>
-  </si>
-  <si>
-    <t>cnm_edit_business_unit_dropdown</t>
-  </si>
-  <si>
-    <t>cnm_edit_approvals_checkbox</t>
-  </si>
-  <si>
-    <t>CntNMntEdit</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>123456789</t>
-  </si>
-  <si>
-    <t>8/16/2019</t>
-  </si>
-  <si>
-    <t>5 year term</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>ApprovalConditionsTC1</t>
-  </si>
-  <si>
-    <t>ApprovalConditionsTC6</t>
-  </si>
-  <si>
-    <t>ApprovalConditionsTC5</t>
-  </si>
-  <si>
-    <t>ApprovalConditionsTC4</t>
-  </si>
-  <si>
-    <t>ApprovalConditionsTC3</t>
-  </si>
-  <si>
-    <t>ApprovalConditionsTC2</t>
-  </si>
-  <si>
-    <t>ACTC1</t>
-  </si>
-  <si>
-    <t>Address1</t>
-  </si>
-  <si>
-    <t>Address2</t>
-  </si>
-  <si>
-    <t>City</t>
-  </si>
-  <si>
-    <t>1 year term</t>
-  </si>
-  <si>
-    <t>2 year term</t>
-  </si>
-  <si>
-    <t>7 year term</t>
-  </si>
-  <si>
-    <t>10 year term</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>3 yrd</t>
-  </si>
-  <si>
-    <t>4 yrd</t>
-  </si>
-  <si>
-    <t>6 yrd</t>
-  </si>
-  <si>
-    <t>10 yrd</t>
-  </si>
-  <si>
-    <t>99</t>
-  </si>
-  <si>
-    <t>60</t>
-  </si>
-  <si>
-    <t>40</t>
-  </si>
-  <si>
-    <t>On-call</t>
-  </si>
-  <si>
-    <t>Monthly</t>
-  </si>
-  <si>
-    <t>2 times per week</t>
-  </si>
-  <si>
-    <t>FL Compactor</t>
-  </si>
-  <si>
-    <t>Waste</t>
-  </si>
-  <si>
-    <t>Otter Lake</t>
-  </si>
-  <si>
-    <t>Paper</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>slc_clear_extrafees_button</t>
-  </si>
-  <si>
-    <t>slc_total_button</t>
-  </si>
-  <si>
-    <t>High Density</t>
-  </si>
-  <si>
-    <t>Miller (Commercial MRF)</t>
-  </si>
-  <si>
-    <t>slc_monthly_rate_edit_button</t>
-  </si>
-  <si>
-    <t>slc_monthly_rate_textfield</t>
-  </si>
-  <si>
-    <t>slc_monthly_rate_cancel_button</t>
-  </si>
-  <si>
-    <t>slc_monthly_rate_save_button</t>
-  </si>
-  <si>
-    <t>UAT_PM_NP_CP_TS01_TC03</t>
-  </si>
-  <si>
-    <t>UAT_PM_NP_CP_TS01_TC01</t>
-  </si>
-  <si>
-    <t>UAT_PM_NP_CP_TS01_TC02</t>
-  </si>
-  <si>
-    <t>UAT_PM_NP_CP_TS01_TC04</t>
-  </si>
-  <si>
-    <t>www.tc4.com</t>
-  </si>
-  <si>
-    <t>TC4Contact</t>
-  </si>
-  <si>
-    <t>TC4Position</t>
-  </si>
-  <si>
-    <t>TC4@email.com</t>
-  </si>
-  <si>
-    <t>147</t>
-  </si>
-  <si>
-    <t>3216547890</t>
-  </si>
-  <si>
-    <t>358</t>
-  </si>
-  <si>
-    <t>UAT_PM_NP_CP_TS01_TC05</t>
-  </si>
-  <si>
-    <t>www.tc5.com</t>
-  </si>
-  <si>
-    <t>TC5Contact</t>
-  </si>
-  <si>
-    <t>TC5Position</t>
-  </si>
-  <si>
-    <t>TC5@email.com</t>
-  </si>
-  <si>
-    <t>1223452346</t>
   </si>
 </sst>
 </file>
@@ -2223,7 +1986,7 @@
   <dimension ref="A1:L27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:D4"/>
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2353,7 +2116,9 @@
       <c r="D6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="3"/>
+      <c r="E6" s="3" t="s">
+        <v>16</v>
+      </c>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
@@ -2375,9 +2140,7 @@
       <c r="D7" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="3" t="s">
-        <v>16</v>
-      </c>
+      <c r="E7" s="3"/>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
@@ -2426,14 +2189,12 @@
         <v>7</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G9" s="3" t="s">
         <v>5</v>
       </c>
+      <c r="G9" s="3"/>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
@@ -2752,16 +2513,26 @@
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
-        <v>511</v>
+        <v>423</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>479</v>
-      </c>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
+        <v>418</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>423</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="H27" s="3"/>
       <c r="I27" s="3"/>
       <c r="J27" s="3"/>
@@ -2814,10 +2585,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51DAE5B4-B963-47A4-B2A4-C45BD479A193}">
-  <dimension ref="A1:K57"/>
+  <dimension ref="A1:E57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2829,7 +2600,7 @@
     <col min="12" max="16384" width="9.140625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>52</v>
       </c>
@@ -2839,317 +2610,195 @@
       <c r="C1" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>479</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>479</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>479</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>479</v>
-      </c>
-      <c r="J1" s="6" t="s">
-        <v>479</v>
-      </c>
-      <c r="K1" s="6" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D1" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="E1" s="2"/>
+    </row>
+    <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="8" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="8" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="8" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="8" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="8" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="8" t="s">
-        <v>261</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="8" t="s">
-        <v>263</v>
+        <v>247</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>264</v>
+        <v>472</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>265</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>264</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>513</v>
-      </c>
-      <c r="G8" s="8" t="s">
-        <v>513</v>
-      </c>
-      <c r="H8" s="8" t="s">
-        <v>513</v>
-      </c>
-      <c r="I8" s="8" t="s">
-        <v>513</v>
-      </c>
-      <c r="J8" s="8" t="s">
-        <v>513</v>
-      </c>
-      <c r="K8" s="8" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="8" t="s">
-        <v>266</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>514</v>
-      </c>
-      <c r="G9" s="8" t="s">
-        <v>514</v>
-      </c>
-      <c r="H9" s="8" t="s">
-        <v>514</v>
-      </c>
-      <c r="I9" s="8" t="s">
-        <v>514</v>
-      </c>
-      <c r="J9" s="8" t="s">
-        <v>514</v>
-      </c>
-      <c r="K9" s="8" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="s">
-        <v>267</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>514</v>
-      </c>
-      <c r="G10" s="8" t="s">
-        <v>514</v>
-      </c>
-      <c r="H10" s="8" t="s">
-        <v>514</v>
-      </c>
-      <c r="I10" s="8" t="s">
-        <v>514</v>
-      </c>
-      <c r="J10" s="8" t="s">
-        <v>514</v>
-      </c>
-      <c r="K10" s="8" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="8" t="s">
-        <v>268</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="G11" s="8" t="s">
-        <v>468</v>
-      </c>
-      <c r="H11" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="I11" s="8" t="s">
-        <v>468</v>
-      </c>
-      <c r="J11" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="K11" s="8" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="8" t="s">
-        <v>269</v>
-      </c>
-      <c r="F12" s="8" t="s">
-        <v>527</v>
-      </c>
-      <c r="G12" s="8" t="s">
-        <v>528</v>
-      </c>
-      <c r="H12" s="8" t="s">
-        <v>491</v>
-      </c>
-      <c r="I12" s="8" t="s">
-        <v>515</v>
-      </c>
-      <c r="J12" s="8" t="s">
-        <v>529</v>
-      </c>
-      <c r="K12" s="8" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="8" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="8" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="8" t="s">
-        <v>272</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="8" t="s">
-        <v>274</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>273</v>
+        <v>255</v>
       </c>
     </row>
     <row r="17" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="8" t="s">
-        <v>275</v>
+        <v>256</v>
       </c>
     </row>
     <row r="18" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="8" t="s">
-        <v>276</v>
+        <v>257</v>
       </c>
     </row>
     <row r="19" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="8" t="s">
-        <v>277</v>
+        <v>258</v>
       </c>
     </row>
     <row r="20" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="8" t="s">
-        <v>278</v>
+        <v>259</v>
       </c>
     </row>
     <row r="21" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="8" t="s">
-        <v>279</v>
+        <v>260</v>
       </c>
     </row>
     <row r="22" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="8" t="s">
-        <v>280</v>
+        <v>261</v>
       </c>
     </row>
     <row r="23" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="8" t="s">
-        <v>281</v>
+        <v>262</v>
       </c>
     </row>
     <row r="24" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="8" t="s">
-        <v>282</v>
+        <v>263</v>
       </c>
     </row>
     <row r="25" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="8" t="s">
-        <v>283</v>
+        <v>264</v>
       </c>
     </row>
     <row r="26" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="8" t="s">
-        <v>284</v>
+        <v>265</v>
       </c>
     </row>
     <row r="27" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="8" t="s">
-        <v>285</v>
+        <v>266</v>
       </c>
     </row>
     <row r="28" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="8" t="s">
-        <v>286</v>
+        <v>267</v>
       </c>
     </row>
     <row r="29" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="8" t="s">
-        <v>287</v>
+        <v>268</v>
       </c>
     </row>
     <row r="30" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="8" t="s">
-        <v>288</v>
+        <v>269</v>
       </c>
     </row>
     <row r="31" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="8" t="s">
-        <v>289</v>
+        <v>270</v>
       </c>
     </row>
     <row r="32" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="8" t="s">
-        <v>290</v>
+        <v>271</v>
       </c>
     </row>
     <row r="33" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="8" t="s">
-        <v>291</v>
+        <v>272</v>
       </c>
     </row>
     <row r="34" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="8" t="s">
-        <v>292</v>
+        <v>273</v>
       </c>
     </row>
     <row r="35" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="8" t="s">
-        <v>293</v>
+        <v>274</v>
       </c>
     </row>
     <row r="36" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="8" t="s">
-        <v>294</v>
+        <v>275</v>
       </c>
     </row>
     <row r="37" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="8" t="s">
-        <v>295</v>
+        <v>276</v>
       </c>
     </row>
     <row r="38" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3166,7 +2815,7 @@
     <row r="49" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="50" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B50" s="8" t="s">
-        <v>296</v>
+        <v>277</v>
       </c>
     </row>
     <row r="51" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3207,7 +2856,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>297</v>
+        <v>278</v>
       </c>
     </row>
   </sheetData>
@@ -3220,7 +2869,7 @@
   <dimension ref="A1:I57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="C1" sqref="C1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3238,15 +2887,9 @@
       <c r="B1" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="C1" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>44</v>
-      </c>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="2"/>
       <c r="F1" s="7"/>
       <c r="G1" s="7"/>
       <c r="H1" s="7"/>
@@ -3254,64 +2897,52 @@
     </row>
     <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="8" t="s">
-        <v>298</v>
+        <v>279</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="8" t="s">
-        <v>299</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>56</v>
+        <v>280</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="8" t="s">
-        <v>300</v>
+        <v>281</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="8" t="s">
-        <v>301</v>
+        <v>282</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="8" t="s">
-        <v>302</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>56</v>
+        <v>283</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="8" t="s">
-        <v>303</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>56</v>
+        <v>284</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="8" t="s">
-        <v>304</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>305</v>
+        <v>285</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="8" t="s">
-        <v>306</v>
+        <v>286</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="s">
-        <v>307</v>
+        <v>287</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="8" t="s">
-        <v>308</v>
+        <v>288</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3356,7 +2987,7 @@
     <row r="49" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="50" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B50" s="8" t="s">
-        <v>296</v>
+        <v>277</v>
       </c>
     </row>
     <row r="51" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3377,7 +3008,7 @@
   <dimension ref="A1:I62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3401,9 +3032,7 @@
       <c r="D1" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>44</v>
-      </c>
+      <c r="E1" s="2"/>
       <c r="F1" s="7"/>
       <c r="G1" s="7"/>
       <c r="H1" s="7"/>
@@ -3411,170 +3040,189 @@
     </row>
     <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="8" t="s">
-        <v>309</v>
+        <v>289</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>502</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>310</v>
+        <v>457</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>470</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="8" t="s">
-        <v>311</v>
+        <v>290</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>503</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>94</v>
+        <v>90</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="8" t="s">
-        <v>312</v>
+        <v>291</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>494</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>56</v>
+        <v>417</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>417</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="8" t="s">
-        <v>313</v>
+        <v>292</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>458</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>458</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="8" t="s">
-        <v>314</v>
+        <v>293</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>459</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>459</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="8" t="s">
-        <v>315</v>
+        <v>294</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>460</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>316</v>
+        <v>460</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="8" t="s">
-        <v>317</v>
+        <v>295</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>174</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>56</v>
+        <v>174</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="8" t="s">
-        <v>318</v>
+        <v>296</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>176</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>94</v>
+        <v>176</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="s">
-        <v>319</v>
+        <v>297</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>461</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>320</v>
+        <v>461</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="8" t="s">
-        <v>321</v>
+        <v>298</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>322</v>
+        <v>448</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>322</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>323</v>
+        <v>467</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="8" t="s">
-        <v>324</v>
+        <v>299</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>325</v>
+        <v>462</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>325</v>
+        <v>471</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="8" t="s">
-        <v>326</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>327</v>
-      </c>
-      <c r="E13" s="10" t="s">
-        <v>328</v>
-      </c>
+        <v>300</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>450</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>469</v>
+      </c>
+      <c r="E13" s="10"/>
     </row>
     <row r="14" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="8" t="s">
-        <v>329</v>
+        <v>301</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>504</v>
+        <v>463</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>330</v>
+        <v>463</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="8" t="s">
-        <v>331</v>
+        <v>302</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>419</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>188</v>
-      </c>
-      <c r="E15" s="8" t="s">
-        <v>332</v>
+        <v>419</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="8" t="s">
-        <v>333</v>
+        <v>303</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>464</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>56</v>
+        <v>464</v>
       </c>
     </row>
     <row r="17" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="8" t="s">
-        <v>334</v>
+        <v>304</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>465</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>190</v>
+        <v>465</v>
       </c>
     </row>
     <row r="18" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="8" t="s">
-        <v>335</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>336</v>
+        <v>305</v>
       </c>
     </row>
     <row r="19" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="8" t="s">
-        <v>337</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>338</v>
+        <v>306</v>
       </c>
     </row>
     <row r="20" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3606,7 +3254,7 @@
     <row r="46" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="47" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="8" t="s">
-        <v>296</v>
+        <v>277</v>
       </c>
     </row>
     <row r="48" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3626,7 +3274,8 @@
     <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E13" r:id="rId1" xr:uid="{63A36966-3480-4B92-ABD0-2B686E16965C}"/>
+    <hyperlink ref="C13" r:id="rId1" xr:uid="{A4A0FEFA-B1AC-495D-9E91-816EEA1DCF30}"/>
+    <hyperlink ref="D13" r:id="rId2" xr:uid="{F7A6D187-C75E-474B-B55C-7F5B02F96DEB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3637,7 +3286,7 @@
   <dimension ref="A1:H57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3655,9 +3304,7 @@
       <c r="B1" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="C1" s="7" t="s">
-        <v>476</v>
-      </c>
+      <c r="C1" s="7"/>
       <c r="D1" s="7"/>
       <c r="E1" s="7"/>
       <c r="F1" s="7"/>
@@ -3666,161 +3313,152 @@
     </row>
     <row r="2" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="8" t="s">
-        <v>339</v>
+        <v>307</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="8" t="s">
-        <v>340</v>
+        <v>308</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="8" t="s">
-        <v>341</v>
+        <v>309</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="8" t="s">
-        <v>342</v>
+        <v>310</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="8" t="s">
-        <v>343</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>474</v>
+        <v>311</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="8" t="s">
-        <v>344</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>475</v>
+        <v>312</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="8" t="s">
-        <v>345</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>56</v>
+        <v>313</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="8" t="s">
-        <v>346</v>
+        <v>314</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="s">
-        <v>347</v>
+        <v>315</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="8" t="s">
-        <v>348</v>
+        <v>316</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="8" t="s">
-        <v>349</v>
+        <v>317</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="8" t="s">
-        <v>350</v>
+        <v>318</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="8" t="s">
-        <v>351</v>
+        <v>319</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="8" t="s">
-        <v>352</v>
+        <v>320</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="8" t="s">
-        <v>353</v>
+        <v>321</v>
       </c>
     </row>
     <row r="17" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="8" t="s">
-        <v>354</v>
+        <v>322</v>
       </c>
     </row>
     <row r="18" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="8" t="s">
-        <v>355</v>
+        <v>323</v>
       </c>
     </row>
     <row r="19" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="8" t="s">
-        <v>356</v>
+        <v>324</v>
       </c>
     </row>
     <row r="20" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="8" t="s">
-        <v>357</v>
+        <v>325</v>
       </c>
     </row>
     <row r="21" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="8" t="s">
-        <v>358</v>
+        <v>326</v>
       </c>
     </row>
     <row r="22" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="8" t="s">
-        <v>359</v>
+        <v>327</v>
       </c>
     </row>
     <row r="23" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="8" t="s">
-        <v>360</v>
+        <v>328</v>
       </c>
     </row>
     <row r="24" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="8" t="s">
-        <v>361</v>
+        <v>329</v>
       </c>
     </row>
     <row r="25" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="8" t="s">
-        <v>362</v>
+        <v>330</v>
       </c>
     </row>
     <row r="26" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="8" t="s">
-        <v>363</v>
+        <v>331</v>
       </c>
     </row>
     <row r="27" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="8" t="s">
-        <v>364</v>
+        <v>332</v>
       </c>
     </row>
     <row r="28" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="8" t="s">
-        <v>365</v>
+        <v>333</v>
       </c>
     </row>
     <row r="29" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="8" t="s">
-        <v>366</v>
+        <v>334</v>
       </c>
     </row>
     <row r="30" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="8" t="s">
-        <v>367</v>
+        <v>335</v>
       </c>
     </row>
     <row r="31" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="8" t="s">
-        <v>368</v>
+        <v>336</v>
       </c>
     </row>
     <row r="32" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3846,7 +3484,7 @@
     <row r="52" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="53" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B53" s="8" t="s">
-        <v>296</v>
+        <v>277</v>
       </c>
     </row>
     <row r="54" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3876,8 +3514,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D89BA3D3-1B94-4C77-B8E7-B6D246A7B5C9}">
   <dimension ref="A1:K59"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3896,653 +3534,304 @@
       <c r="B1" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="C1" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>479</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>479</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>479</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>479</v>
-      </c>
-      <c r="J1" s="6" t="s">
-        <v>479</v>
-      </c>
-      <c r="K1" s="6" t="s">
-        <v>479</v>
-      </c>
+      <c r="C1" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="D1" s="7"/>
+      <c r="E1" s="2"/>
     </row>
     <row r="2" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="8" t="s">
-        <v>369</v>
+        <v>337</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="8" t="s">
-        <v>370</v>
+        <v>338</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="8" t="s">
-        <v>371</v>
+        <v>339</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>372</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>372</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>372</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>372</v>
-      </c>
-      <c r="H4" s="8" t="s">
-        <v>372</v>
-      </c>
-      <c r="I4" s="8" t="s">
-        <v>372</v>
-      </c>
-      <c r="J4" s="8" t="s">
-        <v>372</v>
-      </c>
-      <c r="K4" s="8" t="s">
-        <v>372</v>
+        <v>476</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="8" t="s">
-        <v>373</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>372</v>
+        <v>340</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>475</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="8" t="s">
-        <v>374</v>
+        <v>341</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>375</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>375</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>531</v>
-      </c>
-      <c r="G6" s="8" t="s">
-        <v>375</v>
-      </c>
-      <c r="H6" s="8" t="s">
-        <v>516</v>
-      </c>
-      <c r="I6" s="8" t="s">
-        <v>538</v>
-      </c>
-      <c r="J6" s="8" t="s">
-        <v>537</v>
-      </c>
-      <c r="K6" s="8" t="s">
-        <v>536</v>
+        <v>482</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="8" t="s">
-        <v>376</v>
+        <v>342</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>377</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>378</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>377</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>539</v>
-      </c>
-      <c r="G7" s="8" t="s">
-        <v>540</v>
-      </c>
-      <c r="H7" s="8" t="s">
-        <v>505</v>
-      </c>
-      <c r="I7" s="8" t="s">
-        <v>377</v>
-      </c>
-      <c r="J7" s="8" t="s">
-        <v>541</v>
-      </c>
-      <c r="K7" s="8" t="s">
-        <v>383</v>
+        <v>483</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="8" t="s">
-        <v>379</v>
+        <v>343</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>380</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>380</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>380</v>
-      </c>
-      <c r="G8" s="8" t="s">
-        <v>542</v>
-      </c>
-      <c r="H8" s="8" t="s">
-        <v>380</v>
-      </c>
-      <c r="I8" s="8" t="s">
-        <v>542</v>
-      </c>
-      <c r="J8" s="8" t="s">
-        <v>380</v>
-      </c>
-      <c r="K8" s="8" t="s">
-        <v>542</v>
+        <v>484</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="8" t="s">
-        <v>381</v>
+        <v>344</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>382</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>383</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>382</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>506</v>
-      </c>
-      <c r="G9" s="8" t="s">
-        <v>532</v>
-      </c>
-      <c r="H9" s="8" t="s">
-        <v>533</v>
-      </c>
-      <c r="I9" s="8" t="s">
-        <v>534</v>
-      </c>
-      <c r="J9" s="8" t="s">
-        <v>382</v>
-      </c>
-      <c r="K9" s="8" t="s">
-        <v>535</v>
+        <v>485</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="s">
-        <v>384</v>
+        <v>345</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>385</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>385</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>385</v>
-      </c>
-      <c r="G10" s="8" t="s">
-        <v>543</v>
-      </c>
-      <c r="H10" s="8" t="s">
-        <v>385</v>
-      </c>
-      <c r="I10" s="8" t="s">
-        <v>545</v>
-      </c>
-      <c r="J10" s="8" t="s">
-        <v>385</v>
-      </c>
-      <c r="K10" s="8" t="s">
-        <v>385</v>
+        <v>486</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="8" t="s">
-        <v>386</v>
+        <v>346</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>387</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>380</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>387</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>387</v>
-      </c>
-      <c r="G11" s="8" t="s">
-        <v>387</v>
-      </c>
-      <c r="H11" s="8" t="s">
-        <v>387</v>
-      </c>
-      <c r="I11" s="8" t="s">
-        <v>387</v>
-      </c>
-      <c r="J11" s="8" t="s">
-        <v>387</v>
-      </c>
-      <c r="K11" s="8" t="s">
-        <v>387</v>
+        <v>487</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="8" t="s">
-        <v>388</v>
+        <v>347</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>389</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>389</v>
-      </c>
-      <c r="F12" s="11" t="s">
-        <v>389</v>
-      </c>
-      <c r="G12" s="11" t="s">
-        <v>401</v>
-      </c>
-      <c r="H12" s="11" t="s">
-        <v>401</v>
-      </c>
-      <c r="I12" s="11" t="s">
-        <v>389</v>
-      </c>
-      <c r="J12" s="11" t="s">
-        <v>389</v>
-      </c>
-      <c r="K12" s="11" t="s">
-        <v>549</v>
-      </c>
+        <v>488</v>
+      </c>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="11"/>
     </row>
     <row r="13" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="8" t="s">
-        <v>390</v>
+        <v>348</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>391</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>382</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>391</v>
-      </c>
-      <c r="F13" s="12" t="s">
-        <v>391</v>
-      </c>
-      <c r="G13" s="12" t="s">
-        <v>391</v>
-      </c>
-      <c r="H13" s="12" t="s">
-        <v>391</v>
-      </c>
-      <c r="I13" s="12" t="s">
-        <v>391</v>
-      </c>
-      <c r="J13" s="12" t="s">
-        <v>391</v>
-      </c>
-      <c r="K13" s="12" t="s">
-        <v>391</v>
-      </c>
+        <v>489</v>
+      </c>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="12"/>
+      <c r="K13" s="12"/>
     </row>
     <row r="14" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="8" t="s">
-        <v>392</v>
+        <v>349</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>393</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>393</v>
-      </c>
-      <c r="F14" s="8" t="s">
-        <v>393</v>
-      </c>
-      <c r="G14" s="8" t="s">
-        <v>544</v>
-      </c>
-      <c r="H14" s="8" t="s">
-        <v>393</v>
-      </c>
-      <c r="I14" s="8" t="s">
-        <v>550</v>
-      </c>
-      <c r="J14" s="8" t="s">
-        <v>393</v>
-      </c>
-      <c r="K14" s="8" t="s">
-        <v>393</v>
+        <v>490</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="8" t="s">
-        <v>394</v>
+        <v>350</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>395</v>
-      </c>
-      <c r="E15" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="F15" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="G15" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="H15" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="I15" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="J15" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="K15" s="8" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="8" t="s">
-        <v>396</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="17" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>351</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="8" t="s">
-        <v>397</v>
+        <v>352</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>398</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>387</v>
-      </c>
-      <c r="E17" s="8" t="s">
-        <v>398</v>
-      </c>
-      <c r="F17" s="8" t="s">
-        <v>398</v>
-      </c>
-      <c r="G17" s="8" t="s">
-        <v>398</v>
-      </c>
-      <c r="H17" s="8" t="s">
-        <v>398</v>
-      </c>
-      <c r="I17" s="8" t="s">
-        <v>398</v>
-      </c>
-      <c r="J17" s="8" t="s">
-        <v>398</v>
-      </c>
-      <c r="K17" s="8" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="18" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="8" t="s">
-        <v>399</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="19" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="8" t="s">
-        <v>400</v>
+        <v>354</v>
       </c>
       <c r="C19" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="D19" s="8" t="s">
-        <v>401</v>
-      </c>
-      <c r="E19" s="8" t="s">
+    </row>
+    <row r="20" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="8" t="s">
+        <v>427</v>
+      </c>
+      <c r="C20" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="F19" s="8" t="s">
+    </row>
+    <row r="21" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="8" t="s">
+        <v>428</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="8" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="8" t="s">
+        <v>430</v>
+      </c>
+      <c r="C23" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="G19" s="8" t="s">
+    </row>
+    <row r="24" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="8" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="8" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="8" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="8" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="8" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="8" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="8" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="8" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="32" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="8" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="8" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="8" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="8" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="8" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="8" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="8" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="8" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="40" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="8" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="41" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="8" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="42" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="8" t="s">
+        <v>426</v>
+      </c>
+      <c r="C42" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="H19" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="I19" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="J19" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="K19" s="8" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="20" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="8" t="s">
-        <v>551</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>402</v>
-      </c>
-      <c r="J20" s="8" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="21" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="8" t="s">
-        <v>552</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="J21" s="8" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="22" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="8" t="s">
-        <v>553</v>
-      </c>
-      <c r="D22" s="8" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="23" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="8" t="s">
-        <v>554</v>
-      </c>
-      <c r="D23" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="J23" s="8" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="24" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="8" t="s">
-        <v>404</v>
-      </c>
-      <c r="D24" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="I24" s="8" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="25" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="8" t="s">
-        <v>405</v>
-      </c>
-      <c r="D25" s="8" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="26" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="8" t="s">
-        <v>407</v>
-      </c>
-      <c r="D26" s="8" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="27" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="8" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="28" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="8" t="s">
-        <v>409</v>
-      </c>
-      <c r="D28" s="8" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="29" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="8" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="30" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="8" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="31" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="8" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="32" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="8" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="33" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="8" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="34" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="8" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="35" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="8" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="36" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="8" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="37" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="8" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="38" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="8" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="39" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="8" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="40" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="8" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="41" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="8" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="42" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="8" t="s">
-        <v>548</v>
-      </c>
-      <c r="I42" s="8" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="43" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="8" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="44" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="44" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="8" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="45" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="45" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="8" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="46" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="47" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="48" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+        <v>374</v>
+      </c>
+    </row>
+    <row r="46" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="47" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="48" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4607,212 +3896,212 @@
     </row>
     <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="8" t="s">
-        <v>425</v>
+        <v>375</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="8" t="s">
-        <v>426</v>
+        <v>376</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="8" t="s">
-        <v>427</v>
+        <v>377</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="8" t="s">
-        <v>428</v>
+        <v>378</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="8" t="s">
-        <v>429</v>
+        <v>379</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="8" t="s">
-        <v>430</v>
+        <v>380</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="8" t="s">
-        <v>431</v>
+        <v>381</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="8" t="s">
-        <v>432</v>
+        <v>382</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="s">
-        <v>433</v>
+        <v>383</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="8" t="s">
-        <v>434</v>
+        <v>384</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="8" t="s">
-        <v>435</v>
+        <v>385</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="8" t="s">
-        <v>436</v>
+        <v>386</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="8" t="s">
-        <v>437</v>
+        <v>387</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="8" t="s">
-        <v>438</v>
+        <v>388</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="8" t="s">
-        <v>439</v>
+        <v>389</v>
       </c>
     </row>
     <row r="17" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="8" t="s">
-        <v>440</v>
+        <v>390</v>
       </c>
     </row>
     <row r="18" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="8" t="s">
-        <v>441</v>
+        <v>391</v>
       </c>
     </row>
     <row r="19" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="8" t="s">
-        <v>442</v>
+        <v>392</v>
       </c>
     </row>
     <row r="20" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="8" t="s">
-        <v>443</v>
+        <v>393</v>
       </c>
     </row>
     <row r="21" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="8" t="s">
-        <v>444</v>
+        <v>394</v>
       </c>
     </row>
     <row r="22" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="8" t="s">
-        <v>445</v>
+        <v>395</v>
       </c>
     </row>
     <row r="23" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="8" t="s">
-        <v>446</v>
+        <v>396</v>
       </c>
     </row>
     <row r="24" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="8" t="s">
-        <v>447</v>
+        <v>397</v>
       </c>
     </row>
     <row r="25" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="8" t="s">
-        <v>448</v>
+        <v>398</v>
       </c>
     </row>
     <row r="26" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="8" t="s">
-        <v>449</v>
+        <v>399</v>
       </c>
     </row>
     <row r="27" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="8" t="s">
-        <v>450</v>
+        <v>400</v>
       </c>
     </row>
     <row r="28" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="8" t="s">
-        <v>451</v>
+        <v>401</v>
       </c>
     </row>
     <row r="29" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="8" t="s">
-        <v>452</v>
+        <v>402</v>
       </c>
     </row>
     <row r="30" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="8" t="s">
-        <v>453</v>
+        <v>403</v>
       </c>
     </row>
     <row r="31" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="8" t="s">
-        <v>454</v>
+        <v>404</v>
       </c>
     </row>
     <row r="32" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="8" t="s">
-        <v>455</v>
+        <v>405</v>
       </c>
     </row>
     <row r="33" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="8" t="s">
-        <v>456</v>
+        <v>406</v>
       </c>
     </row>
     <row r="34" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="8" t="s">
-        <v>457</v>
+        <v>407</v>
       </c>
     </row>
     <row r="35" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="8" t="s">
-        <v>458</v>
+        <v>408</v>
       </c>
     </row>
     <row r="36" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="8" t="s">
-        <v>459</v>
+        <v>409</v>
       </c>
     </row>
     <row r="37" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="8" t="s">
-        <v>460</v>
+        <v>410</v>
       </c>
     </row>
     <row r="38" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="8" t="s">
-        <v>461</v>
+        <v>411</v>
       </c>
     </row>
     <row r="39" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="8" t="s">
-        <v>462</v>
+        <v>412</v>
       </c>
     </row>
     <row r="40" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="8" t="s">
-        <v>463</v>
+        <v>413</v>
       </c>
     </row>
     <row r="41" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="8" t="s">
-        <v>464</v>
+        <v>414</v>
       </c>
     </row>
     <row r="42" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="8" t="s">
-        <v>465</v>
+        <v>415</v>
       </c>
     </row>
     <row r="43" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="8" t="s">
-        <v>466</v>
+        <v>416</v>
       </c>
     </row>
     <row r="44" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4853,7 +4142,7 @@
   <dimension ref="A1:I57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4871,30 +4160,20 @@
       <c r="B1" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="C1" s="7" t="s">
-        <v>479</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>479</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>479</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>479</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>479</v>
-      </c>
-      <c r="H1" s="7" t="s">
-        <v>479</v>
-      </c>
+      <c r="C1" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
       <c r="I1" s="13"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="14"/>
       <c r="B2" s="14" t="s">
-        <v>508</v>
+        <v>420</v>
       </c>
       <c r="C2" s="14"/>
       <c r="D2" s="14"/>
@@ -4906,7 +4185,7 @@
     <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="14"/>
       <c r="B3" s="14" t="s">
-        <v>509</v>
+        <v>421</v>
       </c>
       <c r="C3" s="15"/>
       <c r="D3" s="15"/>
@@ -4918,26 +4197,16 @@
     <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="14"/>
       <c r="B4" s="14" t="s">
-        <v>510</v>
+        <v>422</v>
       </c>
       <c r="C4" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="D4" s="14" t="s">
-        <v>468</v>
-      </c>
-      <c r="E4" s="14" t="s">
-        <v>468</v>
-      </c>
-      <c r="F4" s="14" t="s">
-        <v>468</v>
-      </c>
-      <c r="G4" s="14" t="s">
-        <v>468</v>
-      </c>
-      <c r="H4" s="14" t="s">
-        <v>468</v>
-      </c>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5014,26 +4283,25 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8524A69F-58DC-4C12-B71C-F15E36FF1DB4}">
-  <dimension ref="A1:V33"/>
+  <dimension ref="A1:L33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="6" ySplit="19" topLeftCell="G20" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="19" topLeftCell="D20" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A20" sqref="A20"/>
-      <selection pane="bottomRight" activeCell="D37" sqref="D37"/>
+      <selection pane="bottomRight" activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7.85546875" style="8" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="38" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="14" width="21.140625" style="8" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="21" style="8" bestFit="1" customWidth="1"/>
-    <col min="17" max="22" width="23.7109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="7.7109375" style="8"/>
+    <col min="3" max="11" width="21.140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="23.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="7.7109375" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>52</v>
       </c>
@@ -5065,48 +4333,18 @@
         <v>21</v>
       </c>
       <c r="K1" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="L1" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M1" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="N1" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="O1" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="P1" s="7" t="s">
-        <v>478</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>479</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>479</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>479</v>
-      </c>
-      <c r="T1" s="2" t="s">
-        <v>479</v>
-      </c>
-      <c r="U1" s="2" t="s">
-        <v>479</v>
-      </c>
-      <c r="V1" s="2" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B2" s="8" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B3" s="8" t="s">
         <v>55</v>
       </c>
@@ -5134,256 +4372,230 @@
       <c r="J3" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="K3" s="8" t="s">
-        <v>56</v>
-      </c>
       <c r="L3" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="Q3" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="R3" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="S3" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="T3" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="U3" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="V3" s="8" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B4" s="8" t="s">
         <v>57</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>556</v>
+        <v>431</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>557</v>
+        <v>432</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>555</v>
+        <v>433</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>558</v>
+        <v>434</v>
       </c>
       <c r="G4" s="8" t="s">
+        <v>438</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>446</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>447</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>466</v>
+      </c>
+      <c r="L4" s="8" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B5" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="H4" s="8" t="s">
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B6" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="I4" s="8" t="s">
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B7" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="J4" s="8" t="s">
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B8" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="K4" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="L4" s="9" t="s">
-        <v>472</v>
-      </c>
-      <c r="Q4" s="8" t="s">
-        <v>517</v>
-      </c>
-      <c r="R4" s="8" t="s">
-        <v>522</v>
-      </c>
-      <c r="S4" s="8" t="s">
-        <v>521</v>
-      </c>
-      <c r="T4" s="8" t="s">
-        <v>520</v>
-      </c>
-      <c r="U4" s="8" t="s">
-        <v>519</v>
-      </c>
-      <c r="V4" s="8" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B5" s="8" t="s">
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B9" s="8" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B6" s="8" t="s">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B10" s="8" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B7" s="8" t="s">
+      <c r="K10" s="8" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B11" s="8" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B8" s="8" t="s">
+      <c r="K11" s="8" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="B12" s="8" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B9" s="8" t="s">
+      <c r="K12" s="8" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B13" s="8" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B10" s="8" t="s">
+      <c r="K13" s="8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B14" s="8" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B11" s="8" t="s">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B15" s="8" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B12" s="8" t="s">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B16" s="8" t="s">
         <v>69</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B13" s="8" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B14" s="8" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B15" s="8" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B16" s="8" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B17" s="8" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B18" s="8" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B19" s="8" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B20" s="8" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B21" s="8" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="22" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B22" s="8" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="23" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B23" s="8" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="24" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B24" s="8" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="25" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B25" s="8" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="26" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B26" s="8" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="27" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B27" s="8" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="28" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B28" s="8" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="29" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B29" s="8" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="30" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B30" s="8" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="31" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B31" s="8" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="32" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B32" s="8" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="33" spans="2:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B33" s="8" t="s">
-        <v>90</v>
+        <v>86</v>
+      </c>
+      <c r="K33" s="8" t="s">
+        <v>466</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBCAE703-B904-44CB-A990-CED3724569EE}">
-  <dimension ref="A1:P56"/>
+  <dimension ref="A1:J56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="6" ySplit="18" topLeftCell="L19" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="18" topLeftCell="C31" activePane="bottomRight" state="frozen"/>
       <selection activeCell="G19" sqref="G19"/>
       <selection pane="topRight" activeCell="G19" sqref="G19"/>
       <selection pane="bottomLeft" activeCell="G19" sqref="G19"/>
-      <selection pane="bottomRight" activeCell="F22" sqref="F22"/>
+      <selection pane="bottomRight" activeCell="J48" sqref="J48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.42578125" style="8" customWidth="1"/>
     <col min="2" max="2" width="46" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="10" width="22.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="11" max="16" width="23.7109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="8"/>
+    <col min="3" max="5" width="21.5703125" style="8" customWidth="1"/>
+    <col min="6" max="9" width="21.42578125" style="8" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>52</v>
       </c>
@@ -5409,996 +4621,561 @@
         <v>18</v>
       </c>
       <c r="I1" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="K1" s="6" t="s">
-        <v>479</v>
-      </c>
-      <c r="L1" s="6" t="s">
-        <v>479</v>
-      </c>
-      <c r="M1" s="6" t="s">
-        <v>479</v>
-      </c>
-      <c r="N1" s="6" t="s">
-        <v>479</v>
-      </c>
-      <c r="O1" s="6" t="s">
-        <v>479</v>
-      </c>
-      <c r="P1" s="6" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>432</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>433</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>434</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>438</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>446</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>447</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>447</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+    </row>
+    <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="C2" s="8" t="s">
-        <v>557</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>555</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>558</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>566</v>
-      </c>
-      <c r="H2" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="J2" s="9" t="s">
-        <v>472</v>
-      </c>
-      <c r="K2" s="8" t="s">
-        <v>517</v>
-      </c>
-      <c r="L2" s="8" t="s">
-        <v>522</v>
-      </c>
-      <c r="M2" s="8" t="s">
-        <v>521</v>
-      </c>
-      <c r="N2" s="8" t="s">
-        <v>520</v>
-      </c>
-      <c r="O2" s="8" t="s">
-        <v>519</v>
-      </c>
-      <c r="P2" s="8" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="8" t="s">
+      <c r="C5" s="8" t="s">
+        <v>424</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>424</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>424</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>424</v>
+      </c>
+      <c r="J5" s="8" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="C3" s="10"/>
-      <c r="E3" s="10" t="s">
-        <v>559</v>
-      </c>
-      <c r="F3" s="10" t="s">
-        <v>567</v>
-      </c>
-      <c r="K3" s="10" t="s">
-        <v>507</v>
-      </c>
-      <c r="L3" s="10" t="s">
-        <v>507</v>
-      </c>
-      <c r="M3" s="10" t="s">
-        <v>507</v>
-      </c>
-      <c r="N3" s="10" t="s">
-        <v>507</v>
-      </c>
-      <c r="O3" s="10" t="s">
-        <v>507</v>
-      </c>
-      <c r="P3" s="10" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="8" t="s">
+      <c r="C6" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="D6" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="I6" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="J6" s="8" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="E4" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="H4" s="8" t="s">
-        <v>492</v>
-      </c>
-      <c r="J4" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="K4" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="L4" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="M4" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="N4" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="O4" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="P4" s="8" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="8" t="s">
+    </row>
+    <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="C5" s="8" t="s">
-        <v>512</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>512</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>512</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="H5" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="K5" s="8" t="s">
-        <v>512</v>
-      </c>
-      <c r="L5" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="M5" s="8" t="s">
-        <v>512</v>
-      </c>
-      <c r="N5" s="8" t="s">
-        <v>512</v>
-      </c>
-      <c r="O5" s="8" t="s">
-        <v>512</v>
-      </c>
-      <c r="P5" s="8" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="8" t="s">
+    </row>
+    <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="C6" s="8" t="s">
+    </row>
+    <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="D6" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="H6" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="J6" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="K6" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="L6" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="M6" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="N6" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="O6" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="P6" s="8" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="8" t="s">
+    </row>
+    <row r="11" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="L7" s="8" t="s">
-        <v>480</v>
-      </c>
-      <c r="M7" s="8" t="s">
-        <v>480</v>
-      </c>
-      <c r="N7" s="8" t="s">
-        <v>480</v>
-      </c>
-      <c r="O7" s="8" t="s">
-        <v>480</v>
-      </c>
-      <c r="P7" s="8" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="8" t="s">
+    </row>
+    <row r="12" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="8" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="8" t="s">
+    <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="L9" s="8" t="s">
-        <v>480</v>
-      </c>
-      <c r="M9" s="8" t="s">
-        <v>480</v>
-      </c>
-      <c r="N9" s="8" t="s">
-        <v>480</v>
-      </c>
-      <c r="O9" s="8" t="s">
-        <v>480</v>
-      </c>
-      <c r="P9" s="8" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="8" t="s">
+    </row>
+    <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="8" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="8" t="s">
+    <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="F11" s="12"/>
-    </row>
-    <row r="12" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="8" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="8" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="8" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="F15" s="8" t="s">
+      <c r="E15" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="G15" s="8" t="s">
         <v>56</v>
       </c>
       <c r="H15" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="L15" s="8" t="s">
+      <c r="J15" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="M15" s="8" t="s">
+    </row>
+    <row r="16" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="E16" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="N15" s="8" t="s">
+      <c r="G16" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="O15" s="8" t="s">
+      <c r="H16" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="P15" s="8" t="s">
+      <c r="J16" s="8" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="16" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="8" t="s">
+    <row r="17" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>454</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>451</v>
+      </c>
+      <c r="H17" s="8" t="s">
+        <v>448</v>
+      </c>
+      <c r="J17" s="8" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>455</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>452</v>
+      </c>
+      <c r="H18" s="8" t="s">
+        <v>449</v>
+      </c>
+      <c r="J18" s="8" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>456</v>
+      </c>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10" t="s">
+        <v>453</v>
+      </c>
+      <c r="H19" s="10" t="s">
+        <v>450</v>
+      </c>
+      <c r="I19" s="10"/>
+      <c r="J19" s="10" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="F16" s="8" t="s">
-        <v>468</v>
-      </c>
-      <c r="H16" s="8" t="s">
-        <v>494</v>
-      </c>
-      <c r="L16" s="8" t="s">
+      <c r="E20" s="8" t="s">
+        <v>435</v>
+      </c>
+      <c r="G20" s="8" t="s">
+        <v>435</v>
+      </c>
+      <c r="H20" s="8" t="s">
+        <v>435</v>
+      </c>
+      <c r="J20" s="8" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>436</v>
+      </c>
+      <c r="G21" s="8" t="s">
+        <v>436</v>
+      </c>
+      <c r="H21" s="8" t="s">
+        <v>436</v>
+      </c>
+      <c r="J21" s="8" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>437</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>437</v>
+      </c>
+      <c r="H22" s="8" t="s">
+        <v>437</v>
+      </c>
+      <c r="J22" s="8" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>419</v>
+      </c>
+      <c r="G23" s="8" t="s">
+        <v>419</v>
+      </c>
+      <c r="H23" s="8" t="s">
+        <v>419</v>
+      </c>
+      <c r="J23" s="8" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="8" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="8" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="27" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="28" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="29" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="8" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="30" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="8" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="31" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="8" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="32" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="8" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="33" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="8" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="34" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="8" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="35" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="8" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="36" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="8" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="37" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="8" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="38" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="J38" s="8" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="39" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="J39" s="8" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="40" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="J40" s="8" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="41" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="J41" s="8" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="42" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="J42" s="8" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="43" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="J43" s="8" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="44" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B44" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="J44" s="8" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="45" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="J45" s="8" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="46" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B46" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="J46" s="8" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="47" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B47" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="J47" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="M16" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="N16" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="O16" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="P16" s="8" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="17" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="F17" s="8" t="s">
-        <v>568</v>
-      </c>
-      <c r="H17" s="8" t="s">
-        <v>493</v>
-      </c>
-      <c r="L17" s="8" t="s">
-        <v>481</v>
-      </c>
-      <c r="M17" s="8" t="s">
-        <v>481</v>
-      </c>
-      <c r="N17" s="8" t="s">
-        <v>481</v>
-      </c>
-      <c r="O17" s="8" t="s">
-        <v>481</v>
-      </c>
-      <c r="P17" s="8" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="18" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="F18" s="8" t="s">
-        <v>569</v>
-      </c>
-      <c r="H18" s="8" t="s">
-        <v>495</v>
-      </c>
-      <c r="L18" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="M18" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="N18" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="O18" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="P18" s="8" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="19" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="F19" s="10" t="s">
-        <v>570</v>
-      </c>
-      <c r="K19" s="10"/>
-      <c r="L19" s="10" t="s">
-        <v>482</v>
-      </c>
-      <c r="M19" s="10" t="s">
-        <v>482</v>
-      </c>
-      <c r="N19" s="10" t="s">
-        <v>482</v>
-      </c>
-      <c r="O19" s="10" t="s">
-        <v>482</v>
-      </c>
-      <c r="P19" s="10" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="20" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="F20" s="8" t="s">
-        <v>571</v>
-      </c>
-      <c r="H20" s="8" t="s">
-        <v>496</v>
-      </c>
-      <c r="L20" s="8" t="s">
-        <v>483</v>
-      </c>
-      <c r="M20" s="8" t="s">
-        <v>483</v>
-      </c>
-      <c r="N20" s="8" t="s">
-        <v>483</v>
-      </c>
-      <c r="O20" s="8" t="s">
-        <v>483</v>
-      </c>
-      <c r="P20" s="8" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="21" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="F21" s="8" t="s">
-        <v>175</v>
-      </c>
-      <c r="L21" s="8" t="s">
-        <v>484</v>
-      </c>
-      <c r="M21" s="8" t="s">
-        <v>484</v>
-      </c>
-      <c r="N21" s="8" t="s">
-        <v>484</v>
-      </c>
-      <c r="O21" s="8" t="s">
-        <v>484</v>
-      </c>
-      <c r="P21" s="8" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="22" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="L22" s="8" t="s">
-        <v>485</v>
-      </c>
-      <c r="M22" s="8" t="s">
-        <v>485</v>
-      </c>
-      <c r="N22" s="8" t="s">
-        <v>485</v>
-      </c>
-      <c r="O22" s="8" t="s">
-        <v>485</v>
-      </c>
-      <c r="P22" s="8" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="23" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="L23" s="8" t="s">
-        <v>486</v>
-      </c>
-      <c r="M23" s="8" t="s">
-        <v>486</v>
-      </c>
-      <c r="N23" s="8" t="s">
-        <v>486</v>
-      </c>
-      <c r="O23" s="8" t="s">
-        <v>486</v>
-      </c>
-      <c r="P23" s="8" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="24" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="8" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="25" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="H25" s="8" t="s">
-        <v>497</v>
-      </c>
-      <c r="L25" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="N25" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="O25" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="P25" s="8" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="26" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="L26" s="8" t="s">
-        <v>184</v>
-      </c>
-      <c r="N26" s="8" t="s">
-        <v>184</v>
-      </c>
-      <c r="O26" s="8" t="s">
-        <v>184</v>
-      </c>
-      <c r="P26" s="8" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="27" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="H27" s="8" t="s">
-        <v>498</v>
-      </c>
-      <c r="L27" s="8" t="s">
-        <v>186</v>
-      </c>
-      <c r="N27" s="8" t="s">
-        <v>186</v>
-      </c>
-      <c r="O27" s="8" t="s">
-        <v>186</v>
-      </c>
-      <c r="P27" s="8" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="28" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="H28" s="8" t="s">
-        <v>499</v>
-      </c>
-      <c r="L28" s="8" t="s">
-        <v>188</v>
-      </c>
-      <c r="N28" s="8" t="s">
-        <v>188</v>
-      </c>
-      <c r="O28" s="8" t="s">
-        <v>188</v>
-      </c>
-      <c r="P28" s="8" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="29" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="H29" s="8" t="s">
-        <v>500</v>
-      </c>
-      <c r="L29" s="8" t="s">
-        <v>190</v>
-      </c>
-      <c r="N29" s="8" t="s">
-        <v>190</v>
-      </c>
-      <c r="O29" s="8" t="s">
-        <v>190</v>
-      </c>
-      <c r="P29" s="8" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="30" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="H30" s="8" t="s">
-        <v>501</v>
-      </c>
-      <c r="L30" s="8" t="s">
-        <v>336</v>
-      </c>
-      <c r="N30" s="8" t="s">
-        <v>336</v>
-      </c>
-      <c r="O30" s="8" t="s">
-        <v>336</v>
-      </c>
-      <c r="P30" s="8" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="31" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="H31" s="8" t="s">
-        <v>494</v>
-      </c>
-      <c r="L31" s="8" t="s">
-        <v>468</v>
-      </c>
-      <c r="N31" s="8" t="s">
-        <v>468</v>
-      </c>
-      <c r="O31" s="8" t="s">
-        <v>468</v>
-      </c>
-      <c r="P31" s="8" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="32" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="L32" s="8" t="s">
-        <v>487</v>
-      </c>
-      <c r="N32" s="8" t="s">
-        <v>487</v>
-      </c>
-      <c r="O32" s="8" t="s">
-        <v>487</v>
-      </c>
-      <c r="P32" s="8" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="33" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="L33" s="8" t="s">
-        <v>488</v>
-      </c>
-      <c r="N33" s="8" t="s">
-        <v>488</v>
-      </c>
-      <c r="O33" s="8" t="s">
-        <v>488</v>
-      </c>
-      <c r="P33" s="8" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="34" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="L34" s="8" t="s">
-        <v>489</v>
-      </c>
-      <c r="N34" s="8" t="s">
-        <v>489</v>
-      </c>
-      <c r="O34" s="8" t="s">
-        <v>489</v>
-      </c>
-      <c r="P34" s="8" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="35" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="L35" s="8" t="s">
-        <v>188</v>
-      </c>
-      <c r="N35" s="8" t="s">
-        <v>188</v>
-      </c>
-      <c r="O35" s="8" t="s">
-        <v>188</v>
-      </c>
-      <c r="P35" s="8" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="36" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="L36" s="8" t="s">
-        <v>190</v>
-      </c>
-      <c r="N36" s="8" t="s">
-        <v>190</v>
-      </c>
-      <c r="O36" s="8" t="s">
-        <v>190</v>
-      </c>
-      <c r="P36" s="8" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="37" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="L37" s="8" t="s">
-        <v>336</v>
-      </c>
-      <c r="N37" s="8" t="s">
-        <v>336</v>
-      </c>
-      <c r="O37" s="8" t="s">
-        <v>336</v>
-      </c>
-      <c r="P37" s="8" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="38" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="K38" s="8" t="s">
-        <v>523</v>
-      </c>
-      <c r="L38" s="8" t="s">
-        <v>490</v>
-      </c>
-      <c r="M38" s="8" t="s">
-        <v>490</v>
-      </c>
-      <c r="N38" s="8" t="s">
-        <v>490</v>
-      </c>
-      <c r="O38" s="8" t="s">
-        <v>490</v>
-      </c>
-      <c r="P38" s="8" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="39" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="K39" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="L39" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="M39" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="N39" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="O39" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="P39" s="8" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="40" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="L40" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="N40" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="O40" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="P40" s="8" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="41" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="K41" s="8" t="s">
-        <v>524</v>
-      </c>
-      <c r="M41" s="8" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="42" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="K42" s="8" t="s">
-        <v>525</v>
-      </c>
-      <c r="M42" s="8" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="43" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="K43" s="8" t="s">
-        <v>526</v>
-      </c>
-      <c r="M43" s="8" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="44" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="8" t="s">
+    </row>
+    <row r="48" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B48" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="K44" s="8" t="s">
-        <v>188</v>
-      </c>
-      <c r="M44" s="8" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="45" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="8" t="s">
+    </row>
+    <row r="49" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B49" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="K45" s="8" t="s">
-        <v>190</v>
-      </c>
-      <c r="M45" s="8" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="46" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="8" t="s">
+    </row>
+    <row r="50" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B50" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="K46" s="8" t="s">
-        <v>336</v>
-      </c>
-      <c r="M46" s="8" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="47" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="8" t="s">
+    </row>
+    <row r="51" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B51" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="L47" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="N47" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="O47" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="P47" s="8" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="48" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="8" t="s">
+    </row>
+    <row r="52" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B52" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="K48" s="8" t="s">
-        <v>523</v>
-      </c>
-      <c r="M48" s="8" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="49" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="8" t="s">
+    </row>
+    <row r="53" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B53" s="8" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="50" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="8" t="s">
+    <row r="54" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B54" s="8" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="51" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="8" t="s">
+    <row r="55" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B55" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="K51" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="M51" s="8" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="52" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="8" t="s">
+    </row>
+    <row r="56" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B56" s="8" t="s">
         <v>143</v>
-      </c>
-    </row>
-    <row r="53" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="8" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="54" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="8" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="55" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="8" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="56" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="8" t="s">
-        <v>147</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="K3" r:id="rId1" xr:uid="{CDCB38A1-1D82-43AA-A055-AA4330DF4F35}"/>
-    <hyperlink ref="L3" r:id="rId2" xr:uid="{03226BE3-858B-44C0-98AE-47DC31A68C05}"/>
-    <hyperlink ref="L19" r:id="rId3" xr:uid="{8967C149-D616-452B-A8E6-2BAEBD34909F}"/>
-    <hyperlink ref="M3" r:id="rId4" xr:uid="{91FF370C-C306-49CE-9D07-E6321C31FA28}"/>
-    <hyperlink ref="M19" r:id="rId5" xr:uid="{A919C707-EF43-41FF-9940-17452EC8DB69}"/>
-    <hyperlink ref="N3" r:id="rId6" xr:uid="{44D201BB-B6F7-4819-9064-4AA8634A770A}"/>
-    <hyperlink ref="N19" r:id="rId7" xr:uid="{4DA2B24E-2F01-4479-95D2-250B455BAFAB}"/>
-    <hyperlink ref="O3" r:id="rId8" xr:uid="{6BF68FFC-D454-475A-BF8E-E30662284174}"/>
-    <hyperlink ref="O19" r:id="rId9" xr:uid="{21433FA7-7870-4110-9F2E-7032B1A9357A}"/>
-    <hyperlink ref="P3" r:id="rId10" xr:uid="{C53CC221-9593-4E4B-801B-FD0FDA666BA2}"/>
-    <hyperlink ref="P19" r:id="rId11" xr:uid="{9477FB47-51EC-4EAC-A0A1-0AF14903FCBE}"/>
-    <hyperlink ref="E3" r:id="rId12" xr:uid="{234D8D67-FA59-4ACE-B44A-14E53C227A80}"/>
-    <hyperlink ref="F3" r:id="rId13" xr:uid="{3909C171-1942-4DF8-9C8F-D5D495B925A7}"/>
-    <hyperlink ref="F19" r:id="rId14" xr:uid="{83ABD523-9D02-4B23-9C35-C5A9352D8CB4}"/>
+    <hyperlink ref="E19" r:id="rId1" xr:uid="{6BD42654-447F-49DC-8855-17B4F8F5303C}"/>
+    <hyperlink ref="G19" r:id="rId2" xr:uid="{5D4AA93E-1C3D-46F2-B2D9-3C1B20AC98AE}"/>
+    <hyperlink ref="H19" r:id="rId3" xr:uid="{C943048A-AE48-4DDD-B96E-25F11A5AD65F}"/>
+    <hyperlink ref="J19" r:id="rId4" xr:uid="{00BBB7B6-1A95-41CF-94C2-F84507A68000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId15"/>
+  <pageSetup orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6407F73-CE66-4381-9A7E-E095E10C11FE}">
-  <dimension ref="A1:L57"/>
+  <dimension ref="A1:K57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="7" ySplit="18" topLeftCell="H19" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="18" topLeftCell="G19" activePane="bottomRight" state="frozen"/>
       <selection activeCell="G19" sqref="G19"/>
       <selection pane="topRight" activeCell="G19" sqref="G19"/>
       <selection pane="bottomLeft" activeCell="G19" sqref="G19"/>
-      <selection pane="bottomRight" activeCell="C25" sqref="C25"/>
+      <selection pane="bottomRight" activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.42578125" style="8" customWidth="1"/>
     <col min="2" max="2" width="46.42578125" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="12" width="22.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="8"/>
+    <col min="3" max="5" width="21.42578125" style="8" customWidth="1"/>
+    <col min="6" max="11" width="22.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>52</v>
       </c>
@@ -6406,323 +5183,283 @@
         <v>53</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G1" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>44</v>
-      </c>
+      <c r="F1" s="7"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="7"/>
       <c r="I1" s="7"/>
       <c r="J1" s="7"/>
       <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-    </row>
-    <row r="2" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="8" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+    </row>
+    <row r="4" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="8" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="8" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="8" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="8" t="s">
+      <c r="C6" s="8" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="8" t="s">
+      <c r="D6" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="8" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="8" t="s">
+    <row r="8" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="8" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="C6" s="8" t="s">
+    <row r="9" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="E6" s="8" t="s">
+    </row>
+    <row r="10" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="8" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="8" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="H6" s="8" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="8" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="8" t="s">
-        <v>155</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="G8" s="8" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="8" t="s">
+    </row>
+    <row r="13" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="8" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="8" t="s">
+    <row r="14" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="8" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="8" t="s">
+    <row r="15" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="8" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="8" t="s">
+    <row r="16" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="8" t="s">
         <v>160</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="8" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="8" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="8" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="8" t="s">
-        <v>164</v>
       </c>
       <c r="C16" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="H16" s="8" t="s">
+      <c r="E16" s="8" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="17" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>417</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>439</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>440</v>
+      </c>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>441</v>
+      </c>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10" t="s">
+        <v>469</v>
+      </c>
+      <c r="G20" s="10"/>
+    </row>
+    <row r="21" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="8" t="s">
         <v>165</v>
       </c>
-      <c r="C17" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="H17" s="8" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="18" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="8" t="s">
+      <c r="C21" s="8" t="s">
+        <v>442</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="8" t="s">
         <v>166</v>
       </c>
-      <c r="C18" s="8" t="s">
-        <v>560</v>
-      </c>
-      <c r="H18" s="8" t="s">
+      <c r="C22" s="8" t="s">
+        <v>443</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="8" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="19" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="8" t="s">
+      <c r="C23" s="8" t="s">
+        <v>444</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="8" t="s">
         <v>168</v>
       </c>
-      <c r="C19" s="8" t="s">
-        <v>561</v>
-      </c>
-      <c r="H19" s="8" t="s">
+      <c r="C24" s="8" t="s">
+        <v>445</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="8" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="20" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="8" t="s">
+    <row r="26" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="8" t="s">
         <v>170</v>
       </c>
-      <c r="C20" s="10" t="s">
-        <v>562</v>
-      </c>
-      <c r="H20" s="10" t="s">
+    </row>
+    <row r="27" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="8" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="21" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="8" t="s">
+    <row r="28" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="C21" s="8" t="s">
+    </row>
+    <row r="29" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="8" t="s">
         <v>173</v>
       </c>
-      <c r="H21" s="8" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="22" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="8" t="s">
-        <v>174</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>563</v>
-      </c>
-      <c r="H22" s="8" t="s">
+    </row>
+    <row r="30" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="8" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="23" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="8" t="s">
-        <v>176</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>564</v>
-      </c>
-      <c r="D23" s="8" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="24" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="8" t="s">
+    <row r="31" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="8" t="s">
         <v>177</v>
       </c>
-      <c r="C24" s="8" t="s">
-        <v>565</v>
-      </c>
-      <c r="D24" s="8" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="25" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="8" t="s">
+    </row>
+    <row r="32" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="8" t="s">
         <v>178</v>
-      </c>
-      <c r="D25" s="8" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="26" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="8" t="s">
-        <v>180</v>
-      </c>
-      <c r="H26" s="8" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="27" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="D27" s="8" t="s">
-        <v>183</v>
-      </c>
-      <c r="H27" s="8" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="28" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="8" t="s">
-        <v>185</v>
-      </c>
-      <c r="D28" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="H28" s="8" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="29" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="8" t="s">
-        <v>187</v>
-      </c>
-      <c r="D29" s="8" t="s">
-        <v>175</v>
-      </c>
-      <c r="H29" s="8" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="30" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="8" t="s">
-        <v>189</v>
-      </c>
-      <c r="H30" s="8" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="31" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="8" t="s">
-        <v>191</v>
-      </c>
-      <c r="H31" s="8" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="32" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="8" t="s">
-        <v>193</v>
-      </c>
-      <c r="H32" s="8" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="33" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="8" t="s">
-        <v>194</v>
+        <v>179</v>
       </c>
     </row>
     <row r="34" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="8" t="s">
-        <v>195</v>
+        <v>180</v>
       </c>
     </row>
     <row r="35" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="8" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
     </row>
     <row r="36" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="8" t="s">
-        <v>197</v>
+        <v>182</v>
       </c>
     </row>
     <row r="37" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="8" t="s">
-        <v>198</v>
+        <v>183</v>
       </c>
     </row>
     <row r="38" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="8" t="s">
-        <v>199</v>
+        <v>184</v>
       </c>
     </row>
     <row r="39" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="8" t="s">
-        <v>200</v>
+        <v>185</v>
       </c>
     </row>
     <row r="40" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="8" t="s">
-        <v>201</v>
+        <v>186</v>
       </c>
     </row>
     <row r="41" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6744,9 +5481,8 @@
     <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D27" r:id="rId1" xr:uid="{14065AD4-5E53-40D0-8D3C-19AE13D0371C}"/>
-    <hyperlink ref="H20" r:id="rId2" xr:uid="{FB398F4C-10CD-47D5-8830-D3A7E7332D57}"/>
-    <hyperlink ref="C20" r:id="rId3" xr:uid="{7B2FD991-8FB3-4CFB-A818-1EE11BDD04E6}"/>
+    <hyperlink ref="C20" r:id="rId1" xr:uid="{E6C7B772-3ADE-47DE-92D9-C52FADBA34E6}"/>
+    <hyperlink ref="E20" r:id="rId2" xr:uid="{E689757C-FCB2-4F31-85B1-0730FFF4C533}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6771,7 +5507,7 @@
   <dimension ref="A1:I57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="C1" sqref="C1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6789,210 +5525,160 @@
       <c r="B1" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>47</v>
-      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
       <c r="G1" s="7"/>
       <c r="H1" s="7"/>
       <c r="I1" s="7"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="8" t="s">
-        <v>202</v>
+        <v>187</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="8" t="s">
-        <v>203</v>
+        <v>188</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="8" t="s">
-        <v>204</v>
+        <v>189</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="8" t="s">
-        <v>205</v>
+        <v>190</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="8" t="s">
-        <v>206</v>
+        <v>191</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="8" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="8" t="s">
-        <v>208</v>
+        <v>193</v>
       </c>
       <c r="D8" s="11"/>
     </row>
     <row r="9" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="8" t="s">
-        <v>209</v>
+        <v>194</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="s">
-        <v>210</v>
+        <v>195</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="8" t="s">
-        <v>211</v>
+        <v>196</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="8" t="s">
-        <v>212</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>213</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>213</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>213</v>
-      </c>
-      <c r="F12" s="8" t="s">
-        <v>213</v>
+        <v>197</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="8" t="s">
-        <v>214</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>467</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>472</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>472</v>
-      </c>
-      <c r="F13" s="9" t="s">
-        <v>467</v>
-      </c>
+        <v>199</v>
+      </c>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
     </row>
     <row r="14" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="8" t="s">
-        <v>215</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="F14" s="8" t="s">
-        <v>56</v>
+        <v>200</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="8" t="s">
-        <v>216</v>
+        <v>201</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="8" t="s">
-        <v>217</v>
+        <v>202</v>
       </c>
     </row>
     <row r="17" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="8" t="s">
-        <v>218</v>
+        <v>203</v>
       </c>
     </row>
     <row r="18" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="8" t="s">
-        <v>219</v>
+        <v>204</v>
       </c>
     </row>
     <row r="19" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="8" t="s">
-        <v>220</v>
+        <v>205</v>
       </c>
     </row>
     <row r="20" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="8" t="s">
-        <v>221</v>
+        <v>206</v>
       </c>
     </row>
     <row r="21" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="8" t="s">
-        <v>222</v>
+        <v>207</v>
       </c>
     </row>
     <row r="22" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="8" t="s">
-        <v>223</v>
+        <v>208</v>
       </c>
     </row>
     <row r="23" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="8" t="s">
-        <v>224</v>
+        <v>209</v>
       </c>
     </row>
     <row r="24" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="8" t="s">
-        <v>225</v>
+        <v>210</v>
       </c>
     </row>
     <row r="25" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="8" t="s">
-        <v>226</v>
+        <v>211</v>
       </c>
     </row>
     <row r="26" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="8" t="s">
-        <v>227</v>
+        <v>212</v>
       </c>
     </row>
     <row r="27" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="8" t="s">
-        <v>228</v>
+        <v>213</v>
       </c>
     </row>
     <row r="28" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="8" t="s">
-        <v>229</v>
+        <v>214</v>
       </c>
     </row>
     <row r="29" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="8" t="s">
-        <v>230</v>
-      </c>
-      <c r="C29" s="8" t="s">
-        <v>467</v>
-      </c>
-      <c r="D29" s="9" t="s">
-        <v>472</v>
-      </c>
-      <c r="E29" s="9" t="s">
-        <v>472</v>
-      </c>
-      <c r="F29" s="9" t="s">
-        <v>467</v>
-      </c>
+        <v>215</v>
+      </c>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
     </row>
     <row r="30" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D30" s="11"/>
@@ -7035,7 +5721,7 @@
   <dimension ref="A1:I46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7053,15 +5739,9 @@
       <c r="B1" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>47</v>
-      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
       <c r="F1" s="7"/>
       <c r="G1" s="7"/>
       <c r="H1" s="7"/>
@@ -7069,197 +5749,131 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B2" s="8" t="s">
-        <v>231</v>
+        <v>216</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B3" s="8" t="s">
-        <v>232</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>473</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>473</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>477</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B4" s="8" t="s">
-        <v>233</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>469</v>
+        <v>218</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B5" s="8" t="s">
-        <v>234</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>470</v>
+        <v>219</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B6" s="8" t="s">
-        <v>235</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>188</v>
+        <v>220</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B7" s="8" t="s">
-        <v>236</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>190</v>
+        <v>221</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B8" s="8" t="s">
-        <v>237</v>
+        <v>222</v>
       </c>
       <c r="D8" s="12"/>
-      <c r="E8" s="8" t="s">
-        <v>471</v>
-      </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B9" s="8" t="s">
-        <v>238</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>336</v>
+        <v>223</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="s">
-        <v>239</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>468</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>468</v>
+        <v>224</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B11" s="8" t="s">
-        <v>240</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>469</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>469</v>
+        <v>225</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B12" s="8" t="s">
-        <v>241</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>470</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>470</v>
+        <v>226</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B13" s="8" t="s">
-        <v>242</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>188</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>188</v>
+        <v>227</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B14" s="8" t="s">
-        <v>243</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>190</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>190</v>
+        <v>228</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B15" s="8" t="s">
-        <v>244</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>471</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>471</v>
+        <v>229</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B16" s="8" t="s">
-        <v>245</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>336</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>336</v>
+        <v>230</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B17" s="8" t="s">
-        <v>246</v>
+        <v>231</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B18" s="8" t="s">
-        <v>247</v>
+        <v>232</v>
       </c>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B19" s="8" t="s">
-        <v>248</v>
+        <v>233</v>
       </c>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B20" s="8" t="s">
-        <v>249</v>
+        <v>234</v>
       </c>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B21" s="8" t="s">
-        <v>250</v>
+        <v>235</v>
       </c>
     </row>
     <row r="22" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B22" s="8" t="s">
-        <v>251</v>
+        <v>236</v>
       </c>
     </row>
     <row r="23" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B23" s="8" t="s">
-        <v>252</v>
+        <v>237</v>
       </c>
     </row>
     <row r="24" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B24" s="8" t="s">
-        <v>253</v>
+        <v>238</v>
       </c>
     </row>
     <row r="25" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B25" s="8" t="s">
-        <v>254</v>
+        <v>239</v>
       </c>
     </row>
     <row r="26" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B26" s="8" t="s">
-        <v>255</v>
+        <v>240</v>
       </c>
     </row>
     <row r="27" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/target/test-classes/TestData/NewData.xlsx
+++ b/target/test-classes/TestData/NewData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jteja\GFLAutomation\GFL.Wishes\src\test\resources\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66060CB0-A490-4AA8-9147-6F3AB941E77F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{005D8AEF-1C8E-4A05-A3B1-21F36770EA88}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="11" activeTab="18" xr2:uid="{24025A28-F3F9-43F5-89B1-20F9E5BBA4E0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="23280" windowHeight="12600" xr2:uid="{24025A28-F3F9-43F5-89B1-20F9E5BBA4E0}"/>
   </bookViews>
   <sheets>
     <sheet name="RunModes" sheetId="1" r:id="rId1"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="674" uniqueCount="493">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="740" uniqueCount="506">
   <si>
     <t>TestCaseID</t>
   </si>
@@ -1531,6 +1531,45 @@
   </si>
   <si>
     <t>500</t>
+  </si>
+  <si>
+    <t>SM_NS_FVF_TC01</t>
+  </si>
+  <si>
+    <t>SiteValidation</t>
+  </si>
+  <si>
+    <t>SM_NS_FVF_TC02</t>
+  </si>
+  <si>
+    <t>Site Validation</t>
+  </si>
+  <si>
+    <t>SM_NS_FVF_TC03</t>
+  </si>
+  <si>
+    <t>SM_NS_FVF_TC06</t>
+  </si>
+  <si>
+    <t>SM_NS_FVF_TC05</t>
+  </si>
+  <si>
+    <t>SM_NS_FVF_TC04</t>
+  </si>
+  <si>
+    <t>SM_NS_FVF_TC07</t>
+  </si>
+  <si>
+    <t>123456</t>
+  </si>
+  <si>
+    <t>zzzzz</t>
+  </si>
+  <si>
+    <t>1234</t>
+  </si>
+  <si>
+    <t>SM_NS_FVF_TC08</t>
   </si>
 </sst>
 </file>
@@ -1983,10 +2022,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA788142-DF31-4F76-877B-06B41CFFA2BE}">
-  <dimension ref="A1:L27"/>
+  <dimension ref="A1:L104"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2539,6 +2578,1138 @@
       <c r="K27" s="3"/>
       <c r="L27" s="3"/>
     </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" s="4"/>
+      <c r="B28" s="2" t="s">
+        <v>493</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="K28" s="3"/>
+      <c r="L28" s="3"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29" s="4"/>
+      <c r="B29" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="K29" s="3"/>
+      <c r="L29" s="3"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" s="4"/>
+      <c r="B30" s="2" t="s">
+        <v>497</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="3"/>
+      <c r="K30" s="3"/>
+      <c r="L30" s="3"/>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31" s="4"/>
+      <c r="B31" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="3"/>
+      <c r="J31" s="3"/>
+      <c r="K31" s="3"/>
+      <c r="L31" s="3"/>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32" s="4"/>
+      <c r="B32" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="3"/>
+      <c r="J32" s="3"/>
+      <c r="K32" s="3"/>
+      <c r="L32" s="3"/>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A33" s="4"/>
+      <c r="B33" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
+      <c r="I33" s="3"/>
+      <c r="J33" s="3"/>
+      <c r="K33" s="3"/>
+      <c r="L33" s="3"/>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A34" s="4"/>
+      <c r="B34" s="2" t="s">
+        <v>501</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3"/>
+      <c r="I34" s="3"/>
+      <c r="J34" s="3"/>
+      <c r="K34" s="3"/>
+      <c r="L34" s="3"/>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A35" s="4"/>
+      <c r="B35" s="2" t="s">
+        <v>505</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
+      <c r="H35" s="3"/>
+      <c r="I35" s="3"/>
+      <c r="J35" s="3"/>
+      <c r="K35" s="3"/>
+      <c r="L35" s="3"/>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A36" s="4"/>
+      <c r="B36" s="2"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="3"/>
+      <c r="H36" s="3"/>
+      <c r="I36" s="3"/>
+      <c r="J36" s="3"/>
+      <c r="K36" s="3"/>
+      <c r="L36" s="3"/>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A37" s="4"/>
+      <c r="B37" s="2"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="3"/>
+      <c r="H37" s="3"/>
+      <c r="I37" s="3"/>
+      <c r="J37" s="3"/>
+      <c r="K37" s="3"/>
+      <c r="L37" s="3"/>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A38" s="4"/>
+      <c r="B38" s="2"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3"/>
+      <c r="G38" s="3"/>
+      <c r="H38" s="3"/>
+      <c r="I38" s="3"/>
+      <c r="J38" s="3"/>
+      <c r="K38" s="3"/>
+      <c r="L38" s="3"/>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A39" s="4"/>
+      <c r="B39" s="2"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3"/>
+      <c r="G39" s="3"/>
+      <c r="H39" s="3"/>
+      <c r="I39" s="3"/>
+      <c r="J39" s="3"/>
+      <c r="K39" s="3"/>
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A40" s="4"/>
+      <c r="B40" s="2"/>
+      <c r="C40" s="3"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3"/>
+      <c r="G40" s="3"/>
+      <c r="H40" s="3"/>
+      <c r="I40" s="3"/>
+      <c r="J40" s="3"/>
+      <c r="K40" s="3"/>
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A41" s="4"/>
+      <c r="B41" s="2"/>
+      <c r="C41" s="3"/>
+      <c r="D41" s="3"/>
+      <c r="E41" s="3"/>
+      <c r="F41" s="3"/>
+      <c r="G41" s="3"/>
+      <c r="H41" s="3"/>
+      <c r="I41" s="3"/>
+      <c r="J41" s="3"/>
+      <c r="K41" s="3"/>
+      <c r="L41" s="3"/>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A42" s="4"/>
+      <c r="B42" s="2"/>
+      <c r="C42" s="3"/>
+      <c r="D42" s="3"/>
+      <c r="E42" s="3"/>
+      <c r="F42" s="3"/>
+      <c r="G42" s="3"/>
+      <c r="H42" s="3"/>
+      <c r="I42" s="3"/>
+      <c r="J42" s="3"/>
+      <c r="K42" s="3"/>
+      <c r="L42" s="3"/>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A43" s="4"/>
+      <c r="B43" s="2"/>
+      <c r="C43" s="3"/>
+      <c r="D43" s="3"/>
+      <c r="E43" s="3"/>
+      <c r="F43" s="3"/>
+      <c r="G43" s="3"/>
+      <c r="H43" s="3"/>
+      <c r="I43" s="3"/>
+      <c r="J43" s="3"/>
+      <c r="K43" s="3"/>
+      <c r="L43" s="3"/>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A44" s="4"/>
+      <c r="B44" s="2"/>
+      <c r="C44" s="3"/>
+      <c r="D44" s="3"/>
+      <c r="E44" s="3"/>
+      <c r="F44" s="3"/>
+      <c r="G44" s="3"/>
+      <c r="H44" s="3"/>
+      <c r="I44" s="3"/>
+      <c r="J44" s="3"/>
+      <c r="K44" s="3"/>
+      <c r="L44" s="3"/>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A45" s="4"/>
+      <c r="B45" s="2"/>
+      <c r="C45" s="3"/>
+      <c r="D45" s="3"/>
+      <c r="E45" s="3"/>
+      <c r="F45" s="3"/>
+      <c r="G45" s="3"/>
+      <c r="H45" s="3"/>
+      <c r="I45" s="3"/>
+      <c r="J45" s="3"/>
+      <c r="K45" s="3"/>
+      <c r="L45" s="3"/>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A46" s="4"/>
+      <c r="B46" s="2"/>
+      <c r="C46" s="3"/>
+      <c r="D46" s="3"/>
+      <c r="E46" s="3"/>
+      <c r="F46" s="3"/>
+      <c r="G46" s="3"/>
+      <c r="H46" s="3"/>
+      <c r="I46" s="3"/>
+      <c r="J46" s="3"/>
+      <c r="K46" s="3"/>
+      <c r="L46" s="3"/>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A47" s="4"/>
+      <c r="B47" s="2"/>
+      <c r="C47" s="3"/>
+      <c r="D47" s="3"/>
+      <c r="E47" s="3"/>
+      <c r="F47" s="3"/>
+      <c r="G47" s="3"/>
+      <c r="H47" s="3"/>
+      <c r="I47" s="3"/>
+      <c r="J47" s="3"/>
+      <c r="K47" s="3"/>
+      <c r="L47" s="3"/>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A48" s="4"/>
+      <c r="B48" s="2"/>
+      <c r="C48" s="3"/>
+      <c r="D48" s="3"/>
+      <c r="E48" s="3"/>
+      <c r="F48" s="3"/>
+      <c r="G48" s="3"/>
+      <c r="H48" s="3"/>
+      <c r="I48" s="3"/>
+      <c r="J48" s="3"/>
+      <c r="K48" s="3"/>
+      <c r="L48" s="3"/>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A49" s="4"/>
+      <c r="B49" s="2"/>
+      <c r="C49" s="3"/>
+      <c r="D49" s="3"/>
+      <c r="E49" s="3"/>
+      <c r="F49" s="3"/>
+      <c r="G49" s="3"/>
+      <c r="H49" s="3"/>
+      <c r="I49" s="3"/>
+      <c r="J49" s="3"/>
+      <c r="K49" s="3"/>
+      <c r="L49" s="3"/>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A50" s="4"/>
+      <c r="B50" s="2"/>
+      <c r="C50" s="3"/>
+      <c r="D50" s="3"/>
+      <c r="E50" s="3"/>
+      <c r="F50" s="3"/>
+      <c r="G50" s="3"/>
+      <c r="H50" s="3"/>
+      <c r="I50" s="3"/>
+      <c r="J50" s="3"/>
+      <c r="K50" s="3"/>
+      <c r="L50" s="3"/>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A51" s="4"/>
+      <c r="B51" s="2"/>
+      <c r="C51" s="3"/>
+      <c r="D51" s="3"/>
+      <c r="E51" s="3"/>
+      <c r="F51" s="3"/>
+      <c r="G51" s="3"/>
+      <c r="H51" s="3"/>
+      <c r="I51" s="3"/>
+      <c r="J51" s="3"/>
+      <c r="K51" s="3"/>
+      <c r="L51" s="3"/>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A52" s="4"/>
+      <c r="B52" s="2"/>
+      <c r="C52" s="3"/>
+      <c r="D52" s="3"/>
+      <c r="E52" s="3"/>
+      <c r="F52" s="3"/>
+      <c r="G52" s="3"/>
+      <c r="H52" s="3"/>
+      <c r="I52" s="3"/>
+      <c r="J52" s="3"/>
+      <c r="K52" s="3"/>
+      <c r="L52" s="3"/>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A53" s="4"/>
+      <c r="B53" s="2"/>
+      <c r="C53" s="3"/>
+      <c r="D53" s="3"/>
+      <c r="E53" s="3"/>
+      <c r="F53" s="3"/>
+      <c r="G53" s="3"/>
+      <c r="H53" s="3"/>
+      <c r="I53" s="3"/>
+      <c r="J53" s="3"/>
+      <c r="K53" s="3"/>
+      <c r="L53" s="3"/>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A54" s="4"/>
+      <c r="B54" s="2"/>
+      <c r="C54" s="3"/>
+      <c r="D54" s="3"/>
+      <c r="E54" s="3"/>
+      <c r="F54" s="3"/>
+      <c r="G54" s="3"/>
+      <c r="H54" s="3"/>
+      <c r="I54" s="3"/>
+      <c r="J54" s="3"/>
+      <c r="K54" s="3"/>
+      <c r="L54" s="3"/>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A55" s="4"/>
+      <c r="B55" s="2"/>
+      <c r="C55" s="3"/>
+      <c r="D55" s="3"/>
+      <c r="E55" s="3"/>
+      <c r="F55" s="3"/>
+      <c r="G55" s="3"/>
+      <c r="H55" s="3"/>
+      <c r="I55" s="3"/>
+      <c r="J55" s="3"/>
+      <c r="K55" s="3"/>
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A56" s="4"/>
+      <c r="B56" s="2"/>
+      <c r="C56" s="3"/>
+      <c r="D56" s="3"/>
+      <c r="E56" s="3"/>
+      <c r="F56" s="3"/>
+      <c r="G56" s="3"/>
+      <c r="H56" s="3"/>
+      <c r="I56" s="3"/>
+      <c r="J56" s="3"/>
+      <c r="K56" s="3"/>
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A57" s="4"/>
+      <c r="B57" s="2"/>
+      <c r="C57" s="3"/>
+      <c r="D57" s="3"/>
+      <c r="E57" s="3"/>
+      <c r="F57" s="3"/>
+      <c r="G57" s="3"/>
+      <c r="H57" s="3"/>
+      <c r="I57" s="3"/>
+      <c r="J57" s="3"/>
+      <c r="K57" s="3"/>
+      <c r="L57" s="3"/>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A58" s="4"/>
+      <c r="B58" s="2"/>
+      <c r="C58" s="3"/>
+      <c r="D58" s="3"/>
+      <c r="E58" s="3"/>
+      <c r="F58" s="3"/>
+      <c r="G58" s="3"/>
+      <c r="H58" s="3"/>
+      <c r="I58" s="3"/>
+      <c r="J58" s="3"/>
+      <c r="K58" s="3"/>
+      <c r="L58" s="3"/>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A59" s="4"/>
+      <c r="B59" s="2"/>
+      <c r="C59" s="3"/>
+      <c r="D59" s="3"/>
+      <c r="E59" s="3"/>
+      <c r="F59" s="3"/>
+      <c r="G59" s="3"/>
+      <c r="H59" s="3"/>
+      <c r="I59" s="3"/>
+      <c r="J59" s="3"/>
+      <c r="K59" s="3"/>
+      <c r="L59" s="3"/>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A60" s="4"/>
+      <c r="B60" s="2"/>
+      <c r="C60" s="3"/>
+      <c r="D60" s="3"/>
+      <c r="E60" s="3"/>
+      <c r="F60" s="3"/>
+      <c r="G60" s="3"/>
+      <c r="H60" s="3"/>
+      <c r="I60" s="3"/>
+      <c r="J60" s="3"/>
+      <c r="K60" s="3"/>
+      <c r="L60" s="3"/>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A61" s="4"/>
+      <c r="B61" s="2"/>
+      <c r="C61" s="3"/>
+      <c r="D61" s="3"/>
+      <c r="E61" s="3"/>
+      <c r="F61" s="3"/>
+      <c r="G61" s="3"/>
+      <c r="H61" s="3"/>
+      <c r="I61" s="3"/>
+      <c r="J61" s="3"/>
+      <c r="K61" s="3"/>
+      <c r="L61" s="3"/>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A62" s="4"/>
+      <c r="B62" s="2"/>
+      <c r="C62" s="3"/>
+      <c r="D62" s="3"/>
+      <c r="E62" s="3"/>
+      <c r="F62" s="3"/>
+      <c r="G62" s="3"/>
+      <c r="H62" s="3"/>
+      <c r="I62" s="3"/>
+      <c r="J62" s="3"/>
+      <c r="K62" s="3"/>
+      <c r="L62" s="3"/>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A63" s="4"/>
+      <c r="B63" s="2"/>
+      <c r="C63" s="3"/>
+      <c r="D63" s="3"/>
+      <c r="E63" s="3"/>
+      <c r="F63" s="3"/>
+      <c r="G63" s="3"/>
+      <c r="H63" s="3"/>
+      <c r="I63" s="3"/>
+      <c r="J63" s="3"/>
+      <c r="K63" s="3"/>
+      <c r="L63" s="3"/>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A64" s="4"/>
+      <c r="B64" s="2"/>
+      <c r="C64" s="3"/>
+      <c r="D64" s="3"/>
+      <c r="E64" s="3"/>
+      <c r="F64" s="3"/>
+      <c r="G64" s="3"/>
+      <c r="H64" s="3"/>
+      <c r="I64" s="3"/>
+      <c r="J64" s="3"/>
+      <c r="K64" s="3"/>
+      <c r="L64" s="3"/>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A65" s="4"/>
+      <c r="B65" s="2"/>
+      <c r="C65" s="3"/>
+      <c r="D65" s="3"/>
+      <c r="E65" s="3"/>
+      <c r="F65" s="3"/>
+      <c r="G65" s="3"/>
+      <c r="H65" s="3"/>
+      <c r="I65" s="3"/>
+      <c r="J65" s="3"/>
+      <c r="K65" s="3"/>
+      <c r="L65" s="3"/>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A66" s="4"/>
+      <c r="B66" s="2"/>
+      <c r="C66" s="3"/>
+      <c r="D66" s="3"/>
+      <c r="E66" s="3"/>
+      <c r="F66" s="3"/>
+      <c r="G66" s="3"/>
+      <c r="H66" s="3"/>
+      <c r="I66" s="3"/>
+      <c r="J66" s="3"/>
+      <c r="K66" s="3"/>
+      <c r="L66" s="3"/>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A67" s="4"/>
+      <c r="B67" s="2"/>
+      <c r="C67" s="3"/>
+      <c r="D67" s="3"/>
+      <c r="E67" s="3"/>
+      <c r="F67" s="3"/>
+      <c r="G67" s="3"/>
+      <c r="H67" s="3"/>
+      <c r="I67" s="3"/>
+      <c r="J67" s="3"/>
+      <c r="K67" s="3"/>
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A68" s="4"/>
+      <c r="B68" s="2"/>
+      <c r="C68" s="3"/>
+      <c r="D68" s="3"/>
+      <c r="E68" s="3"/>
+      <c r="F68" s="3"/>
+      <c r="G68" s="3"/>
+      <c r="H68" s="3"/>
+      <c r="I68" s="3"/>
+      <c r="J68" s="3"/>
+      <c r="K68" s="3"/>
+      <c r="L68" s="3"/>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A69" s="4"/>
+      <c r="B69" s="2"/>
+      <c r="C69" s="3"/>
+      <c r="D69" s="3"/>
+      <c r="E69" s="3"/>
+      <c r="F69" s="3"/>
+      <c r="G69" s="3"/>
+      <c r="H69" s="3"/>
+      <c r="I69" s="3"/>
+      <c r="J69" s="3"/>
+      <c r="K69" s="3"/>
+      <c r="L69" s="3"/>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A70" s="4"/>
+      <c r="B70" s="2"/>
+      <c r="C70" s="3"/>
+      <c r="D70" s="3"/>
+      <c r="E70" s="3"/>
+      <c r="F70" s="3"/>
+      <c r="G70" s="3"/>
+      <c r="H70" s="3"/>
+      <c r="I70" s="3"/>
+      <c r="J70" s="3"/>
+      <c r="K70" s="3"/>
+      <c r="L70" s="3"/>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A71" s="4"/>
+      <c r="B71" s="2"/>
+      <c r="C71" s="3"/>
+      <c r="D71" s="3"/>
+      <c r="E71" s="3"/>
+      <c r="F71" s="3"/>
+      <c r="G71" s="3"/>
+      <c r="H71" s="3"/>
+      <c r="I71" s="3"/>
+      <c r="J71" s="3"/>
+      <c r="K71" s="3"/>
+      <c r="L71" s="3"/>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A72" s="4"/>
+      <c r="B72" s="2"/>
+      <c r="C72" s="3"/>
+      <c r="D72" s="3"/>
+      <c r="E72" s="3"/>
+      <c r="F72" s="3"/>
+      <c r="G72" s="3"/>
+      <c r="H72" s="3"/>
+      <c r="I72" s="3"/>
+      <c r="J72" s="3"/>
+      <c r="K72" s="3"/>
+      <c r="L72" s="3"/>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A73" s="4"/>
+      <c r="B73" s="2"/>
+      <c r="C73" s="3"/>
+      <c r="D73" s="3"/>
+      <c r="E73" s="3"/>
+      <c r="F73" s="3"/>
+      <c r="G73" s="3"/>
+      <c r="H73" s="3"/>
+      <c r="I73" s="3"/>
+      <c r="J73" s="3"/>
+      <c r="K73" s="3"/>
+      <c r="L73" s="3"/>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A74" s="4"/>
+      <c r="B74" s="2"/>
+      <c r="C74" s="3"/>
+      <c r="D74" s="3"/>
+      <c r="E74" s="3"/>
+      <c r="F74" s="3"/>
+      <c r="G74" s="3"/>
+      <c r="H74" s="3"/>
+      <c r="I74" s="3"/>
+      <c r="J74" s="3"/>
+      <c r="K74" s="3"/>
+      <c r="L74" s="3"/>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A75" s="4"/>
+      <c r="B75" s="2"/>
+      <c r="C75" s="3"/>
+      <c r="D75" s="3"/>
+      <c r="E75" s="3"/>
+      <c r="F75" s="3"/>
+      <c r="G75" s="3"/>
+      <c r="H75" s="3"/>
+      <c r="I75" s="3"/>
+      <c r="J75" s="3"/>
+      <c r="K75" s="3"/>
+      <c r="L75" s="3"/>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A76" s="4"/>
+      <c r="B76" s="2"/>
+      <c r="C76" s="3"/>
+      <c r="D76" s="3"/>
+      <c r="E76" s="3"/>
+      <c r="F76" s="3"/>
+      <c r="G76" s="3"/>
+      <c r="H76" s="3"/>
+      <c r="I76" s="3"/>
+      <c r="J76" s="3"/>
+      <c r="K76" s="3"/>
+      <c r="L76" s="3"/>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A77" s="4"/>
+      <c r="B77" s="2"/>
+      <c r="C77" s="3"/>
+      <c r="D77" s="3"/>
+      <c r="E77" s="3"/>
+      <c r="F77" s="3"/>
+      <c r="G77" s="3"/>
+      <c r="H77" s="3"/>
+      <c r="I77" s="3"/>
+      <c r="J77" s="3"/>
+      <c r="K77" s="3"/>
+      <c r="L77" s="3"/>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A78" s="4"/>
+      <c r="B78" s="2"/>
+      <c r="C78" s="3"/>
+      <c r="D78" s="3"/>
+      <c r="E78" s="3"/>
+      <c r="F78" s="3"/>
+      <c r="G78" s="3"/>
+      <c r="H78" s="3"/>
+      <c r="I78" s="3"/>
+      <c r="J78" s="3"/>
+      <c r="K78" s="3"/>
+      <c r="L78" s="3"/>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A79" s="4"/>
+      <c r="B79" s="2"/>
+      <c r="C79" s="3"/>
+      <c r="D79" s="3"/>
+      <c r="E79" s="3"/>
+      <c r="F79" s="3"/>
+      <c r="G79" s="3"/>
+      <c r="H79" s="3"/>
+      <c r="I79" s="3"/>
+      <c r="J79" s="3"/>
+      <c r="K79" s="3"/>
+      <c r="L79" s="3"/>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A80" s="4"/>
+      <c r="B80" s="2"/>
+      <c r="C80" s="3"/>
+      <c r="D80" s="3"/>
+      <c r="E80" s="3"/>
+      <c r="F80" s="3"/>
+      <c r="G80" s="3"/>
+      <c r="H80" s="3"/>
+      <c r="I80" s="3"/>
+      <c r="J80" s="3"/>
+      <c r="K80" s="3"/>
+      <c r="L80" s="3"/>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A81" s="4"/>
+      <c r="B81" s="2"/>
+      <c r="C81" s="3"/>
+      <c r="D81" s="3"/>
+      <c r="E81" s="3"/>
+      <c r="F81" s="3"/>
+      <c r="G81" s="3"/>
+      <c r="H81" s="3"/>
+      <c r="I81" s="3"/>
+      <c r="J81" s="3"/>
+      <c r="K81" s="3"/>
+      <c r="L81" s="3"/>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A82" s="4"/>
+      <c r="B82" s="2"/>
+      <c r="C82" s="3"/>
+      <c r="D82" s="3"/>
+      <c r="E82" s="3"/>
+      <c r="F82" s="3"/>
+      <c r="G82" s="3"/>
+      <c r="H82" s="3"/>
+      <c r="I82" s="3"/>
+      <c r="J82" s="3"/>
+      <c r="K82" s="3"/>
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A83" s="4"/>
+      <c r="B83" s="2"/>
+      <c r="C83" s="3"/>
+      <c r="D83" s="3"/>
+      <c r="E83" s="3"/>
+      <c r="F83" s="3"/>
+      <c r="G83" s="3"/>
+      <c r="H83" s="3"/>
+      <c r="I83" s="3"/>
+      <c r="J83" s="3"/>
+      <c r="K83" s="3"/>
+      <c r="L83" s="3"/>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A84" s="4"/>
+      <c r="B84" s="2"/>
+      <c r="C84" s="3"/>
+      <c r="D84" s="3"/>
+      <c r="E84" s="3"/>
+      <c r="F84" s="3"/>
+      <c r="G84" s="3"/>
+      <c r="H84" s="3"/>
+      <c r="I84" s="3"/>
+      <c r="J84" s="3"/>
+      <c r="K84" s="3"/>
+      <c r="L84" s="3"/>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A85" s="4"/>
+      <c r="B85" s="2"/>
+      <c r="C85" s="3"/>
+      <c r="D85" s="3"/>
+      <c r="E85" s="3"/>
+      <c r="F85" s="3"/>
+      <c r="G85" s="3"/>
+      <c r="H85" s="3"/>
+      <c r="I85" s="3"/>
+      <c r="J85" s="3"/>
+      <c r="K85" s="3"/>
+      <c r="L85" s="3"/>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A86" s="4"/>
+      <c r="B86" s="2"/>
+      <c r="C86" s="3"/>
+      <c r="D86" s="3"/>
+      <c r="E86" s="3"/>
+      <c r="F86" s="3"/>
+      <c r="G86" s="3"/>
+      <c r="H86" s="3"/>
+      <c r="I86" s="3"/>
+      <c r="J86" s="3"/>
+      <c r="K86" s="3"/>
+      <c r="L86" s="3"/>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A87" s="4"/>
+      <c r="B87" s="2"/>
+      <c r="C87" s="3"/>
+      <c r="D87" s="3"/>
+      <c r="E87" s="3"/>
+      <c r="F87" s="3"/>
+      <c r="G87" s="3"/>
+      <c r="H87" s="3"/>
+      <c r="I87" s="3"/>
+      <c r="J87" s="3"/>
+      <c r="K87" s="3"/>
+      <c r="L87" s="3"/>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A88" s="4"/>
+      <c r="B88" s="2"/>
+      <c r="C88" s="3"/>
+      <c r="D88" s="3"/>
+      <c r="E88" s="3"/>
+      <c r="F88" s="3"/>
+      <c r="G88" s="3"/>
+      <c r="H88" s="3"/>
+      <c r="I88" s="3"/>
+      <c r="J88" s="3"/>
+      <c r="K88" s="3"/>
+      <c r="L88" s="3"/>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A89" s="4"/>
+      <c r="B89" s="2"/>
+      <c r="C89" s="3"/>
+      <c r="D89" s="3"/>
+      <c r="E89" s="3"/>
+      <c r="F89" s="3"/>
+      <c r="G89" s="3"/>
+      <c r="H89" s="3"/>
+      <c r="I89" s="3"/>
+      <c r="J89" s="3"/>
+      <c r="K89" s="3"/>
+      <c r="L89" s="3"/>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A90" s="4"/>
+      <c r="B90" s="2"/>
+      <c r="C90" s="3"/>
+      <c r="D90" s="3"/>
+      <c r="E90" s="3"/>
+      <c r="F90" s="3"/>
+      <c r="G90" s="3"/>
+      <c r="H90" s="3"/>
+      <c r="I90" s="3"/>
+      <c r="J90" s="3"/>
+      <c r="K90" s="3"/>
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A91" s="4"/>
+      <c r="B91" s="2"/>
+      <c r="C91" s="3"/>
+      <c r="D91" s="3"/>
+      <c r="E91" s="3"/>
+      <c r="F91" s="3"/>
+      <c r="G91" s="3"/>
+      <c r="H91" s="3"/>
+      <c r="I91" s="3"/>
+      <c r="J91" s="3"/>
+      <c r="K91" s="3"/>
+      <c r="L91" s="3"/>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A92" s="4"/>
+      <c r="B92" s="2"/>
+      <c r="C92" s="3"/>
+      <c r="D92" s="3"/>
+      <c r="E92" s="3"/>
+      <c r="F92" s="3"/>
+      <c r="G92" s="3"/>
+      <c r="H92" s="3"/>
+      <c r="I92" s="3"/>
+      <c r="J92" s="3"/>
+      <c r="K92" s="3"/>
+      <c r="L92" s="3"/>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A93" s="4"/>
+      <c r="B93" s="2"/>
+      <c r="C93" s="3"/>
+      <c r="D93" s="3"/>
+      <c r="E93" s="3"/>
+      <c r="F93" s="3"/>
+      <c r="G93" s="3"/>
+      <c r="H93" s="3"/>
+      <c r="I93" s="3"/>
+      <c r="J93" s="3"/>
+      <c r="K93" s="3"/>
+      <c r="L93" s="3"/>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A94" s="4"/>
+      <c r="B94" s="2"/>
+      <c r="C94" s="3"/>
+      <c r="D94" s="3"/>
+      <c r="E94" s="3"/>
+      <c r="F94" s="3"/>
+      <c r="G94" s="3"/>
+      <c r="H94" s="3"/>
+      <c r="I94" s="3"/>
+      <c r="J94" s="3"/>
+      <c r="K94" s="3"/>
+      <c r="L94" s="3"/>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A95" s="4"/>
+      <c r="B95" s="2"/>
+      <c r="C95" s="3"/>
+      <c r="D95" s="3"/>
+      <c r="E95" s="3"/>
+      <c r="F95" s="3"/>
+      <c r="G95" s="3"/>
+      <c r="H95" s="3"/>
+      <c r="I95" s="3"/>
+      <c r="J95" s="3"/>
+      <c r="K95" s="3"/>
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A96" s="4"/>
+      <c r="B96" s="2"/>
+      <c r="C96" s="3"/>
+      <c r="D96" s="3"/>
+      <c r="E96" s="3"/>
+      <c r="F96" s="3"/>
+      <c r="G96" s="3"/>
+      <c r="H96" s="3"/>
+      <c r="I96" s="3"/>
+      <c r="J96" s="3"/>
+      <c r="K96" s="3"/>
+      <c r="L96" s="3"/>
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A97" s="4"/>
+      <c r="B97" s="2"/>
+      <c r="C97" s="3"/>
+      <c r="D97" s="3"/>
+      <c r="E97" s="3"/>
+      <c r="F97" s="3"/>
+      <c r="G97" s="3"/>
+      <c r="H97" s="3"/>
+      <c r="I97" s="3"/>
+      <c r="J97" s="3"/>
+      <c r="K97" s="3"/>
+      <c r="L97" s="3"/>
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A98" s="4"/>
+      <c r="B98" s="2"/>
+      <c r="C98" s="3"/>
+      <c r="D98" s="3"/>
+      <c r="E98" s="3"/>
+      <c r="F98" s="3"/>
+      <c r="G98" s="3"/>
+      <c r="H98" s="3"/>
+      <c r="I98" s="3"/>
+      <c r="J98" s="3"/>
+      <c r="K98" s="3"/>
+      <c r="L98" s="3"/>
+    </row>
+    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A99" s="4"/>
+      <c r="B99" s="2"/>
+      <c r="C99" s="3"/>
+      <c r="D99" s="3"/>
+      <c r="E99" s="3"/>
+      <c r="F99" s="3"/>
+      <c r="G99" s="3"/>
+      <c r="H99" s="3"/>
+      <c r="I99" s="3"/>
+      <c r="J99" s="3"/>
+      <c r="K99" s="3"/>
+      <c r="L99" s="3"/>
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A100" s="4"/>
+      <c r="B100" s="2"/>
+      <c r="C100" s="3"/>
+      <c r="D100" s="3"/>
+      <c r="E100" s="3"/>
+      <c r="F100" s="3"/>
+      <c r="G100" s="3"/>
+      <c r="H100" s="3"/>
+      <c r="I100" s="3"/>
+      <c r="J100" s="3"/>
+      <c r="K100" s="3"/>
+      <c r="L100" s="3"/>
+    </row>
+    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A101" s="4"/>
+      <c r="B101" s="2"/>
+      <c r="C101" s="3"/>
+      <c r="D101" s="3"/>
+      <c r="E101" s="3"/>
+      <c r="F101" s="3"/>
+      <c r="G101" s="3"/>
+      <c r="H101" s="3"/>
+      <c r="I101" s="3"/>
+      <c r="J101" s="3"/>
+      <c r="K101" s="3"/>
+      <c r="L101" s="3"/>
+    </row>
+    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A102" s="4"/>
+      <c r="B102" s="2"/>
+      <c r="C102" s="3"/>
+      <c r="D102" s="3"/>
+      <c r="E102" s="3"/>
+      <c r="F102" s="3"/>
+      <c r="G102" s="3"/>
+      <c r="H102" s="3"/>
+      <c r="I102" s="3"/>
+      <c r="J102" s="3"/>
+      <c r="K102" s="3"/>
+      <c r="L102" s="3"/>
+    </row>
+    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A103" s="4"/>
+      <c r="B103" s="2"/>
+      <c r="C103" s="3"/>
+      <c r="D103" s="3"/>
+      <c r="E103" s="3"/>
+      <c r="F103" s="3"/>
+      <c r="G103" s="3"/>
+      <c r="H103" s="3"/>
+      <c r="I103" s="3"/>
+      <c r="J103" s="3"/>
+      <c r="K103" s="3"/>
+      <c r="L103" s="3"/>
+    </row>
+    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A104" s="4"/>
+      <c r="B104" s="2"/>
+      <c r="C104" s="3"/>
+      <c r="D104" s="3"/>
+      <c r="E104" s="3"/>
+      <c r="F104" s="3"/>
+      <c r="G104" s="3"/>
+      <c r="H104" s="3"/>
+      <c r="I104" s="3"/>
+      <c r="J104" s="3"/>
+      <c r="K104" s="3"/>
+      <c r="L104" s="3"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="C1:L1"/>
@@ -2547,7 +3718,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N17:N20" xr:uid="{B4FD6766-A32F-44AA-8CFB-2BD8E71B2F82}">
       <formula1>$A$2:$A$15</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:L27" xr:uid="{27706EAA-48C0-4360-826C-27E4471783EC}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:L27 C28:G28 C29:E29 C30:D30 C31:L104" xr:uid="{27706EAA-48C0-4360-826C-27E4471783EC}">
       <formula1>$A$2:$A$50</formula1>
     </dataValidation>
   </dataValidations>
@@ -2585,22 +3756,24 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51DAE5B4-B963-47A4-B2A4-C45BD479A193}">
-  <dimension ref="A1:E57"/>
+  <dimension ref="A1:F57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.42578125" style="8" customWidth="1"/>
     <col min="2" max="2" width="41" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="22.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="11" width="23.7109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="8"/>
+    <col min="3" max="4" width="22.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.28515625" style="8" customWidth="1"/>
+    <col min="6" max="6" width="22.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="12" width="23.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>52</v>
       </c>
@@ -2613,39 +3786,47 @@
       <c r="D1" s="2" t="s">
         <v>418</v>
       </c>
-      <c r="E1" s="2"/>
-    </row>
-    <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E1" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="8" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="8" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="8" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="8" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="8" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="8" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E7" s="8" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="8" t="s">
         <v>247</v>
       </c>
@@ -2655,46 +3836,56 @@
       <c r="D8" s="8" t="s">
         <v>474</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E8" s="8" t="s">
+        <v>504</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="8" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="8" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="8" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="8" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E13" s="8" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="8" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="8" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="8" t="s">
         <v>255</v>
       </c>
+      <c r="E16" s="12"/>
     </row>
     <row r="17" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="8" t="s">
@@ -2827,6 +4018,7 @@
     <row r="57" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3005,21 +4197,23 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{417BFBCF-E3E0-4816-AF93-8ADED1A6AB9A}">
-  <dimension ref="A1:I62"/>
+  <dimension ref="A1:J62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.42578125" style="8" customWidth="1"/>
     <col min="2" max="2" width="39.140625" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="9" width="22.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="8"/>
+    <col min="3" max="7" width="22.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.28515625" style="8" customWidth="1"/>
+    <col min="9" max="10" width="22.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>52</v>
       </c>
@@ -3032,13 +4226,24 @@
       <c r="D1" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="2"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-    </row>
-    <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E1" s="2" t="s">
+        <v>493</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>497</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>501</v>
+      </c>
+      <c r="J1" s="7"/>
+    </row>
+    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="8" t="s">
         <v>289</v>
       </c>
@@ -3048,8 +4253,23 @@
       <c r="D2" s="8" t="s">
         <v>470</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E2" s="8" t="s">
+        <v>494</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>494</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>496</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>496</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="8" t="s">
         <v>290</v>
       </c>
@@ -3060,7 +4280,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="8" t="s">
         <v>291</v>
       </c>
@@ -3071,7 +4291,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="8" t="s">
         <v>292</v>
       </c>
@@ -3082,7 +4302,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="8" t="s">
         <v>293</v>
       </c>
@@ -3093,7 +4313,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="8" t="s">
         <v>294</v>
       </c>
@@ -3104,7 +4324,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="8" t="s">
         <v>295</v>
       </c>
@@ -3115,7 +4335,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="8" t="s">
         <v>296</v>
       </c>
@@ -3126,7 +4346,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="s">
         <v>297</v>
       </c>
@@ -3137,7 +4357,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="8" t="s">
         <v>298</v>
       </c>
@@ -3148,7 +4368,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="8" t="s">
         <v>299</v>
       </c>
@@ -3159,7 +4379,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="8" t="s">
         <v>300</v>
       </c>
@@ -3171,7 +4391,7 @@
       </c>
       <c r="E13" s="10"/>
     </row>
-    <row r="14" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="8" t="s">
         <v>301</v>
       </c>
@@ -3182,7 +4402,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="8" t="s">
         <v>302</v>
       </c>
@@ -3193,7 +4413,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="8" t="s">
         <v>303</v>
       </c>
@@ -3514,8 +4734,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D89BA3D3-1B94-4C77-B8E7-B6D246A7B5C9}">
   <dimension ref="A1:K59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="C46" sqref="C46"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4283,13 +5503,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8524A69F-58DC-4C12-B71C-F15E36FF1DB4}">
-  <dimension ref="A1:L33"/>
+  <dimension ref="A1:P33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="19" topLeftCell="D20" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="19" topLeftCell="J30" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A20" sqref="A20"/>
-      <selection pane="bottomRight" activeCell="L1" sqref="L1"/>
+      <selection pane="bottomRight" activeCell="P1" sqref="P1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4298,10 +5518,11 @@
     <col min="2" max="2" width="38" style="8" bestFit="1" customWidth="1"/>
     <col min="3" max="11" width="21.140625" style="8" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="23.7109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="7.7109375" style="8"/>
+    <col min="13" max="16" width="16.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="7.7109375" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>52</v>
       </c>
@@ -4338,13 +5559,25 @@
       <c r="L1" s="2" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M1" s="2" t="s">
+        <v>493</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>497</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B2" s="8" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B3" s="8" t="s">
         <v>55</v>
       </c>
@@ -4375,8 +5608,14 @@
       <c r="L3" s="8" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="M3" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="O3" s="8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="B4" s="8" t="s">
         <v>57</v>
       </c>
@@ -4407,75 +5646,105 @@
       <c r="L4" s="8" t="s">
         <v>473</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M4" s="8" t="s">
+        <v>493</v>
+      </c>
+      <c r="O4" s="8" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B5" s="8" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B6" s="8" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B7" s="8" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B8" s="8" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B9" s="8" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="s">
         <v>63</v>
       </c>
       <c r="K10" s="8" t="s">
         <v>417</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N10" s="8" t="s">
+        <v>417</v>
+      </c>
+      <c r="P10" s="8" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B11" s="8" t="s">
         <v>64</v>
       </c>
       <c r="K11" s="8" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="N11" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="P11" s="8" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="B12" s="8" t="s">
         <v>65</v>
       </c>
       <c r="K12" s="8" t="s">
         <v>466</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N12" s="8" t="s">
+        <v>493</v>
+      </c>
+      <c r="P12" s="8" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B13" s="8" t="s">
         <v>66</v>
       </c>
       <c r="K13" s="8" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N13" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="P13" s="8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B14" s="8" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B15" s="8" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B16" s="8" t="s">
         <v>69</v>
       </c>
@@ -4560,12 +5829,18 @@
         <v>85</v>
       </c>
     </row>
-    <row r="33" spans="2:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:16" ht="30" x14ac:dyDescent="0.25">
       <c r="B33" s="8" t="s">
         <v>86</v>
       </c>
       <c r="K33" s="8" t="s">
         <v>466</v>
+      </c>
+      <c r="N33" s="8" t="s">
+        <v>493</v>
+      </c>
+      <c r="P33" s="8" t="s">
+        <v>493</v>
       </c>
     </row>
   </sheetData>
@@ -4576,14 +5851,14 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBCAE703-B904-44CB-A990-CED3724569EE}">
-  <dimension ref="A1:J56"/>
+  <dimension ref="A1:K56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="18" topLeftCell="C31" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="18" topLeftCell="G19" activePane="bottomRight" state="frozen"/>
       <selection activeCell="G19" sqref="G19"/>
       <selection pane="topRight" activeCell="G19" sqref="G19"/>
       <selection pane="bottomLeft" activeCell="G19" sqref="G19"/>
-      <selection pane="bottomRight" activeCell="J48" sqref="J48"/>
+      <selection pane="bottomRight" activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4592,10 +5867,12 @@
     <col min="2" max="2" width="46" style="8" bestFit="1" customWidth="1"/>
     <col min="3" max="5" width="21.5703125" style="8" customWidth="1"/>
     <col min="6" max="9" width="21.42578125" style="8" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="8"/>
+    <col min="10" max="10" width="9.140625" style="8"/>
+    <col min="11" max="11" width="16.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>52</v>
       </c>
@@ -4626,8 +5903,11 @@
       <c r="J1" s="2" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K1" s="2" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="8" t="s">
         <v>87</v>
       </c>
@@ -4655,8 +5935,11 @@
       <c r="J2" s="8" t="s">
         <v>473</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K2" s="8" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="8" t="s">
         <v>88</v>
       </c>
@@ -4668,7 +5951,7 @@
       <c r="H3" s="10"/>
       <c r="I3" s="10"/>
     </row>
-    <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="8" t="s">
         <v>89</v>
       </c>
@@ -4693,8 +5976,11 @@
       <c r="J4" s="8" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K4" s="8" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="8" t="s">
         <v>91</v>
       </c>
@@ -4722,8 +6008,11 @@
       <c r="J5" s="8" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K5" s="8" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="8" t="s">
         <v>92</v>
       </c>
@@ -4751,48 +6040,51 @@
       <c r="J6" s="8" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K6" s="8" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="8" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="8" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="8" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="8" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="8" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="8" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="8" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="8" t="s">
         <v>102</v>
       </c>
@@ -4809,7 +6101,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="8" t="s">
         <v>103</v>
       </c>
@@ -5507,7 +6799,7 @@
   <dimension ref="A1:I57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:F1048576"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/target/test-classes/TestData/NewData.xlsx
+++ b/target/test-classes/TestData/NewData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jteja\GFLAutomation\GFL.Wishes\src\test\resources\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{005D8AEF-1C8E-4A05-A3B1-21F36770EA88}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E789EF84-F08C-490B-872E-31B89190F3CF}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="23280" windowHeight="12600" xr2:uid="{24025A28-F3F9-43F5-89B1-20F9E5BBA4E0}"/>
+    <workbookView xWindow="-57720" yWindow="15" windowWidth="29040" windowHeight="15840" firstSheet="3" activeTab="4" xr2:uid="{24025A28-F3F9-43F5-89B1-20F9E5BBA4E0}"/>
   </bookViews>
   <sheets>
     <sheet name="RunModes" sheetId="1" r:id="rId1"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="740" uniqueCount="506">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1289" uniqueCount="575">
   <si>
     <t>TestCaseID</t>
   </si>
@@ -165,9 +165,6 @@
     <t>PM_NP_CP_TS01_TC12</t>
   </si>
   <si>
-    <t>PM_NP_CP_TS01_TC13</t>
-  </si>
-  <si>
     <t>ProspectView</t>
   </si>
   <si>
@@ -1311,9 +1308,6 @@
     <t>CAPR_APCON_TS01_TC01</t>
   </si>
   <si>
-    <t>258</t>
-  </si>
-  <si>
     <t>cnm_edit_region_dropdown</t>
   </si>
   <si>
@@ -1347,87 +1341,18 @@
     <t>slc_monthly_rate_save_button</t>
   </si>
   <si>
-    <t>UAT_PM_NP_CP_TS01_TC01</t>
-  </si>
-  <si>
-    <t>UAT_PM_NP_CP_TS01_TC02</t>
-  </si>
-  <si>
-    <t>UAT_PM_NP_CP_TS01_TC03</t>
-  </si>
-  <si>
-    <t>UAT_PM_NP_CP_TS01_TC04</t>
-  </si>
-  <si>
     <t>1234567899</t>
   </si>
   <si>
-    <t>147</t>
-  </si>
-  <si>
     <t>2589631470</t>
   </si>
   <si>
-    <t>UAT_PM_NP_CP_TS01_TC05</t>
-  </si>
-  <si>
-    <t>TC5Contact</t>
-  </si>
-  <si>
-    <t>TC5Position</t>
-  </si>
-  <si>
-    <t>TC5@email.com</t>
-  </si>
-  <si>
     <t>1478529632</t>
   </si>
   <si>
-    <t>159</t>
-  </si>
-  <si>
     <t>3579518520</t>
   </si>
   <si>
-    <t>259</t>
-  </si>
-  <si>
-    <t>UAT_PM_NP_CP_TS01_TC06</t>
-  </si>
-  <si>
-    <t>UAT_PM_NP_CP_TS01_TC07</t>
-  </si>
-  <si>
-    <t>TC7Contact</t>
-  </si>
-  <si>
-    <t>TC7Position</t>
-  </si>
-  <si>
-    <t>TC7@email.com</t>
-  </si>
-  <si>
-    <t>TC6Contact</t>
-  </si>
-  <si>
-    <t>TC6Position</t>
-  </si>
-  <si>
-    <t>TC6@EMAIL.COM</t>
-  </si>
-  <si>
-    <t>TC4Contact</t>
-  </si>
-  <si>
-    <t>TC4Position</t>
-  </si>
-  <si>
-    <t>TC4@email.com</t>
-  </si>
-  <si>
-    <t>TC7Site</t>
-  </si>
-  <si>
     <t>SiteAddress1</t>
   </si>
   <si>
@@ -1440,42 +1365,15 @@
     <t>L3Z0J7</t>
   </si>
   <si>
-    <t>TC7Positon</t>
-  </si>
-  <si>
     <t>1593578420</t>
   </si>
   <si>
     <t>1478523690</t>
   </si>
   <si>
-    <t>257</t>
-  </si>
-  <si>
-    <t>UAT_PM_NP_CP_TS01_TC08</t>
-  </si>
-  <si>
-    <t>TC8Contact</t>
-  </si>
-  <si>
-    <t>TC8Position</t>
-  </si>
-  <si>
-    <t>TC8@email.com</t>
-  </si>
-  <si>
-    <t>TC8Site</t>
-  </si>
-  <si>
-    <t>TC8Positon</t>
-  </si>
-  <si>
     <t>15987453</t>
   </si>
   <si>
-    <t>APCON1</t>
-  </si>
-  <si>
     <t>123456789</t>
   </si>
   <si>
@@ -1485,21 +1383,6 @@
     <t>Front End</t>
   </si>
   <si>
-    <t>Site</t>
-  </si>
-  <si>
-    <t>l1</t>
-  </si>
-  <si>
-    <t>l2</t>
-  </si>
-  <si>
-    <t>city</t>
-  </si>
-  <si>
-    <t>L3Z0J9</t>
-  </si>
-  <si>
     <t>20</t>
   </si>
   <si>
@@ -1533,50 +1416,374 @@
     <t>500</t>
   </si>
   <si>
-    <t>SM_NS_FVF_TC01</t>
-  </si>
-  <si>
-    <t>SiteValidation</t>
-  </si>
-  <si>
-    <t>SM_NS_FVF_TC02</t>
-  </si>
-  <si>
-    <t>Site Validation</t>
-  </si>
-  <si>
-    <t>SM_NS_FVF_TC03</t>
-  </si>
-  <si>
-    <t>SM_NS_FVF_TC06</t>
-  </si>
-  <si>
-    <t>SM_NS_FVF_TC05</t>
-  </si>
-  <si>
-    <t>SM_NS_FVF_TC04</t>
-  </si>
-  <si>
-    <t>SM_NS_FVF_TC07</t>
-  </si>
-  <si>
-    <t>123456</t>
-  </si>
-  <si>
-    <t>zzzzz</t>
-  </si>
-  <si>
-    <t>1234</t>
-  </si>
-  <si>
-    <t>SM_NS_FVF_TC08</t>
+    <t>rency Naveen</t>
+  </si>
+  <si>
+    <t>NewProspect_08</t>
+  </si>
+  <si>
+    <t>NewProspect_09</t>
+  </si>
+  <si>
+    <t>NewProspect_10</t>
+  </si>
+  <si>
+    <t>NewProspect_11</t>
+  </si>
+  <si>
+    <t>TC07Contact</t>
+  </si>
+  <si>
+    <t>45628</t>
+  </si>
+  <si>
+    <t>25856</t>
+  </si>
+  <si>
+    <t>AddressLine 1</t>
+  </si>
+  <si>
+    <t>Toronto</t>
+  </si>
+  <si>
+    <t>M4S 2H2</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>TC07Position</t>
+  </si>
+  <si>
+    <t>TC10@email.com</t>
+  </si>
+  <si>
+    <t>TC11@email.com</t>
+  </si>
+  <si>
+    <t>TC08@email.com</t>
+  </si>
+  <si>
+    <t>TC07@email.com</t>
+  </si>
+  <si>
+    <t>Yonge &amp; Soudan 08</t>
+  </si>
+  <si>
+    <t>Yonge &amp; Soudan 10</t>
+  </si>
+  <si>
+    <t>Yonge &amp; Soudan 11</t>
+  </si>
+  <si>
+    <t>TC08Contact</t>
+  </si>
+  <si>
+    <t>TC08Position</t>
+  </si>
+  <si>
+    <t>TC10Contact</t>
+  </si>
+  <si>
+    <t>TC10Position</t>
+  </si>
+  <si>
+    <t>TC11Contact</t>
+  </si>
+  <si>
+    <t>TC11Position</t>
+  </si>
+  <si>
+    <t>Yonge &amp; Soudan 04</t>
+  </si>
+  <si>
+    <t>TC04Position</t>
+  </si>
+  <si>
+    <t>TC04@email.com</t>
+  </si>
+  <si>
+    <t>TC04Contact</t>
+  </si>
+  <si>
+    <t>15945</t>
+  </si>
+  <si>
+    <t>25945</t>
+  </si>
+  <si>
+    <t>TC05Contact</t>
+  </si>
+  <si>
+    <t>TC05Position</t>
+  </si>
+  <si>
+    <t>15943</t>
+  </si>
+  <si>
+    <t>25943</t>
+  </si>
+  <si>
+    <t>75</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>TC07Site</t>
+  </si>
+  <si>
+    <t>TC08Site</t>
+  </si>
+  <si>
+    <t>TC07Positon</t>
+  </si>
+  <si>
+    <t>TC08Positon</t>
+  </si>
+  <si>
+    <t>TC09Contact</t>
+  </si>
+  <si>
+    <t>TC09Positon</t>
+  </si>
+  <si>
+    <t>TC09@email.com</t>
+  </si>
+  <si>
+    <t>25845</t>
+  </si>
+  <si>
+    <t>25745</t>
+  </si>
+  <si>
+    <t>32434</t>
+  </si>
+  <si>
+    <t>25843</t>
+  </si>
+  <si>
+    <t>25734</t>
+  </si>
+  <si>
+    <t>985648</t>
+  </si>
+  <si>
+    <t>988885</t>
+  </si>
+  <si>
+    <t>988886</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>CAPR_APCON_TS01_TC02</t>
+  </si>
+  <si>
+    <t>CAPR_APCON_TS01_TC03</t>
+  </si>
+  <si>
+    <t>CAPR_APCON_TS01_TC04</t>
+  </si>
+  <si>
+    <t>CAPR_APCON_TS01_TC05</t>
+  </si>
+  <si>
+    <t>CAPR_APCON_TS01_TC06</t>
+  </si>
+  <si>
+    <t>PM_NP_PE_TS02_TC02</t>
+  </si>
+  <si>
+    <t>EditProspect_01</t>
+  </si>
+  <si>
+    <t>EditProspect_02</t>
+  </si>
+  <si>
+    <t>CSAM_CA_TS01_TC02</t>
+  </si>
+  <si>
+    <t>Approval_01</t>
+  </si>
+  <si>
+    <t>Approval_02</t>
+  </si>
+  <si>
+    <t>Approval_03</t>
+  </si>
+  <si>
+    <t>Approval_04</t>
+  </si>
+  <si>
+    <t>Approval_05</t>
+  </si>
+  <si>
+    <t>Approval_06</t>
+  </si>
+  <si>
+    <t>Customer_01</t>
+  </si>
+  <si>
+    <t>Customer_02</t>
+  </si>
+  <si>
+    <t>Customer_03</t>
+  </si>
+  <si>
+    <t>Customer_04</t>
+  </si>
+  <si>
+    <t>Customer_05</t>
+  </si>
+  <si>
+    <t>Agreement_01</t>
+  </si>
+  <si>
+    <t>Agreement_02</t>
+  </si>
+  <si>
+    <t>TC01Contact</t>
+  </si>
+  <si>
+    <t>TC01Position</t>
+  </si>
+  <si>
+    <t>TC01@email.com</t>
+  </si>
+  <si>
+    <t>TC06Contact</t>
+  </si>
+  <si>
+    <t>TC06Position</t>
+  </si>
+  <si>
+    <t>TC03Contact</t>
+  </si>
+  <si>
+    <t>TC03Position</t>
+  </si>
+  <si>
+    <t>TC02Contact</t>
+  </si>
+  <si>
+    <t>TC02Position</t>
+  </si>
+  <si>
+    <t>M4S 2H3</t>
+  </si>
+  <si>
+    <t>M4S 2H4</t>
+  </si>
+  <si>
+    <t>M4S 2H5</t>
+  </si>
+  <si>
+    <t>M4S 2H6</t>
+  </si>
+  <si>
+    <t>M4S 2H7</t>
+  </si>
+  <si>
+    <t>342535</t>
+  </si>
+  <si>
+    <t>435435</t>
+  </si>
+  <si>
+    <t>435545</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>Monthly</t>
+  </si>
+  <si>
+    <t>Bi-Weekly</t>
+  </si>
+  <si>
+    <t>FL-Compactor</t>
+  </si>
+  <si>
+    <t>2 yrd</t>
+  </si>
+  <si>
+    <t>4 yrd</t>
+  </si>
+  <si>
+    <t>Low Density</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>Multi Residential</t>
+  </si>
+  <si>
+    <t>4500</t>
+  </si>
+  <si>
+    <t>Customer  B.Address1</t>
+  </si>
+  <si>
+    <t>Customer  B.Address2</t>
+  </si>
+  <si>
+    <t>TC01Site</t>
+  </si>
+  <si>
+    <t>teszt.email@gmail.com</t>
+  </si>
+  <si>
+    <t>zzzzzz</t>
+  </si>
+  <si>
+    <t>TC06Contact Edit</t>
+  </si>
+  <si>
+    <t>TC06PositionEdit</t>
+  </si>
+  <si>
+    <t>Zzzzz</t>
+  </si>
+  <si>
+    <t>NewProspect_TC02</t>
+  </si>
+  <si>
+    <t>xyz</t>
+  </si>
+  <si>
+    <t>NewProspect_TC03</t>
+  </si>
+  <si>
+    <t>NewProspect_TC04</t>
+  </si>
+  <si>
+    <t>NewProspect_TC05</t>
+  </si>
+  <si>
+    <t>NewProspect_TC06</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> TC06email@Edit.com</t>
+  </si>
+  <si>
+    <t>NewProspect_TC07</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1596,6 +1803,12 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1671,7 +1884,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1704,9 +1917,22 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2022,39 +2248,42 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA788142-DF31-4F76-877B-06B41CFFA2BE}">
-  <dimension ref="A1:L104"/>
+  <dimension ref="A1:L27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.7109375" style="1"/>
     <col min="2" max="2" width="28.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="16.7109375" style="1"/>
+    <col min="3" max="7" width="16.7109375" style="1"/>
+    <col min="8" max="8" width="9.28515625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="25.42578125" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="16.7109375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1">
-        <f>COUNTA(A2:A52)</f>
+        <f>COUNTA(A2:A43)</f>
         <v>26</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="22"/>
     </row>
     <row r="2" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -2133,7 +2362,9 @@
       <c r="D5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="3"/>
+      <c r="E5" s="3" t="s">
+        <v>16</v>
+      </c>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
@@ -2155,9 +2386,7 @@
       <c r="D6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="3" t="s">
-        <v>16</v>
-      </c>
+      <c r="E6" s="3"/>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
@@ -2179,7 +2408,9 @@
       <c r="D7" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="3"/>
+      <c r="E7" s="3" t="s">
+        <v>16</v>
+      </c>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
@@ -2269,10 +2500,18 @@
       <c r="B11" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
+      <c r="C11" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>5</v>
+      </c>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
@@ -2287,8 +2526,12 @@
       <c r="B12" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
+      <c r="C12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>16</v>
+      </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
@@ -2305,10 +2548,18 @@
       <c r="B13" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
+      <c r="C13" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
@@ -2323,8 +2574,12 @@
       <c r="B14" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
+      <c r="C14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>16</v>
+      </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
@@ -2341,10 +2596,18 @@
       <c r="B15" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
+      <c r="C15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
@@ -2359,8 +2622,12 @@
       <c r="B16" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
+      <c r="C16" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>16</v>
+      </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
@@ -2393,11 +2660,11 @@
         <v>4</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
+      <c r="E18" s="5"/>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
@@ -2408,14 +2675,14 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
-      <c r="E19" s="5"/>
+      <c r="E19" s="3"/>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
@@ -2426,12 +2693,14 @@
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C20" s="3"/>
+      <c r="C20" s="3" t="s">
+        <v>27</v>
+      </c>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
@@ -2447,28 +2716,50 @@
         <v>19</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-      <c r="K21" s="3"/>
+        <v>43</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="L21" s="3"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
+        <v>45</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
@@ -2480,14 +2771,20 @@
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
+      <c r="C23" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>42</v>
+      </c>
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
@@ -2501,11 +2798,17 @@
         <v>22</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
+        <v>48</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>42</v>
+      </c>
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
@@ -2516,14 +2819,20 @@
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
+        <v>50</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
@@ -2534,10 +2843,10 @@
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>51</v>
+        <v>516</v>
       </c>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
@@ -2552,13 +2861,13 @@
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="D27" s="3" t="s">
         <v>4</v>
@@ -2578,1151 +2887,21 @@
       <c r="K27" s="3"/>
       <c r="L27" s="3"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" s="4"/>
-      <c r="B28" s="2" t="s">
-        <v>493</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
-      <c r="J28" s="3"/>
-      <c r="K28" s="3"/>
-      <c r="L28" s="3"/>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" s="4"/>
-      <c r="B29" s="2" t="s">
-        <v>495</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
-      <c r="J29" s="3"/>
-      <c r="K29" s="3"/>
-      <c r="L29" s="3"/>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" s="4"/>
-      <c r="B30" s="2" t="s">
-        <v>497</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
-      <c r="G30" s="3"/>
-      <c r="H30" s="3"/>
-      <c r="I30" s="3"/>
-      <c r="J30" s="3"/>
-      <c r="K30" s="3"/>
-      <c r="L30" s="3"/>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A31" s="4"/>
-      <c r="B31" s="2" t="s">
-        <v>500</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
-      <c r="G31" s="3"/>
-      <c r="H31" s="3"/>
-      <c r="I31" s="3"/>
-      <c r="J31" s="3"/>
-      <c r="K31" s="3"/>
-      <c r="L31" s="3"/>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A32" s="4"/>
-      <c r="B32" s="2" t="s">
-        <v>499</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
-      <c r="G32" s="3"/>
-      <c r="H32" s="3"/>
-      <c r="I32" s="3"/>
-      <c r="J32" s="3"/>
-      <c r="K32" s="3"/>
-      <c r="L32" s="3"/>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A33" s="4"/>
-      <c r="B33" s="2" t="s">
-        <v>498</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E33" s="3"/>
-      <c r="F33" s="3"/>
-      <c r="G33" s="3"/>
-      <c r="H33" s="3"/>
-      <c r="I33" s="3"/>
-      <c r="J33" s="3"/>
-      <c r="K33" s="3"/>
-      <c r="L33" s="3"/>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A34" s="4"/>
-      <c r="B34" s="2" t="s">
-        <v>501</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F34" s="3"/>
-      <c r="G34" s="3"/>
-      <c r="H34" s="3"/>
-      <c r="I34" s="3"/>
-      <c r="J34" s="3"/>
-      <c r="K34" s="3"/>
-      <c r="L34" s="3"/>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A35" s="4"/>
-      <c r="B35" s="2" t="s">
-        <v>505</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
-      <c r="I35" s="3"/>
-      <c r="J35" s="3"/>
-      <c r="K35" s="3"/>
-      <c r="L35" s="3"/>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A36" s="4"/>
-      <c r="B36" s="2"/>
-      <c r="C36" s="3"/>
-      <c r="D36" s="3"/>
-      <c r="E36" s="3"/>
-      <c r="F36" s="3"/>
-      <c r="G36" s="3"/>
-      <c r="H36" s="3"/>
-      <c r="I36" s="3"/>
-      <c r="J36" s="3"/>
-      <c r="K36" s="3"/>
-      <c r="L36" s="3"/>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A37" s="4"/>
-      <c r="B37" s="2"/>
-      <c r="C37" s="3"/>
-      <c r="D37" s="3"/>
-      <c r="E37" s="3"/>
-      <c r="F37" s="3"/>
-      <c r="G37" s="3"/>
-      <c r="H37" s="3"/>
-      <c r="I37" s="3"/>
-      <c r="J37" s="3"/>
-      <c r="K37" s="3"/>
-      <c r="L37" s="3"/>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A38" s="4"/>
-      <c r="B38" s="2"/>
-      <c r="C38" s="3"/>
-      <c r="D38" s="3"/>
-      <c r="E38" s="3"/>
-      <c r="F38" s="3"/>
-      <c r="G38" s="3"/>
-      <c r="H38" s="3"/>
-      <c r="I38" s="3"/>
-      <c r="J38" s="3"/>
-      <c r="K38" s="3"/>
-      <c r="L38" s="3"/>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A39" s="4"/>
-      <c r="B39" s="2"/>
-      <c r="C39" s="3"/>
-      <c r="D39" s="3"/>
-      <c r="E39" s="3"/>
-      <c r="F39" s="3"/>
-      <c r="G39" s="3"/>
-      <c r="H39" s="3"/>
-      <c r="I39" s="3"/>
-      <c r="J39" s="3"/>
-      <c r="K39" s="3"/>
-      <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A40" s="4"/>
-      <c r="B40" s="2"/>
-      <c r="C40" s="3"/>
-      <c r="D40" s="3"/>
-      <c r="E40" s="3"/>
-      <c r="F40" s="3"/>
-      <c r="G40" s="3"/>
-      <c r="H40" s="3"/>
-      <c r="I40" s="3"/>
-      <c r="J40" s="3"/>
-      <c r="K40" s="3"/>
-      <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A41" s="4"/>
-      <c r="B41" s="2"/>
-      <c r="C41" s="3"/>
-      <c r="D41" s="3"/>
-      <c r="E41" s="3"/>
-      <c r="F41" s="3"/>
-      <c r="G41" s="3"/>
-      <c r="H41" s="3"/>
-      <c r="I41" s="3"/>
-      <c r="J41" s="3"/>
-      <c r="K41" s="3"/>
-      <c r="L41" s="3"/>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A42" s="4"/>
-      <c r="B42" s="2"/>
-      <c r="C42" s="3"/>
-      <c r="D42" s="3"/>
-      <c r="E42" s="3"/>
-      <c r="F42" s="3"/>
-      <c r="G42" s="3"/>
-      <c r="H42" s="3"/>
-      <c r="I42" s="3"/>
-      <c r="J42" s="3"/>
-      <c r="K42" s="3"/>
-      <c r="L42" s="3"/>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A43" s="4"/>
-      <c r="B43" s="2"/>
-      <c r="C43" s="3"/>
-      <c r="D43" s="3"/>
-      <c r="E43" s="3"/>
-      <c r="F43" s="3"/>
-      <c r="G43" s="3"/>
-      <c r="H43" s="3"/>
-      <c r="I43" s="3"/>
-      <c r="J43" s="3"/>
-      <c r="K43" s="3"/>
-      <c r="L43" s="3"/>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A44" s="4"/>
-      <c r="B44" s="2"/>
-      <c r="C44" s="3"/>
-      <c r="D44" s="3"/>
-      <c r="E44" s="3"/>
-      <c r="F44" s="3"/>
-      <c r="G44" s="3"/>
-      <c r="H44" s="3"/>
-      <c r="I44" s="3"/>
-      <c r="J44" s="3"/>
-      <c r="K44" s="3"/>
-      <c r="L44" s="3"/>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A45" s="4"/>
-      <c r="B45" s="2"/>
-      <c r="C45" s="3"/>
-      <c r="D45" s="3"/>
-      <c r="E45" s="3"/>
-      <c r="F45" s="3"/>
-      <c r="G45" s="3"/>
-      <c r="H45" s="3"/>
-      <c r="I45" s="3"/>
-      <c r="J45" s="3"/>
-      <c r="K45" s="3"/>
-      <c r="L45" s="3"/>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A46" s="4"/>
-      <c r="B46" s="2"/>
-      <c r="C46" s="3"/>
-      <c r="D46" s="3"/>
-      <c r="E46" s="3"/>
-      <c r="F46" s="3"/>
-      <c r="G46" s="3"/>
-      <c r="H46" s="3"/>
-      <c r="I46" s="3"/>
-      <c r="J46" s="3"/>
-      <c r="K46" s="3"/>
-      <c r="L46" s="3"/>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A47" s="4"/>
-      <c r="B47" s="2"/>
-      <c r="C47" s="3"/>
-      <c r="D47" s="3"/>
-      <c r="E47" s="3"/>
-      <c r="F47" s="3"/>
-      <c r="G47" s="3"/>
-      <c r="H47" s="3"/>
-      <c r="I47" s="3"/>
-      <c r="J47" s="3"/>
-      <c r="K47" s="3"/>
-      <c r="L47" s="3"/>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A48" s="4"/>
-      <c r="B48" s="2"/>
-      <c r="C48" s="3"/>
-      <c r="D48" s="3"/>
-      <c r="E48" s="3"/>
-      <c r="F48" s="3"/>
-      <c r="G48" s="3"/>
-      <c r="H48" s="3"/>
-      <c r="I48" s="3"/>
-      <c r="J48" s="3"/>
-      <c r="K48" s="3"/>
-      <c r="L48" s="3"/>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A49" s="4"/>
-      <c r="B49" s="2"/>
-      <c r="C49" s="3"/>
-      <c r="D49" s="3"/>
-      <c r="E49" s="3"/>
-      <c r="F49" s="3"/>
-      <c r="G49" s="3"/>
-      <c r="H49" s="3"/>
-      <c r="I49" s="3"/>
-      <c r="J49" s="3"/>
-      <c r="K49" s="3"/>
-      <c r="L49" s="3"/>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A50" s="4"/>
-      <c r="B50" s="2"/>
-      <c r="C50" s="3"/>
-      <c r="D50" s="3"/>
-      <c r="E50" s="3"/>
-      <c r="F50" s="3"/>
-      <c r="G50" s="3"/>
-      <c r="H50" s="3"/>
-      <c r="I50" s="3"/>
-      <c r="J50" s="3"/>
-      <c r="K50" s="3"/>
-      <c r="L50" s="3"/>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A51" s="4"/>
-      <c r="B51" s="2"/>
-      <c r="C51" s="3"/>
-      <c r="D51" s="3"/>
-      <c r="E51" s="3"/>
-      <c r="F51" s="3"/>
-      <c r="G51" s="3"/>
-      <c r="H51" s="3"/>
-      <c r="I51" s="3"/>
-      <c r="J51" s="3"/>
-      <c r="K51" s="3"/>
-      <c r="L51" s="3"/>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A52" s="4"/>
-      <c r="B52" s="2"/>
-      <c r="C52" s="3"/>
-      <c r="D52" s="3"/>
-      <c r="E52" s="3"/>
-      <c r="F52" s="3"/>
-      <c r="G52" s="3"/>
-      <c r="H52" s="3"/>
-      <c r="I52" s="3"/>
-      <c r="J52" s="3"/>
-      <c r="K52" s="3"/>
-      <c r="L52" s="3"/>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A53" s="4"/>
-      <c r="B53" s="2"/>
-      <c r="C53" s="3"/>
-      <c r="D53" s="3"/>
-      <c r="E53" s="3"/>
-      <c r="F53" s="3"/>
-      <c r="G53" s="3"/>
-      <c r="H53" s="3"/>
-      <c r="I53" s="3"/>
-      <c r="J53" s="3"/>
-      <c r="K53" s="3"/>
-      <c r="L53" s="3"/>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A54" s="4"/>
-      <c r="B54" s="2"/>
-      <c r="C54" s="3"/>
-      <c r="D54" s="3"/>
-      <c r="E54" s="3"/>
-      <c r="F54" s="3"/>
-      <c r="G54" s="3"/>
-      <c r="H54" s="3"/>
-      <c r="I54" s="3"/>
-      <c r="J54" s="3"/>
-      <c r="K54" s="3"/>
-      <c r="L54" s="3"/>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A55" s="4"/>
-      <c r="B55" s="2"/>
-      <c r="C55" s="3"/>
-      <c r="D55" s="3"/>
-      <c r="E55" s="3"/>
-      <c r="F55" s="3"/>
-      <c r="G55" s="3"/>
-      <c r="H55" s="3"/>
-      <c r="I55" s="3"/>
-      <c r="J55" s="3"/>
-      <c r="K55" s="3"/>
-      <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A56" s="4"/>
-      <c r="B56" s="2"/>
-      <c r="C56" s="3"/>
-      <c r="D56" s="3"/>
-      <c r="E56" s="3"/>
-      <c r="F56" s="3"/>
-      <c r="G56" s="3"/>
-      <c r="H56" s="3"/>
-      <c r="I56" s="3"/>
-      <c r="J56" s="3"/>
-      <c r="K56" s="3"/>
-      <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A57" s="4"/>
-      <c r="B57" s="2"/>
-      <c r="C57" s="3"/>
-      <c r="D57" s="3"/>
-      <c r="E57" s="3"/>
-      <c r="F57" s="3"/>
-      <c r="G57" s="3"/>
-      <c r="H57" s="3"/>
-      <c r="I57" s="3"/>
-      <c r="J57" s="3"/>
-      <c r="K57" s="3"/>
-      <c r="L57" s="3"/>
-    </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A58" s="4"/>
-      <c r="B58" s="2"/>
-      <c r="C58" s="3"/>
-      <c r="D58" s="3"/>
-      <c r="E58" s="3"/>
-      <c r="F58" s="3"/>
-      <c r="G58" s="3"/>
-      <c r="H58" s="3"/>
-      <c r="I58" s="3"/>
-      <c r="J58" s="3"/>
-      <c r="K58" s="3"/>
-      <c r="L58" s="3"/>
-    </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A59" s="4"/>
-      <c r="B59" s="2"/>
-      <c r="C59" s="3"/>
-      <c r="D59" s="3"/>
-      <c r="E59" s="3"/>
-      <c r="F59" s="3"/>
-      <c r="G59" s="3"/>
-      <c r="H59" s="3"/>
-      <c r="I59" s="3"/>
-      <c r="J59" s="3"/>
-      <c r="K59" s="3"/>
-      <c r="L59" s="3"/>
-    </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A60" s="4"/>
-      <c r="B60" s="2"/>
-      <c r="C60" s="3"/>
-      <c r="D60" s="3"/>
-      <c r="E60" s="3"/>
-      <c r="F60" s="3"/>
-      <c r="G60" s="3"/>
-      <c r="H60" s="3"/>
-      <c r="I60" s="3"/>
-      <c r="J60" s="3"/>
-      <c r="K60" s="3"/>
-      <c r="L60" s="3"/>
-    </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A61" s="4"/>
-      <c r="B61" s="2"/>
-      <c r="C61" s="3"/>
-      <c r="D61" s="3"/>
-      <c r="E61" s="3"/>
-      <c r="F61" s="3"/>
-      <c r="G61" s="3"/>
-      <c r="H61" s="3"/>
-      <c r="I61" s="3"/>
-      <c r="J61" s="3"/>
-      <c r="K61" s="3"/>
-      <c r="L61" s="3"/>
-    </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A62" s="4"/>
-      <c r="B62" s="2"/>
-      <c r="C62" s="3"/>
-      <c r="D62" s="3"/>
-      <c r="E62" s="3"/>
-      <c r="F62" s="3"/>
-      <c r="G62" s="3"/>
-      <c r="H62" s="3"/>
-      <c r="I62" s="3"/>
-      <c r="J62" s="3"/>
-      <c r="K62" s="3"/>
-      <c r="L62" s="3"/>
-    </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A63" s="4"/>
-      <c r="B63" s="2"/>
-      <c r="C63" s="3"/>
-      <c r="D63" s="3"/>
-      <c r="E63" s="3"/>
-      <c r="F63" s="3"/>
-      <c r="G63" s="3"/>
-      <c r="H63" s="3"/>
-      <c r="I63" s="3"/>
-      <c r="J63" s="3"/>
-      <c r="K63" s="3"/>
-      <c r="L63" s="3"/>
-    </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A64" s="4"/>
-      <c r="B64" s="2"/>
-      <c r="C64" s="3"/>
-      <c r="D64" s="3"/>
-      <c r="E64" s="3"/>
-      <c r="F64" s="3"/>
-      <c r="G64" s="3"/>
-      <c r="H64" s="3"/>
-      <c r="I64" s="3"/>
-      <c r="J64" s="3"/>
-      <c r="K64" s="3"/>
-      <c r="L64" s="3"/>
-    </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A65" s="4"/>
-      <c r="B65" s="2"/>
-      <c r="C65" s="3"/>
-      <c r="D65" s="3"/>
-      <c r="E65" s="3"/>
-      <c r="F65" s="3"/>
-      <c r="G65" s="3"/>
-      <c r="H65" s="3"/>
-      <c r="I65" s="3"/>
-      <c r="J65" s="3"/>
-      <c r="K65" s="3"/>
-      <c r="L65" s="3"/>
-    </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A66" s="4"/>
-      <c r="B66" s="2"/>
-      <c r="C66" s="3"/>
-      <c r="D66" s="3"/>
-      <c r="E66" s="3"/>
-      <c r="F66" s="3"/>
-      <c r="G66" s="3"/>
-      <c r="H66" s="3"/>
-      <c r="I66" s="3"/>
-      <c r="J66" s="3"/>
-      <c r="K66" s="3"/>
-      <c r="L66" s="3"/>
-    </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A67" s="4"/>
-      <c r="B67" s="2"/>
-      <c r="C67" s="3"/>
-      <c r="D67" s="3"/>
-      <c r="E67" s="3"/>
-      <c r="F67" s="3"/>
-      <c r="G67" s="3"/>
-      <c r="H67" s="3"/>
-      <c r="I67" s="3"/>
-      <c r="J67" s="3"/>
-      <c r="K67" s="3"/>
-      <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A68" s="4"/>
-      <c r="B68" s="2"/>
-      <c r="C68" s="3"/>
-      <c r="D68" s="3"/>
-      <c r="E68" s="3"/>
-      <c r="F68" s="3"/>
-      <c r="G68" s="3"/>
-      <c r="H68" s="3"/>
-      <c r="I68" s="3"/>
-      <c r="J68" s="3"/>
-      <c r="K68" s="3"/>
-      <c r="L68" s="3"/>
-    </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A69" s="4"/>
-      <c r="B69" s="2"/>
-      <c r="C69" s="3"/>
-      <c r="D69" s="3"/>
-      <c r="E69" s="3"/>
-      <c r="F69" s="3"/>
-      <c r="G69" s="3"/>
-      <c r="H69" s="3"/>
-      <c r="I69" s="3"/>
-      <c r="J69" s="3"/>
-      <c r="K69" s="3"/>
-      <c r="L69" s="3"/>
-    </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A70" s="4"/>
-      <c r="B70" s="2"/>
-      <c r="C70" s="3"/>
-      <c r="D70" s="3"/>
-      <c r="E70" s="3"/>
-      <c r="F70" s="3"/>
-      <c r="G70" s="3"/>
-      <c r="H70" s="3"/>
-      <c r="I70" s="3"/>
-      <c r="J70" s="3"/>
-      <c r="K70" s="3"/>
-      <c r="L70" s="3"/>
-    </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A71" s="4"/>
-      <c r="B71" s="2"/>
-      <c r="C71" s="3"/>
-      <c r="D71" s="3"/>
-      <c r="E71" s="3"/>
-      <c r="F71" s="3"/>
-      <c r="G71" s="3"/>
-      <c r="H71" s="3"/>
-      <c r="I71" s="3"/>
-      <c r="J71" s="3"/>
-      <c r="K71" s="3"/>
-      <c r="L71" s="3"/>
-    </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A72" s="4"/>
-      <c r="B72" s="2"/>
-      <c r="C72" s="3"/>
-      <c r="D72" s="3"/>
-      <c r="E72" s="3"/>
-      <c r="F72" s="3"/>
-      <c r="G72" s="3"/>
-      <c r="H72" s="3"/>
-      <c r="I72" s="3"/>
-      <c r="J72" s="3"/>
-      <c r="K72" s="3"/>
-      <c r="L72" s="3"/>
-    </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A73" s="4"/>
-      <c r="B73" s="2"/>
-      <c r="C73" s="3"/>
-      <c r="D73" s="3"/>
-      <c r="E73" s="3"/>
-      <c r="F73" s="3"/>
-      <c r="G73" s="3"/>
-      <c r="H73" s="3"/>
-      <c r="I73" s="3"/>
-      <c r="J73" s="3"/>
-      <c r="K73" s="3"/>
-      <c r="L73" s="3"/>
-    </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A74" s="4"/>
-      <c r="B74" s="2"/>
-      <c r="C74" s="3"/>
-      <c r="D74" s="3"/>
-      <c r="E74" s="3"/>
-      <c r="F74" s="3"/>
-      <c r="G74" s="3"/>
-      <c r="H74" s="3"/>
-      <c r="I74" s="3"/>
-      <c r="J74" s="3"/>
-      <c r="K74" s="3"/>
-      <c r="L74" s="3"/>
-    </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A75" s="4"/>
-      <c r="B75" s="2"/>
-      <c r="C75" s="3"/>
-      <c r="D75" s="3"/>
-      <c r="E75" s="3"/>
-      <c r="F75" s="3"/>
-      <c r="G75" s="3"/>
-      <c r="H75" s="3"/>
-      <c r="I75" s="3"/>
-      <c r="J75" s="3"/>
-      <c r="K75" s="3"/>
-      <c r="L75" s="3"/>
-    </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A76" s="4"/>
-      <c r="B76" s="2"/>
-      <c r="C76" s="3"/>
-      <c r="D76" s="3"/>
-      <c r="E76" s="3"/>
-      <c r="F76" s="3"/>
-      <c r="G76" s="3"/>
-      <c r="H76" s="3"/>
-      <c r="I76" s="3"/>
-      <c r="J76" s="3"/>
-      <c r="K76" s="3"/>
-      <c r="L76" s="3"/>
-    </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A77" s="4"/>
-      <c r="B77" s="2"/>
-      <c r="C77" s="3"/>
-      <c r="D77" s="3"/>
-      <c r="E77" s="3"/>
-      <c r="F77" s="3"/>
-      <c r="G77" s="3"/>
-      <c r="H77" s="3"/>
-      <c r="I77" s="3"/>
-      <c r="J77" s="3"/>
-      <c r="K77" s="3"/>
-      <c r="L77" s="3"/>
-    </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A78" s="4"/>
-      <c r="B78" s="2"/>
-      <c r="C78" s="3"/>
-      <c r="D78" s="3"/>
-      <c r="E78" s="3"/>
-      <c r="F78" s="3"/>
-      <c r="G78" s="3"/>
-      <c r="H78" s="3"/>
-      <c r="I78" s="3"/>
-      <c r="J78" s="3"/>
-      <c r="K78" s="3"/>
-      <c r="L78" s="3"/>
-    </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A79" s="4"/>
-      <c r="B79" s="2"/>
-      <c r="C79" s="3"/>
-      <c r="D79" s="3"/>
-      <c r="E79" s="3"/>
-      <c r="F79" s="3"/>
-      <c r="G79" s="3"/>
-      <c r="H79" s="3"/>
-      <c r="I79" s="3"/>
-      <c r="J79" s="3"/>
-      <c r="K79" s="3"/>
-      <c r="L79" s="3"/>
-    </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A80" s="4"/>
-      <c r="B80" s="2"/>
-      <c r="C80" s="3"/>
-      <c r="D80" s="3"/>
-      <c r="E80" s="3"/>
-      <c r="F80" s="3"/>
-      <c r="G80" s="3"/>
-      <c r="H80" s="3"/>
-      <c r="I80" s="3"/>
-      <c r="J80" s="3"/>
-      <c r="K80" s="3"/>
-      <c r="L80" s="3"/>
-    </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A81" s="4"/>
-      <c r="B81" s="2"/>
-      <c r="C81" s="3"/>
-      <c r="D81" s="3"/>
-      <c r="E81" s="3"/>
-      <c r="F81" s="3"/>
-      <c r="G81" s="3"/>
-      <c r="H81" s="3"/>
-      <c r="I81" s="3"/>
-      <c r="J81" s="3"/>
-      <c r="K81" s="3"/>
-      <c r="L81" s="3"/>
-    </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A82" s="4"/>
-      <c r="B82" s="2"/>
-      <c r="C82" s="3"/>
-      <c r="D82" s="3"/>
-      <c r="E82" s="3"/>
-      <c r="F82" s="3"/>
-      <c r="G82" s="3"/>
-      <c r="H82" s="3"/>
-      <c r="I82" s="3"/>
-      <c r="J82" s="3"/>
-      <c r="K82" s="3"/>
-      <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A83" s="4"/>
-      <c r="B83" s="2"/>
-      <c r="C83" s="3"/>
-      <c r="D83" s="3"/>
-      <c r="E83" s="3"/>
-      <c r="F83" s="3"/>
-      <c r="G83" s="3"/>
-      <c r="H83" s="3"/>
-      <c r="I83" s="3"/>
-      <c r="J83" s="3"/>
-      <c r="K83" s="3"/>
-      <c r="L83" s="3"/>
-    </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A84" s="4"/>
-      <c r="B84" s="2"/>
-      <c r="C84" s="3"/>
-      <c r="D84" s="3"/>
-      <c r="E84" s="3"/>
-      <c r="F84" s="3"/>
-      <c r="G84" s="3"/>
-      <c r="H84" s="3"/>
-      <c r="I84" s="3"/>
-      <c r="J84" s="3"/>
-      <c r="K84" s="3"/>
-      <c r="L84" s="3"/>
-    </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A85" s="4"/>
-      <c r="B85" s="2"/>
-      <c r="C85" s="3"/>
-      <c r="D85" s="3"/>
-      <c r="E85" s="3"/>
-      <c r="F85" s="3"/>
-      <c r="G85" s="3"/>
-      <c r="H85" s="3"/>
-      <c r="I85" s="3"/>
-      <c r="J85" s="3"/>
-      <c r="K85" s="3"/>
-      <c r="L85" s="3"/>
-    </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A86" s="4"/>
-      <c r="B86" s="2"/>
-      <c r="C86" s="3"/>
-      <c r="D86" s="3"/>
-      <c r="E86" s="3"/>
-      <c r="F86" s="3"/>
-      <c r="G86" s="3"/>
-      <c r="H86" s="3"/>
-      <c r="I86" s="3"/>
-      <c r="J86" s="3"/>
-      <c r="K86" s="3"/>
-      <c r="L86" s="3"/>
-    </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A87" s="4"/>
-      <c r="B87" s="2"/>
-      <c r="C87" s="3"/>
-      <c r="D87" s="3"/>
-      <c r="E87" s="3"/>
-      <c r="F87" s="3"/>
-      <c r="G87" s="3"/>
-      <c r="H87" s="3"/>
-      <c r="I87" s="3"/>
-      <c r="J87" s="3"/>
-      <c r="K87" s="3"/>
-      <c r="L87" s="3"/>
-    </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A88" s="4"/>
-      <c r="B88" s="2"/>
-      <c r="C88" s="3"/>
-      <c r="D88" s="3"/>
-      <c r="E88" s="3"/>
-      <c r="F88" s="3"/>
-      <c r="G88" s="3"/>
-      <c r="H88" s="3"/>
-      <c r="I88" s="3"/>
-      <c r="J88" s="3"/>
-      <c r="K88" s="3"/>
-      <c r="L88" s="3"/>
-    </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A89" s="4"/>
-      <c r="B89" s="2"/>
-      <c r="C89" s="3"/>
-      <c r="D89" s="3"/>
-      <c r="E89" s="3"/>
-      <c r="F89" s="3"/>
-      <c r="G89" s="3"/>
-      <c r="H89" s="3"/>
-      <c r="I89" s="3"/>
-      <c r="J89" s="3"/>
-      <c r="K89" s="3"/>
-      <c r="L89" s="3"/>
-    </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A90" s="4"/>
-      <c r="B90" s="2"/>
-      <c r="C90" s="3"/>
-      <c r="D90" s="3"/>
-      <c r="E90" s="3"/>
-      <c r="F90" s="3"/>
-      <c r="G90" s="3"/>
-      <c r="H90" s="3"/>
-      <c r="I90" s="3"/>
-      <c r="J90" s="3"/>
-      <c r="K90" s="3"/>
-      <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A91" s="4"/>
-      <c r="B91" s="2"/>
-      <c r="C91" s="3"/>
-      <c r="D91" s="3"/>
-      <c r="E91" s="3"/>
-      <c r="F91" s="3"/>
-      <c r="G91" s="3"/>
-      <c r="H91" s="3"/>
-      <c r="I91" s="3"/>
-      <c r="J91" s="3"/>
-      <c r="K91" s="3"/>
-      <c r="L91" s="3"/>
-    </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A92" s="4"/>
-      <c r="B92" s="2"/>
-      <c r="C92" s="3"/>
-      <c r="D92" s="3"/>
-      <c r="E92" s="3"/>
-      <c r="F92" s="3"/>
-      <c r="G92" s="3"/>
-      <c r="H92" s="3"/>
-      <c r="I92" s="3"/>
-      <c r="J92" s="3"/>
-      <c r="K92" s="3"/>
-      <c r="L92" s="3"/>
-    </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A93" s="4"/>
-      <c r="B93" s="2"/>
-      <c r="C93" s="3"/>
-      <c r="D93" s="3"/>
-      <c r="E93" s="3"/>
-      <c r="F93" s="3"/>
-      <c r="G93" s="3"/>
-      <c r="H93" s="3"/>
-      <c r="I93" s="3"/>
-      <c r="J93" s="3"/>
-      <c r="K93" s="3"/>
-      <c r="L93" s="3"/>
-    </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A94" s="4"/>
-      <c r="B94" s="2"/>
-      <c r="C94" s="3"/>
-      <c r="D94" s="3"/>
-      <c r="E94" s="3"/>
-      <c r="F94" s="3"/>
-      <c r="G94" s="3"/>
-      <c r="H94" s="3"/>
-      <c r="I94" s="3"/>
-      <c r="J94" s="3"/>
-      <c r="K94" s="3"/>
-      <c r="L94" s="3"/>
-    </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A95" s="4"/>
-      <c r="B95" s="2"/>
-      <c r="C95" s="3"/>
-      <c r="D95" s="3"/>
-      <c r="E95" s="3"/>
-      <c r="F95" s="3"/>
-      <c r="G95" s="3"/>
-      <c r="H95" s="3"/>
-      <c r="I95" s="3"/>
-      <c r="J95" s="3"/>
-      <c r="K95" s="3"/>
-      <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A96" s="4"/>
-      <c r="B96" s="2"/>
-      <c r="C96" s="3"/>
-      <c r="D96" s="3"/>
-      <c r="E96" s="3"/>
-      <c r="F96" s="3"/>
-      <c r="G96" s="3"/>
-      <c r="H96" s="3"/>
-      <c r="I96" s="3"/>
-      <c r="J96" s="3"/>
-      <c r="K96" s="3"/>
-      <c r="L96" s="3"/>
-    </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A97" s="4"/>
-      <c r="B97" s="2"/>
-      <c r="C97" s="3"/>
-      <c r="D97" s="3"/>
-      <c r="E97" s="3"/>
-      <c r="F97" s="3"/>
-      <c r="G97" s="3"/>
-      <c r="H97" s="3"/>
-      <c r="I97" s="3"/>
-      <c r="J97" s="3"/>
-      <c r="K97" s="3"/>
-      <c r="L97" s="3"/>
-    </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A98" s="4"/>
-      <c r="B98" s="2"/>
-      <c r="C98" s="3"/>
-      <c r="D98" s="3"/>
-      <c r="E98" s="3"/>
-      <c r="F98" s="3"/>
-      <c r="G98" s="3"/>
-      <c r="H98" s="3"/>
-      <c r="I98" s="3"/>
-      <c r="J98" s="3"/>
-      <c r="K98" s="3"/>
-      <c r="L98" s="3"/>
-    </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A99" s="4"/>
-      <c r="B99" s="2"/>
-      <c r="C99" s="3"/>
-      <c r="D99" s="3"/>
-      <c r="E99" s="3"/>
-      <c r="F99" s="3"/>
-      <c r="G99" s="3"/>
-      <c r="H99" s="3"/>
-      <c r="I99" s="3"/>
-      <c r="J99" s="3"/>
-      <c r="K99" s="3"/>
-      <c r="L99" s="3"/>
-    </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A100" s="4"/>
-      <c r="B100" s="2"/>
-      <c r="C100" s="3"/>
-      <c r="D100" s="3"/>
-      <c r="E100" s="3"/>
-      <c r="F100" s="3"/>
-      <c r="G100" s="3"/>
-      <c r="H100" s="3"/>
-      <c r="I100" s="3"/>
-      <c r="J100" s="3"/>
-      <c r="K100" s="3"/>
-      <c r="L100" s="3"/>
-    </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A101" s="4"/>
-      <c r="B101" s="2"/>
-      <c r="C101" s="3"/>
-      <c r="D101" s="3"/>
-      <c r="E101" s="3"/>
-      <c r="F101" s="3"/>
-      <c r="G101" s="3"/>
-      <c r="H101" s="3"/>
-      <c r="I101" s="3"/>
-      <c r="J101" s="3"/>
-      <c r="K101" s="3"/>
-      <c r="L101" s="3"/>
-    </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A102" s="4"/>
-      <c r="B102" s="2"/>
-      <c r="C102" s="3"/>
-      <c r="D102" s="3"/>
-      <c r="E102" s="3"/>
-      <c r="F102" s="3"/>
-      <c r="G102" s="3"/>
-      <c r="H102" s="3"/>
-      <c r="I102" s="3"/>
-      <c r="J102" s="3"/>
-      <c r="K102" s="3"/>
-      <c r="L102" s="3"/>
-    </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A103" s="4"/>
-      <c r="B103" s="2"/>
-      <c r="C103" s="3"/>
-      <c r="D103" s="3"/>
-      <c r="E103" s="3"/>
-      <c r="F103" s="3"/>
-      <c r="G103" s="3"/>
-      <c r="H103" s="3"/>
-      <c r="I103" s="3"/>
-      <c r="J103" s="3"/>
-      <c r="K103" s="3"/>
-      <c r="L103" s="3"/>
-    </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A104" s="4"/>
-      <c r="B104" s="2"/>
-      <c r="C104" s="3"/>
-      <c r="D104" s="3"/>
-      <c r="E104" s="3"/>
-      <c r="F104" s="3"/>
-      <c r="G104" s="3"/>
-      <c r="H104" s="3"/>
-      <c r="I104" s="3"/>
-      <c r="J104" s="3"/>
-      <c r="K104" s="3"/>
-      <c r="L104" s="3"/>
-    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="C1:L1"/>
   </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N17:N20" xr:uid="{B4FD6766-A32F-44AA-8CFB-2BD8E71B2F82}">
       <formula1>$A$2:$A$15</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:L27 C28:G28 C29:E29 C30:D30 C31:L104" xr:uid="{27706EAA-48C0-4360-826C-27E4471783EC}">
-      <formula1>$A$2:$A$50</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:L27" xr:uid="{27706EAA-48C0-4360-826C-27E4471783EC}">
+      <formula1>$A$2:$A$41</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3731,7 +2910,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="T31" sqref="T31:T32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3756,269 +2935,550 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51DAE5B4-B963-47A4-B2A4-C45BD479A193}">
-  <dimension ref="A1:F57"/>
+  <dimension ref="A1:O57"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="M32" sqref="M32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.42578125" style="8" customWidth="1"/>
     <col min="2" max="2" width="41" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="22.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.28515625" style="8" customWidth="1"/>
-    <col min="6" max="6" width="22.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="12" width="23.7109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="8"/>
+    <col min="3" max="5" width="22.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.28515625" style="8" customWidth="1"/>
+    <col min="7" max="7" width="25" style="8" customWidth="1"/>
+    <col min="8" max="10" width="23.42578125" style="8" customWidth="1"/>
+    <col min="11" max="11" width="23.140625" style="8" customWidth="1"/>
+    <col min="12" max="12" width="23.28515625" style="8" customWidth="1"/>
+    <col min="13" max="13" width="23" style="8" customWidth="1"/>
+    <col min="14" max="14" width="23.85546875" style="8" customWidth="1"/>
+    <col min="15" max="15" width="23.5703125" style="8" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>52</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>53</v>
       </c>
       <c r="C1" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>418</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>498</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D1" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="H1" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="I1" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="J1" s="20" t="s">
+        <v>417</v>
+      </c>
+      <c r="K1" s="20" t="s">
+        <v>508</v>
+      </c>
+      <c r="L1" s="20" t="s">
+        <v>509</v>
+      </c>
+      <c r="M1" s="20" t="s">
+        <v>510</v>
+      </c>
+      <c r="N1" s="20" t="s">
+        <v>511</v>
+      </c>
+      <c r="O1" s="20" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="8" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="8" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="8" t="s">
+    <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="8" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="8" t="s">
+    <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="8" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="8" t="s">
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="9"/>
+      <c r="N5" s="9"/>
+      <c r="O5" s="9"/>
+    </row>
+    <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="8" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="8" t="s">
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="9"/>
+      <c r="N6" s="9"/>
+      <c r="O6" s="9"/>
+    </row>
+    <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="8" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="8" t="s">
+    <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="8" t="s">
         <v>246</v>
       </c>
-      <c r="E7" s="8" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="8" t="s">
+      <c r="C8" s="8" t="s">
+        <v>504</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>505</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>506</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>439</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>440</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>544</v>
+      </c>
+      <c r="J8" s="8" t="s">
+        <v>544</v>
+      </c>
+      <c r="K8" s="8" t="s">
+        <v>545</v>
+      </c>
+      <c r="L8" s="8" t="s">
+        <v>545</v>
+      </c>
+      <c r="M8" s="8" t="s">
+        <v>546</v>
+      </c>
+      <c r="N8" s="8" t="s">
+        <v>545</v>
+      </c>
+      <c r="O8" s="8" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="8" t="s">
         <v>247</v>
       </c>
-      <c r="C8" s="8" t="s">
-        <v>472</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>474</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>504</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="8" t="s">
+    </row>
+    <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="8" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="8" t="s">
+    <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="8" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="8" t="s">
+      <c r="C11" s="8" t="s">
+        <v>465</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>465</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>465</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>465</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>465</v>
+      </c>
+      <c r="J11" s="8" t="s">
+        <v>465</v>
+      </c>
+      <c r="K11" s="8" t="s">
+        <v>465</v>
+      </c>
+      <c r="L11" s="8" t="s">
+        <v>465</v>
+      </c>
+      <c r="M11" s="8" t="s">
+        <v>465</v>
+      </c>
+      <c r="N11" s="8" t="s">
+        <v>465</v>
+      </c>
+      <c r="O11" s="8" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="8" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="8" t="s">
+    <row r="13" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="8" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="8" t="s">
+    <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="8" t="s">
         <v>252</v>
       </c>
-      <c r="E13" s="8" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="8" t="s">
+    </row>
+    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="8" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="8" t="s">
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+    </row>
+    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="8" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="8" t="s">
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+    </row>
+    <row r="17" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="8" t="s">
         <v>255</v>
       </c>
-      <c r="E16" s="12"/>
-    </row>
-    <row r="17" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="8" t="s">
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+      <c r="L17" s="9"/>
+      <c r="M17" s="9"/>
+      <c r="N17" s="9"/>
+      <c r="O17" s="9"/>
+    </row>
+    <row r="18" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="8" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="18" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="8" t="s">
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+      <c r="L18" s="9"/>
+      <c r="M18" s="9"/>
+      <c r="N18" s="9"/>
+      <c r="O18" s="9"/>
+    </row>
+    <row r="19" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="8" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="19" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="8" t="s">
+      <c r="H19" s="19"/>
+      <c r="I19" s="19"/>
+      <c r="J19" s="19"/>
+      <c r="K19" s="19"/>
+      <c r="L19" s="19"/>
+      <c r="M19" s="19"/>
+      <c r="N19" s="19"/>
+      <c r="O19" s="19"/>
+    </row>
+    <row r="20" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="8" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="20" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="8" t="s">
+      <c r="H20" s="9"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
+      <c r="L20" s="9"/>
+      <c r="M20" s="9"/>
+      <c r="N20" s="9"/>
+      <c r="O20" s="9"/>
+    </row>
+    <row r="21" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="8" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="21" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="8" t="s">
+      <c r="H21" s="9"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
+      <c r="L21" s="9"/>
+      <c r="M21" s="9"/>
+      <c r="N21" s="9"/>
+      <c r="O21" s="9"/>
+    </row>
+    <row r="22" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="8" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="22" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="8" t="s">
+      <c r="H22" s="9"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
+      <c r="L22" s="9"/>
+      <c r="M22" s="9"/>
+      <c r="N22" s="9"/>
+      <c r="O22" s="9"/>
+    </row>
+    <row r="23" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="8" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="23" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="8" t="s">
+      <c r="H23" s="9"/>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
+      <c r="L23" s="9"/>
+      <c r="M23" s="9"/>
+      <c r="N23" s="9"/>
+      <c r="O23" s="9"/>
+    </row>
+    <row r="24" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="8" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="24" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="8" t="s">
+      <c r="H24" s="9"/>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
+    </row>
+    <row r="25" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="8" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="25" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="8" t="s">
+      <c r="H25" s="9"/>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="9"/>
+      <c r="L25" s="9"/>
+      <c r="M25" s="9"/>
+      <c r="N25" s="9"/>
+      <c r="O25" s="9"/>
+    </row>
+    <row r="26" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="8" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="26" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="8" t="s">
+      <c r="H26" s="9"/>
+      <c r="I26" s="9"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="9"/>
+      <c r="L26" s="9"/>
+      <c r="M26" s="9"/>
+      <c r="N26" s="9"/>
+      <c r="O26" s="9"/>
+    </row>
+    <row r="27" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="8" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="27" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="8" t="s">
+      <c r="H27" s="9"/>
+      <c r="I27" s="9"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="9"/>
+      <c r="L27" s="9"/>
+      <c r="M27" s="9"/>
+      <c r="N27" s="9"/>
+      <c r="O27" s="9"/>
+    </row>
+    <row r="28" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="8" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="28" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="8" t="s">
+      <c r="H28" s="9"/>
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="9"/>
+      <c r="L28" s="9"/>
+      <c r="M28" s="9"/>
+      <c r="N28" s="9"/>
+      <c r="O28" s="9"/>
+    </row>
+    <row r="29" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="8" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="29" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="8" t="s">
+      <c r="H29" s="9"/>
+      <c r="I29" s="9"/>
+      <c r="J29" s="9"/>
+      <c r="K29" s="9"/>
+      <c r="L29" s="9"/>
+      <c r="M29" s="9"/>
+      <c r="N29" s="9"/>
+      <c r="O29" s="9"/>
+    </row>
+    <row r="30" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="8" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="30" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="8" t="s">
+      <c r="H30" s="9"/>
+      <c r="I30" s="9"/>
+      <c r="J30" s="9"/>
+      <c r="K30" s="9"/>
+      <c r="L30" s="9"/>
+      <c r="M30" s="9"/>
+      <c r="N30" s="9"/>
+      <c r="O30" s="9"/>
+    </row>
+    <row r="31" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="8" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="31" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="8" t="s">
+      <c r="H31" s="9"/>
+      <c r="I31" s="9"/>
+      <c r="J31" s="9"/>
+      <c r="K31" s="9"/>
+      <c r="L31" s="9"/>
+      <c r="M31" s="9"/>
+      <c r="N31" s="9"/>
+      <c r="O31" s="9"/>
+    </row>
+    <row r="32" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="8" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="32" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="8" t="s">
+    <row r="33" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="8" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="33" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="8" t="s">
+    <row r="34" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="8" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="34" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="8" t="s">
+    <row r="35" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="8" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="35" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="8" t="s">
+    <row r="36" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="8" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="36" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="8" t="s">
+    <row r="37" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="8" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="37" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="8" t="s">
+    <row r="38" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="39" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="40" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="41" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="42" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="43" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="44" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="45" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="46" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="47" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="48" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H48" s="9"/>
+      <c r="I48" s="9"/>
+      <c r="J48" s="9"/>
+      <c r="K48" s="9"/>
+      <c r="L48" s="9"/>
+      <c r="M48" s="9"/>
+      <c r="N48" s="9"/>
+      <c r="O48" s="9"/>
+    </row>
+    <row r="49" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H49" s="9"/>
+      <c r="I49" s="9"/>
+      <c r="J49" s="9"/>
+      <c r="K49" s="9"/>
+      <c r="L49" s="9"/>
+      <c r="M49" s="9"/>
+      <c r="N49" s="9"/>
+      <c r="O49" s="9"/>
+    </row>
+    <row r="50" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B50" s="8" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="38" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="39" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="40" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="41" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="42" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="43" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="44" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="45" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="46" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="47" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="48" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="49" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="50" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="8" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="51" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="52" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="53" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="54" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="55" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="56" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="57" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="H50" s="19"/>
+      <c r="I50" s="19"/>
+      <c r="J50" s="19"/>
+      <c r="K50" s="19"/>
+      <c r="L50" s="19"/>
+      <c r="M50" s="19"/>
+      <c r="N50" s="19"/>
+      <c r="O50" s="19"/>
+    </row>
+    <row r="51" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H51" s="9"/>
+      <c r="I51" s="9"/>
+      <c r="J51" s="9"/>
+      <c r="K51" s="9"/>
+      <c r="L51" s="9"/>
+      <c r="M51" s="9"/>
+      <c r="N51" s="9"/>
+      <c r="O51" s="9"/>
+    </row>
+    <row r="52" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H52" s="9"/>
+      <c r="I52" s="9"/>
+      <c r="J52" s="9"/>
+      <c r="K52" s="9"/>
+      <c r="L52" s="9"/>
+      <c r="M52" s="9"/>
+      <c r="N52" s="9"/>
+      <c r="O52" s="9"/>
+    </row>
+    <row r="53" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H53" s="9"/>
+      <c r="I53" s="9"/>
+      <c r="J53" s="9"/>
+      <c r="K53" s="9"/>
+      <c r="L53" s="9"/>
+      <c r="M53" s="9"/>
+      <c r="N53" s="9"/>
+      <c r="O53" s="9"/>
+    </row>
+    <row r="54" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H54" s="9"/>
+      <c r="I54" s="9"/>
+      <c r="J54" s="9"/>
+      <c r="K54" s="9"/>
+      <c r="L54" s="9"/>
+      <c r="M54" s="9"/>
+      <c r="N54" s="9"/>
+      <c r="O54" s="9"/>
+    </row>
+    <row r="55" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="56" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="57" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4048,7 +3508,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
   </sheetData>
@@ -4061,7 +3521,7 @@
   <dimension ref="A1:I57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:E1048576"/>
+      <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4074,10 +3534,10 @@
   <sheetData>
     <row r="1" spans="1:9" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>52</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>53</v>
       </c>
       <c r="C1" s="7"/>
       <c r="D1" s="7"/>
@@ -4089,52 +3549,52 @@
     </row>
     <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="8" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="8" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="8" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="8" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="8" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="8" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="8" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="8" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="8" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4179,7 +3639,7 @@
     <row r="49" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="50" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B50" s="8" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="51" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4197,10 +3657,10 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{417BFBCF-E3E0-4816-AF93-8ADED1A6AB9A}">
-  <dimension ref="A1:J62"/>
+  <dimension ref="A1:G62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4208,17 +3668,15 @@
     <col min="1" max="1" width="9.42578125" style="8" customWidth="1"/>
     <col min="2" max="2" width="39.140625" style="8" bestFit="1" customWidth="1"/>
     <col min="3" max="7" width="22.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.28515625" style="8" customWidth="1"/>
-    <col min="9" max="10" width="22.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="8"/>
+    <col min="8" max="16384" width="9.140625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>52</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>53</v>
       </c>
       <c r="C1" s="7" t="s">
         <v>18</v>
@@ -4226,238 +3684,309 @@
       <c r="D1" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="G1" s="7"/>
+    </row>
+    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="8" t="s">
+        <v>288</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>492</v>
+      </c>
+      <c r="D2" s="8" t="s">
         <v>493</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="E2" s="8" t="s">
+        <v>493</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="8" t="s">
+        <v>289</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="8" t="s">
+        <v>290</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>416</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>416</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>416</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="8" t="s">
+        <v>291</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>433</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>433</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>433</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="8" t="s">
+        <v>292</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>434</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>434</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>434</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>435</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>435</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>435</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="8" t="s">
+        <v>294</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="8" t="s">
+        <v>295</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="8" t="s">
+        <v>296</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>436</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>436</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>436</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="8" t="s">
+        <v>297</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>459</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>474</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>496</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>494</v>
+      </c>
+      <c r="D12" s="8" t="s">
         <v>495</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="E12" s="8" t="s">
         <v>497</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>498</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>501</v>
-      </c>
-      <c r="J1" s="7"/>
-    </row>
-    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="8" t="s">
-        <v>289</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>457</v>
-      </c>
-      <c r="D2" s="8" t="s">
+      <c r="F12" s="8" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="C13" s="10" t="s">
         <v>470</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>494</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>494</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>496</v>
-      </c>
-      <c r="H2" s="8" t="s">
-        <v>496</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="8" t="s">
-        <v>290</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="8" t="s">
-        <v>291</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>417</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="8" t="s">
-        <v>292</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>458</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="8" t="s">
-        <v>293</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>459</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="8" t="s">
-        <v>294</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>460</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="8" t="s">
-        <v>295</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>174</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="8" t="s">
-        <v>296</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>176</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="8" t="s">
-        <v>297</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>461</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="8" t="s">
-        <v>298</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>448</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="8" t="s">
-        <v>299</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>462</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="8" t="s">
-        <v>300</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>450</v>
       </c>
       <c r="D13" s="10" t="s">
         <v>469</v>
       </c>
-      <c r="E13" s="10"/>
-    </row>
-    <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E13" s="10" t="s">
+        <v>498</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="8" t="s">
+        <v>300</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>437</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>437</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>437</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="8" t="s">
         <v>301</v>
       </c>
-      <c r="C14" s="8" t="s">
-        <v>463</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="8" t="s">
+      <c r="C15" s="8" t="s">
+        <v>499</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>499</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>502</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="8" t="s">
         <v>302</v>
       </c>
-      <c r="C15" s="8" t="s">
-        <v>419</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="8" t="s">
+      <c r="C16" s="8" t="s">
+        <v>438</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>438</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>438</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="8" t="s">
         <v>303</v>
       </c>
-      <c r="C16" s="8" t="s">
-        <v>464</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="8" t="s">
+      <c r="C17" s="8" t="s">
+        <v>500</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>501</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>503</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="8" t="s">
         <v>304</v>
       </c>
-      <c r="C17" s="8" t="s">
-        <v>465</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="8" t="s">
+    </row>
+    <row r="19" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="8" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="19" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="8" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="20" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="21" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="22" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="23" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="24" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="25" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="26" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="27" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="28" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="29" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="30" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="31" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="32" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="20" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="21" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="23" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="24" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="25" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="27" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="28" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="33" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="34" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="35" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4474,7 +4003,7 @@
     <row r="46" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="47" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="8" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="48" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4493,9 +4022,12 @@
     <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C13" r:id="rId1" xr:uid="{A4A0FEFA-B1AC-495D-9E91-816EEA1DCF30}"/>
-    <hyperlink ref="D13" r:id="rId2" xr:uid="{F7A6D187-C75E-474B-B55C-7F5B02F96DEB}"/>
+    <hyperlink ref="D13" r:id="rId1" xr:uid="{F7A6D187-C75E-474B-B55C-7F5B02F96DEB}"/>
+    <hyperlink ref="E13" r:id="rId2" xr:uid="{8E23672F-8A4F-4B77-871B-2402EC3D4B29}"/>
+    <hyperlink ref="C13" r:id="rId3" xr:uid="{A4A0FEFA-B1AC-495D-9E91-816EEA1DCF30}"/>
+    <hyperlink ref="F13" r:id="rId4" xr:uid="{A60B202E-9DAB-4C69-9121-96F578694012}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4503,7 +4035,7 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E9CAAA2-BF64-440F-AF73-FB69AC5FAEA3}">
-  <dimension ref="A1:H57"/>
+  <dimension ref="A1:G57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C1" sqref="C1:C1048576"/>
@@ -4513,175 +4045,179 @@
   <cols>
     <col min="1" max="1" width="9.42578125" style="8" customWidth="1"/>
     <col min="2" max="2" width="39.140625" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="8" width="22.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="8"/>
+    <col min="3" max="7" width="22.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="C1" s="7"/>
+      <c r="C1" s="7" t="s">
+        <v>48</v>
+      </c>
       <c r="D1" s="7"/>
       <c r="E1" s="7"/>
       <c r="F1" s="7"/>
       <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-    </row>
-    <row r="2" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="8" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="8" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="8" t="s">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="8" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="8" t="s">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="8" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="8" t="s">
+    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="8" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="8" t="s">
+    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="8" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="8" t="s">
+    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="8" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="8" t="s">
+    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="8" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="8" t="s">
+    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="8" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="8" t="s">
+    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="8" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="8" t="s">
+    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="8" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="8" t="s">
+    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="8" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="8" t="s">
+    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="8" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="8" t="s">
+    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="8" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="8" t="s">
+    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="8" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="8" t="s">
+    <row r="17" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="8" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="17" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="8" t="s">
+    <row r="18" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="8" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="18" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="8" t="s">
+      <c r="C18" s="10" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="8" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="19" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="8" t="s">
+    <row r="20" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="8" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="20" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="8" t="s">
+    <row r="21" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="8" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="21" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="8" t="s">
+    <row r="22" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="8" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="22" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="8" t="s">
+    <row r="23" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="8" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="23" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="8" t="s">
+    <row r="24" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="8" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="24" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="8" t="s">
+    <row r="25" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="8" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="25" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="8" t="s">
+    <row r="26" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="8" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="26" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="8" t="s">
+    <row r="27" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="8" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="27" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="8" t="s">
+    <row r="28" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="8" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="28" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="8" t="s">
+    <row r="29" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="8" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="29" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="8" t="s">
+    <row r="30" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="8" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="30" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="8" t="s">
+    <row r="31" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="8" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="31" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="8" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="32" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4704,7 +4240,7 @@
     <row r="52" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="53" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B53" s="8" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="54" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4712,6 +4248,9 @@
     <row r="56" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="57" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C18" r:id="rId1" xr:uid="{A128D720-D660-4D44-9F4E-25347DAEDB47}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -4732,326 +4271,805 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D89BA3D3-1B94-4C77-B8E7-B6D246A7B5C9}">
-  <dimension ref="A1:K59"/>
+  <dimension ref="A1:L59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.42578125" style="8" customWidth="1"/>
     <col min="2" max="2" width="43.7109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="22.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="11" width="23.85546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="8"/>
+    <col min="3" max="3" width="24.5703125" style="8" customWidth="1"/>
+    <col min="4" max="4" width="25.85546875" style="8" customWidth="1"/>
+    <col min="5" max="6" width="24.5703125" style="8" customWidth="1"/>
+    <col min="7" max="12" width="23.85546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>418</v>
-      </c>
-      <c r="D1" s="7"/>
-      <c r="E1" s="2"/>
-    </row>
-    <row r="2" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C1" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" s="20" t="s">
+        <v>508</v>
+      </c>
+      <c r="H1" s="20" t="s">
+        <v>509</v>
+      </c>
+      <c r="I1" s="20" t="s">
+        <v>510</v>
+      </c>
+      <c r="J1" s="20" t="s">
+        <v>511</v>
+      </c>
+      <c r="K1" s="20" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="8" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="8" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="8" t="s">
+    <row r="4" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="8" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="8" t="s">
+      <c r="C4" s="8" t="s">
+        <v>442</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>442</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>442</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>442</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>442</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>442</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>442</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>442</v>
+      </c>
+      <c r="K4" s="8" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="8" t="s">
         <v>339</v>
       </c>
-      <c r="C4" s="8" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="8" t="s">
+      <c r="C5" s="8" t="s">
+        <v>441</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>441</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>441</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>441</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>549</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>441</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>441</v>
+      </c>
+      <c r="J5" s="9" t="s">
+        <v>547</v>
+      </c>
+      <c r="K5" s="9" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="8" t="s">
         <v>340</v>
       </c>
-      <c r="C5" s="8" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="8" t="s">
+      <c r="C6" s="8" t="s">
+        <v>443</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>443</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>443</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>443</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>443</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>443</v>
+      </c>
+      <c r="I6" s="9" t="s">
+        <v>443</v>
+      </c>
+      <c r="J6" s="9" t="s">
+        <v>443</v>
+      </c>
+      <c r="K6" s="9" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="8" t="s">
         <v>341</v>
       </c>
-      <c r="C6" s="8" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="8" t="s">
+      <c r="C7" s="8" t="s">
+        <v>444</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>444</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>444</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>444</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>550</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>551</v>
+      </c>
+      <c r="I7" s="8" t="s">
+        <v>444</v>
+      </c>
+      <c r="J7" s="8" t="s">
+        <v>550</v>
+      </c>
+      <c r="K7" s="8" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="8" t="s">
         <v>342</v>
       </c>
-      <c r="C7" s="8" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="8" t="s">
+      <c r="C8" s="8" t="s">
+        <v>445</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>445</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>445</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>445</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>552</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>552</v>
+      </c>
+      <c r="I8" s="8" t="s">
+        <v>552</v>
+      </c>
+      <c r="J8" s="8" t="s">
+        <v>445</v>
+      </c>
+      <c r="K8" s="8" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="8" t="s">
         <v>343</v>
       </c>
-      <c r="C8" s="8" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="8" t="s">
+      <c r="C9" s="8" t="s">
+        <v>446</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>446</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>446</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>446</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>554</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>554</v>
+      </c>
+      <c r="I9" s="8" t="s">
+        <v>553</v>
+      </c>
+      <c r="J9" s="8" t="s">
+        <v>446</v>
+      </c>
+      <c r="K9" s="8" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="8" t="s">
         <v>344</v>
       </c>
-      <c r="C9" s="8" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="8" t="s">
+      <c r="C10" s="8" t="s">
+        <v>447</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>447</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>447</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>447</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>447</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>447</v>
+      </c>
+      <c r="I10" s="8" t="s">
+        <v>447</v>
+      </c>
+      <c r="J10" s="8" t="s">
+        <v>447</v>
+      </c>
+      <c r="K10" s="8" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="8" t="s">
         <v>345</v>
       </c>
-      <c r="C10" s="8" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="8" t="s">
+      <c r="C11" s="8" t="s">
+        <v>448</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>448</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>448</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>448</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>448</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>448</v>
+      </c>
+      <c r="I11" s="8" t="s">
+        <v>448</v>
+      </c>
+      <c r="J11" s="8" t="s">
+        <v>448</v>
+      </c>
+      <c r="K11" s="8" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="8" t="s">
         <v>346</v>
       </c>
-      <c r="C11" s="8" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="8" t="s">
+      <c r="C12" s="8" t="s">
+        <v>449</v>
+      </c>
+      <c r="D12" t="s">
+        <v>449</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>449</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>449</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>449</v>
+      </c>
+      <c r="H12" s="8" t="s">
+        <v>449</v>
+      </c>
+      <c r="I12" s="8" t="s">
+        <v>449</v>
+      </c>
+      <c r="J12" s="8" t="s">
+        <v>449</v>
+      </c>
+      <c r="K12" s="8" t="s">
+        <v>555</v>
+      </c>
+      <c r="L12" s="11"/>
+    </row>
+    <row r="13" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="8" t="s">
         <v>347</v>
       </c>
-      <c r="C12" s="8" t="s">
-        <v>488</v>
-      </c>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="11"/>
-      <c r="J12" s="11"/>
-      <c r="K12" s="11"/>
-    </row>
-    <row r="13" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="8" t="s">
+      <c r="C13" s="8" t="s">
+        <v>450</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>450</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>450</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>450</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>557</v>
+      </c>
+      <c r="H13" s="8" t="s">
+        <v>557</v>
+      </c>
+      <c r="I13" s="8" t="s">
+        <v>557</v>
+      </c>
+      <c r="J13" s="8" t="s">
+        <v>557</v>
+      </c>
+      <c r="K13" s="8" t="s">
+        <v>557</v>
+      </c>
+      <c r="L13" s="12"/>
+    </row>
+    <row r="14" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="8" t="s">
         <v>348</v>
       </c>
-      <c r="C13" s="8" t="s">
-        <v>489</v>
-      </c>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="12"/>
-      <c r="J13" s="12"/>
-      <c r="K13" s="12"/>
-    </row>
-    <row r="14" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="8" t="s">
+      <c r="C14" s="8" t="s">
+        <v>451</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>451</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>451</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>451</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>451</v>
+      </c>
+      <c r="H14" s="8" t="s">
+        <v>451</v>
+      </c>
+      <c r="I14" s="8" t="s">
+        <v>451</v>
+      </c>
+      <c r="J14" s="8" t="s">
+        <v>451</v>
+      </c>
+      <c r="K14" s="8" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="8" t="s">
         <v>349</v>
       </c>
-      <c r="C14" s="8" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="8" t="s">
+      <c r="C15" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="H15" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="I15" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="J15" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="K15" s="8" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="8" t="s">
         <v>350</v>
       </c>
-      <c r="C15" s="8" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="8" t="s">
+      <c r="C16" s="8" t="s">
+        <v>452</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>452</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>452</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>452</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>452</v>
+      </c>
+      <c r="H16" s="8" t="s">
+        <v>452</v>
+      </c>
+      <c r="I16" s="8" t="s">
+        <v>452</v>
+      </c>
+      <c r="J16" s="8" t="s">
+        <v>452</v>
+      </c>
+      <c r="K16" s="8" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="8" t="s">
         <v>351</v>
       </c>
-      <c r="C16" s="8" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="8" t="s">
+      <c r="C17" s="8" t="s">
+        <v>453</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>453</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>453</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>453</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>453</v>
+      </c>
+      <c r="H17" s="8" t="s">
+        <v>453</v>
+      </c>
+      <c r="I17" s="8" t="s">
+        <v>453</v>
+      </c>
+      <c r="J17" s="8" t="s">
+        <v>453</v>
+      </c>
+      <c r="K17" s="8" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="8" t="s">
         <v>352</v>
       </c>
-      <c r="C17" s="8" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="8" t="s">
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+    </row>
+    <row r="19" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="8" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="19" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="8" t="s">
+      <c r="C19" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="G19" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="H19" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="I19" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="J19" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="K19" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="8" t="s">
+        <v>425</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="G20" s="9"/>
+      <c r="H20" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
+    </row>
+    <row r="21" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="8" t="s">
+        <v>426</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="G21" s="9"/>
+      <c r="H21" s="8" t="s">
+        <v>558</v>
+      </c>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
+    </row>
+    <row r="22" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="8" t="s">
+        <v>427</v>
+      </c>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
+    </row>
+    <row r="23" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="8" t="s">
+        <v>428</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="F23" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
+    </row>
+    <row r="24" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="8" t="s">
         <v>354</v>
       </c>
-      <c r="C19" s="8" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="20" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="8" t="s">
-        <v>427</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="21" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="8" t="s">
-        <v>428</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="22" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="8" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="8" t="s">
-        <v>430</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="24" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="8" t="s">
+    </row>
+    <row r="25" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="8" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="25" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="8" t="s">
+      <c r="G25" s="9"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="9"/>
+    </row>
+    <row r="26" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="8" t="s">
         <v>356</v>
       </c>
-    </row>
-    <row r="26" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="8" t="s">
+      <c r="G26" s="9"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="9"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="9"/>
+    </row>
+    <row r="27" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="8" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="27" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="8" t="s">
+      <c r="G27" s="9"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="9" t="s">
+        <v>556</v>
+      </c>
+      <c r="J27" s="9"/>
+      <c r="K27" s="9"/>
+    </row>
+    <row r="28" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="8" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="28" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="8" t="s">
+      <c r="G28" s="9"/>
+      <c r="H28" s="9"/>
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="9"/>
+    </row>
+    <row r="29" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="8" t="s">
         <v>359</v>
       </c>
-    </row>
-    <row r="29" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="8" t="s">
+      <c r="G29" s="9"/>
+      <c r="H29" s="9"/>
+      <c r="I29" s="9"/>
+      <c r="J29" s="9"/>
+      <c r="K29" s="9"/>
+    </row>
+    <row r="30" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="8" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="30" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="8" t="s">
+      <c r="G30" s="9"/>
+      <c r="H30" s="9"/>
+      <c r="I30" s="9"/>
+      <c r="J30" s="9"/>
+      <c r="K30" s="9"/>
+    </row>
+    <row r="31" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="8" t="s">
         <v>361</v>
       </c>
-    </row>
-    <row r="31" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="8" t="s">
+      <c r="G31" s="9"/>
+      <c r="H31" s="9"/>
+      <c r="I31" s="9"/>
+      <c r="J31" s="9"/>
+      <c r="K31" s="9"/>
+    </row>
+    <row r="32" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="8" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="32" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="8" t="s">
+    <row r="33" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="8" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="33" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="8" t="s">
+    <row r="34" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="8" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="34" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="8" t="s">
+    <row r="35" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="8" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="35" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="8" t="s">
+    <row r="36" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="8" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="36" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="8" t="s">
+    <row r="37" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="8" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="37" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="8" t="s">
+    <row r="38" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="8" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="38" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="8" t="s">
+    <row r="39" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="8" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="39" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="8" t="s">
+    <row r="40" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="8" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="40" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="8" t="s">
+    <row r="41" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="8" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="42" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="8" t="s">
+        <v>424</v>
+      </c>
+      <c r="C42" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D42" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="E42" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="F42" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="H42" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="43" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="8" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="41" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="8" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="42" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="8" t="s">
-        <v>426</v>
-      </c>
-      <c r="C42" s="8" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="43" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="8" t="s">
+    <row r="44" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B44" s="8" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="44" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="8" t="s">
+    <row r="45" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="8" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="45" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="8" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="46" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="47" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="48" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="46" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="47" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="48" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5064,6 +5082,7 @@
     <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -5088,7 +5107,7 @@
   <dimension ref="A1:I57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5101,10 +5120,10 @@
   <sheetData>
     <row r="1" spans="1:9" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>52</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>53</v>
       </c>
       <c r="C1" s="7"/>
       <c r="D1" s="7"/>
@@ -5116,212 +5135,212 @@
     </row>
     <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="8" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="8" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="8" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="8" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="8" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="8" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="8" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="8" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="8" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="8" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="8" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="8" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="8" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="8" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="17" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="8" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="18" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="8" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="19" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="8" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="20" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="8" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="21" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="8" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="22" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="8" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="23" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="8" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="24" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="8" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="25" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="8" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="26" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="8" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="27" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="8" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="28" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="8" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="29" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="8" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="30" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="8" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="31" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="8" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="32" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="8" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="33" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="8" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="34" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="8" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="35" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="8" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="36" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="8" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="37" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="8" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="38" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="8" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="39" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="8" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="40" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="8" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="41" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="8" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="42" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="8" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="43" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="8" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="44" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5348,7 +5367,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="G38" sqref="G38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5362,7 +5381,7 @@
   <dimension ref="A1:I57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C1" sqref="C1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5375,25 +5394,35 @@
   <sheetData>
     <row r="1" spans="1:9" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="6" t="s">
-        <v>53</v>
-      </c>
       <c r="C1" s="2" t="s">
-        <v>418</v>
-      </c>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
+        <v>417</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>417</v>
+      </c>
       <c r="I1" s="13"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="14"/>
       <c r="B2" s="14" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="C2" s="14"/>
       <c r="D2" s="14"/>
@@ -5405,7 +5434,7 @@
     <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="14"/>
       <c r="B3" s="14" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="C3" s="15"/>
       <c r="D3" s="15"/>
@@ -5417,16 +5446,26 @@
     <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="14"/>
       <c r="B4" s="14" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
+        <v>465</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>507</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>507</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>507</v>
+      </c>
+      <c r="G4" s="14" t="s">
+        <v>507</v>
+      </c>
+      <c r="H4" s="14" t="s">
+        <v>507</v>
+      </c>
     </row>
     <row r="5" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5482,6 +5521,7 @@
     <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -5503,347 +5543,475 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8524A69F-58DC-4C12-B71C-F15E36FF1DB4}">
-  <dimension ref="A1:P33"/>
+  <dimension ref="A1:AB33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="19" topLeftCell="J30" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="G1" sqref="G1"/>
-      <selection pane="bottomLeft" activeCell="A20" sqref="A20"/>
-      <selection pane="bottomRight" activeCell="P1" sqref="P1"/>
+      <pane xSplit="6" ySplit="16" topLeftCell="N17" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="H1" sqref="H1"/>
+      <selection pane="bottomLeft" activeCell="A17" sqref="A17"/>
+      <selection pane="bottomRight" activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7.85546875" style="8" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="38" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="11" width="21.140625" style="8" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="23.7109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="13" max="16" width="16.7109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="7.7109375" style="8"/>
+    <col min="3" max="10" width="21.140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.5703125" style="8" customWidth="1"/>
+    <col min="12" max="12" width="21" style="8" customWidth="1"/>
+    <col min="13" max="14" width="20.5703125" style="8" customWidth="1"/>
+    <col min="15" max="15" width="21" style="8" customWidth="1"/>
+    <col min="16" max="16" width="21.140625" style="8" customWidth="1"/>
+    <col min="17" max="17" width="21.28515625" style="8" customWidth="1"/>
+    <col min="18" max="18" width="20.85546875" style="8" customWidth="1"/>
+    <col min="19" max="19" width="20.5703125" style="8" customWidth="1"/>
+    <col min="20" max="20" width="22.140625" style="8" customWidth="1"/>
+    <col min="21" max="21" width="19.5703125" style="8" customWidth="1"/>
+    <col min="22" max="22" width="20.5703125" style="8" customWidth="1"/>
+    <col min="23" max="23" width="23.42578125" style="8" customWidth="1"/>
+    <col min="24" max="24" width="23.140625" style="8" customWidth="1"/>
+    <col min="25" max="25" width="23.28515625" style="8" customWidth="1"/>
+    <col min="26" max="26" width="23" style="8" customWidth="1"/>
+    <col min="27" max="27" width="23.85546875" style="8" customWidth="1"/>
+    <col min="28" max="28" width="23.5703125" style="8" customWidth="1"/>
+    <col min="29" max="29" width="17.85546875" style="8" customWidth="1"/>
+    <col min="30" max="16384" width="7.7109375" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:28" s="6" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="C1" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="K1" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="L1" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="M1" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="N1" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="O1" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="P1" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q1" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="R1" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="S1" s="20" t="s">
+        <v>513</v>
+      </c>
+      <c r="T1" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="U1" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="V1" s="20" t="s">
+        <v>516</v>
+      </c>
+      <c r="W1" s="20" t="s">
+        <v>417</v>
+      </c>
+      <c r="X1" s="20" t="s">
+        <v>508</v>
+      </c>
+      <c r="Y1" s="20" t="s">
+        <v>509</v>
+      </c>
+      <c r="Z1" s="20" t="s">
+        <v>510</v>
+      </c>
+      <c r="AA1" s="20" t="s">
+        <v>511</v>
+      </c>
+      <c r="AB1" s="20" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="C1" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H1" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="I1" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="J1" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="K1" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>418</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>493</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>495</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>497</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B2" s="8" t="s">
+    </row>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="B3" s="8" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B3" s="8" t="s">
+      <c r="C3" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="D3" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="L3" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="N3" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="P3" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="R3" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="S3" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="T3" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="U3" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="V3" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="W3" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="X3" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y3" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z3" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="AA3" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB3" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="B4" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="D3" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="H3" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="I3" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="J3" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="L3" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="M3" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="O3" s="8" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="B4" s="8" t="s">
+      <c r="C4" s="21" t="s">
+        <v>568</v>
+      </c>
+      <c r="D4" s="21" t="s">
+        <v>568</v>
+      </c>
+      <c r="E4" s="21" t="s">
+        <v>568</v>
+      </c>
+      <c r="F4" s="21" t="s">
+        <v>563</v>
+      </c>
+      <c r="G4" s="21" t="s">
+        <v>563</v>
+      </c>
+      <c r="H4" s="21" t="s">
+        <v>563</v>
+      </c>
+      <c r="I4" s="21" t="s">
+        <v>563</v>
+      </c>
+      <c r="J4" s="21" t="s">
+        <v>563</v>
+      </c>
+      <c r="L4" s="21" t="s">
+        <v>563</v>
+      </c>
+      <c r="N4" s="21" t="s">
+        <v>563</v>
+      </c>
+      <c r="P4" s="8" t="s">
+        <v>566</v>
+      </c>
+      <c r="R4" s="8" t="s">
+        <v>514</v>
+      </c>
+      <c r="S4" s="8" t="s">
+        <v>515</v>
+      </c>
+      <c r="T4" s="8" t="s">
+        <v>524</v>
+      </c>
+      <c r="U4" s="8" t="s">
+        <v>528</v>
+      </c>
+      <c r="V4" s="8" t="s">
+        <v>529</v>
+      </c>
+      <c r="W4" s="8" t="s">
+        <v>517</v>
+      </c>
+      <c r="X4" s="8" t="s">
+        <v>518</v>
+      </c>
+      <c r="Y4" s="8" t="s">
+        <v>519</v>
+      </c>
+      <c r="Z4" s="8" t="s">
+        <v>520</v>
+      </c>
+      <c r="AA4" s="8" t="s">
+        <v>521</v>
+      </c>
+      <c r="AB4" s="8" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="B5" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="C4" s="8" t="s">
-        <v>431</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>432</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>433</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>434</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>438</v>
-      </c>
-      <c r="H4" s="8" t="s">
-        <v>446</v>
-      </c>
-      <c r="I4" s="8" t="s">
-        <v>447</v>
-      </c>
-      <c r="J4" s="8" t="s">
-        <v>466</v>
-      </c>
-      <c r="L4" s="8" t="s">
-        <v>473</v>
-      </c>
-      <c r="M4" s="8" t="s">
-        <v>493</v>
-      </c>
-      <c r="O4" s="8" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B5" s="8" t="s">
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="B6" s="8" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B6" s="8" t="s">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="B7" s="8" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B7" s="8" t="s">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="B8" s="8" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B8" s="8" t="s">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="B9" s="8" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B9" s="8" t="s">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="B10" s="8" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B10" s="8" t="s">
+      <c r="K10" s="8" t="s">
+        <v>416</v>
+      </c>
+      <c r="M10" s="8" t="s">
+        <v>416</v>
+      </c>
+      <c r="O10" s="8" t="s">
+        <v>416</v>
+      </c>
+      <c r="Q10" s="8" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="B11" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="K10" s="8" t="s">
-        <v>417</v>
-      </c>
-      <c r="N10" s="8" t="s">
-        <v>417</v>
-      </c>
-      <c r="P10" s="8" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B11" s="8" t="s">
+      <c r="K11" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="M11" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="O11" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="Q11" s="8" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="B12" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="K11" s="8" t="s">
-        <v>198</v>
-      </c>
-      <c r="N11" s="8" t="s">
-        <v>198</v>
-      </c>
-      <c r="P11" s="8" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="B12" s="8" t="s">
+      <c r="K12" s="8" t="s">
+        <v>455</v>
+      </c>
+      <c r="M12" s="8" t="s">
+        <v>456</v>
+      </c>
+      <c r="O12" s="8" t="s">
+        <v>457</v>
+      </c>
+      <c r="Q12" s="8" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="B13" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="K12" s="8" t="s">
-        <v>466</v>
-      </c>
-      <c r="N12" s="8" t="s">
-        <v>493</v>
-      </c>
-      <c r="P12" s="8" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B13" s="8" t="s">
+      <c r="K13" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="M13" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="O13" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q13" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="B14" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="K13" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="N13" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="P13" s="8" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B14" s="8" t="s">
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="B15" s="8" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B15" s="8" t="s">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="B16" s="8" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B16" s="8" t="s">
+    <row r="17" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="8" t="s">
         <v>69</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B17" s="8" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B18" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B19" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B20" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B21" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="22" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B22" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="23" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B23" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="24" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B24" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="25" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B25" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="26" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B26" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="27" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B27" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="28" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B28" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="29" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B29" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="30" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B30" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="31" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B31" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="32" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B32" s="8" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B33" s="8" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="33" spans="2:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="B33" s="8" t="s">
-        <v>86</v>
-      </c>
       <c r="K33" s="8" t="s">
-        <v>466</v>
-      </c>
-      <c r="N33" s="8" t="s">
-        <v>493</v>
-      </c>
-      <c r="P33" s="8" t="s">
-        <v>493</v>
+        <v>455</v>
+      </c>
+      <c r="M33" s="8" t="s">
+        <v>456</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -5851,598 +6019,1308 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBCAE703-B904-44CB-A990-CED3724569EE}">
-  <dimension ref="A1:K56"/>
+  <dimension ref="A1:S56"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="18" topLeftCell="G19" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="G19" sqref="G19"/>
-      <selection pane="topRight" activeCell="G19" sqref="G19"/>
-      <selection pane="bottomLeft" activeCell="G19" sqref="G19"/>
-      <selection pane="bottomRight" activeCell="K1" sqref="K1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="6" ySplit="18" topLeftCell="G19" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="G1" sqref="G1"/>
+      <selection pane="bottomLeft" activeCell="A19" sqref="A19"/>
+      <selection pane="bottomRight" activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.42578125" style="8" customWidth="1"/>
-    <col min="2" max="2" width="46" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="21.5703125" style="8" customWidth="1"/>
-    <col min="6" max="9" width="21.42578125" style="8" customWidth="1"/>
-    <col min="10" max="10" width="9.140625" style="8"/>
-    <col min="11" max="11" width="16.7109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="8"/>
+    <col min="1" max="1" width="9.42578125" style="9" customWidth="1"/>
+    <col min="2" max="2" width="46" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.140625" style="9" customWidth="1"/>
+    <col min="4" max="5" width="21.5703125" style="9" customWidth="1"/>
+    <col min="6" max="12" width="21.42578125" style="9" customWidth="1"/>
+    <col min="13" max="13" width="23.42578125" style="8" customWidth="1"/>
+    <col min="14" max="14" width="23.140625" style="8" customWidth="1"/>
+    <col min="15" max="15" width="23.28515625" style="8" customWidth="1"/>
+    <col min="16" max="16" width="23" style="8" customWidth="1"/>
+    <col min="17" max="17" width="23.85546875" style="8" customWidth="1"/>
+    <col min="18" max="18" width="23.5703125" style="8" customWidth="1"/>
+    <col min="19" max="19" width="26.5703125" style="9" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:19" s="16" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="I1" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>418</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="8" t="s">
+      <c r="I1" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="J1" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="K1" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="L1" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="M1" s="20" t="s">
+        <v>417</v>
+      </c>
+      <c r="N1" s="20" t="s">
+        <v>508</v>
+      </c>
+      <c r="O1" s="20" t="s">
+        <v>509</v>
+      </c>
+      <c r="P1" s="20" t="s">
+        <v>510</v>
+      </c>
+      <c r="Q1" s="20" t="s">
+        <v>511</v>
+      </c>
+      <c r="R1" s="20" t="s">
+        <v>512</v>
+      </c>
+      <c r="S1" s="20" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>567</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>569</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>570</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>571</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>572</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>574</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>455</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>456</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>457</v>
+      </c>
+      <c r="L2" s="8" t="s">
+        <v>458</v>
+      </c>
+      <c r="M2" s="8" t="s">
+        <v>517</v>
+      </c>
+      <c r="N2" s="8" t="s">
+        <v>518</v>
+      </c>
+      <c r="O2" s="8" t="s">
+        <v>519</v>
+      </c>
+      <c r="P2" s="8" t="s">
+        <v>520</v>
+      </c>
+      <c r="Q2" s="8" t="s">
+        <v>521</v>
+      </c>
+      <c r="R2" s="8" t="s">
+        <v>522</v>
+      </c>
+      <c r="S2" s="9" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="C2" s="8" t="s">
-        <v>432</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>433</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>434</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>438</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>446</v>
-      </c>
-      <c r="H2" s="8" t="s">
-        <v>447</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>447</v>
-      </c>
-      <c r="J2" s="8" t="s">
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="19"/>
+      <c r="L3" s="19"/>
+    </row>
+    <row r="4" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>454</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>454</v>
+      </c>
+      <c r="K4" s="8" t="s">
+        <v>454</v>
+      </c>
+      <c r="L4" s="8" t="s">
+        <v>454</v>
+      </c>
+      <c r="M4" s="8" t="s">
+        <v>454</v>
+      </c>
+      <c r="N4" s="8" t="s">
+        <v>454</v>
+      </c>
+      <c r="O4" s="8" t="s">
+        <v>454</v>
+      </c>
+      <c r="P4" s="8" t="s">
+        <v>454</v>
+      </c>
+      <c r="Q4" s="8" t="s">
+        <v>454</v>
+      </c>
+      <c r="R4" s="8" t="s">
+        <v>454</v>
+      </c>
+      <c r="S4" s="8" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>422</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>422</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>422</v>
+      </c>
+      <c r="F5" s="23" t="s">
+        <v>148</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>422</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="J5" s="9" t="s">
+        <v>422</v>
+      </c>
+      <c r="K5" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="L5" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="M5" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="N5" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="O5" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="P5" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q5" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="R5" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="S5" s="9" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="I6" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="J6" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="K6" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="L6" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="M6" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="N6" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="O6" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="P6" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q6" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="R6" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="S6" s="9" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="9" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="9" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="9" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="9" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="9" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="9" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="9" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="9" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="H15" s="9" t="s">
+        <v>465</v>
+      </c>
+      <c r="I15" s="9" t="s">
+        <v>465</v>
+      </c>
+      <c r="K15" s="9" t="s">
+        <v>465</v>
+      </c>
+      <c r="L15" s="9" t="s">
+        <v>465</v>
+      </c>
+      <c r="M15" s="9" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="H16" s="9" t="s">
+        <v>465</v>
+      </c>
+      <c r="I16" s="9" t="s">
+        <v>465</v>
+      </c>
+      <c r="K16" s="9" t="s">
+        <v>465</v>
+      </c>
+      <c r="L16" s="9" t="s">
+        <v>465</v>
+      </c>
+      <c r="M16" s="9" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="17" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="H17" s="9" t="s">
+        <v>459</v>
+      </c>
+      <c r="I17" s="9" t="s">
+        <v>474</v>
+      </c>
+      <c r="K17" s="9" t="s">
+        <v>476</v>
+      </c>
+      <c r="L17" s="9" t="s">
+        <v>478</v>
+      </c>
+      <c r="M17" s="9" t="s">
+        <v>530</v>
+      </c>
+      <c r="N17" s="9" t="s">
+        <v>537</v>
+      </c>
+      <c r="O17" s="9" t="s">
+        <v>535</v>
+      </c>
+      <c r="P17" s="9" t="s">
+        <v>483</v>
+      </c>
+      <c r="Q17" s="9" t="s">
+        <v>486</v>
+      </c>
+      <c r="R17" s="9" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="18" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="H18" s="9" t="s">
+        <v>466</v>
+      </c>
+      <c r="I18" s="9" t="s">
+        <v>475</v>
+      </c>
+      <c r="K18" s="9" t="s">
+        <v>477</v>
+      </c>
+      <c r="L18" s="9" t="s">
+        <v>479</v>
+      </c>
+      <c r="M18" s="9" t="s">
+        <v>531</v>
+      </c>
+      <c r="N18" s="9" t="s">
+        <v>538</v>
+      </c>
+      <c r="O18" s="9" t="s">
+        <v>536</v>
+      </c>
+      <c r="P18" s="9" t="s">
+        <v>481</v>
+      </c>
+      <c r="Q18" s="9" t="s">
+        <v>487</v>
+      </c>
+      <c r="R18" s="9" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="19" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="E19" s="19"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="19" t="s">
+        <v>470</v>
+      </c>
+      <c r="I19" s="19" t="s">
+        <v>469</v>
+      </c>
+      <c r="J19" s="19"/>
+      <c r="K19" s="19" t="s">
+        <v>467</v>
+      </c>
+      <c r="L19" s="19" t="s">
+        <v>468</v>
+      </c>
+      <c r="M19" s="19" t="s">
+        <v>532</v>
+      </c>
+      <c r="N19" s="19" t="s">
+        <v>532</v>
+      </c>
+      <c r="O19" s="19" t="s">
+        <v>532</v>
+      </c>
+      <c r="P19" s="19" t="s">
+        <v>532</v>
+      </c>
+      <c r="Q19" s="19" t="s">
+        <v>532</v>
+      </c>
+      <c r="R19" s="19" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="20" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="H20" s="9" t="s">
+        <v>429</v>
+      </c>
+      <c r="I20" s="9" t="s">
+        <v>429</v>
+      </c>
+      <c r="K20" s="9" t="s">
+        <v>429</v>
+      </c>
+      <c r="L20" s="9" t="s">
+        <v>429</v>
+      </c>
+      <c r="M20" s="9" t="s">
+        <v>429</v>
+      </c>
+      <c r="N20" s="9" t="s">
+        <v>429</v>
+      </c>
+      <c r="O20" s="9" t="s">
+        <v>429</v>
+      </c>
+      <c r="P20" s="9" t="s">
+        <v>429</v>
+      </c>
+      <c r="Q20" s="9" t="s">
+        <v>429</v>
+      </c>
+      <c r="R20" s="9" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="21" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="H21" s="9" t="s">
+        <v>460</v>
+      </c>
+      <c r="I21" s="9" t="s">
+        <v>460</v>
+      </c>
+      <c r="K21" s="9" t="s">
+        <v>460</v>
+      </c>
+      <c r="L21" s="9" t="s">
+        <v>460</v>
+      </c>
+      <c r="M21" s="9" t="s">
+        <v>460</v>
+      </c>
+      <c r="N21" s="9" t="s">
+        <v>460</v>
+      </c>
+      <c r="O21" s="9" t="s">
+        <v>460</v>
+      </c>
+      <c r="P21" s="9" t="s">
+        <v>460</v>
+      </c>
+      <c r="Q21" s="9" t="s">
+        <v>460</v>
+      </c>
+      <c r="R21" s="9" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="22" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="H22" s="9" t="s">
+        <v>430</v>
+      </c>
+      <c r="I22" s="9" t="s">
+        <v>430</v>
+      </c>
+      <c r="K22" s="9" t="s">
+        <v>430</v>
+      </c>
+      <c r="L22" s="9" t="s">
+        <v>430</v>
+      </c>
+      <c r="M22" s="9" t="s">
+        <v>430</v>
+      </c>
+      <c r="N22" s="9" t="s">
+        <v>430</v>
+      </c>
+      <c r="O22" s="9" t="s">
+        <v>430</v>
+      </c>
+      <c r="P22" s="9" t="s">
+        <v>430</v>
+      </c>
+      <c r="Q22" s="9" t="s">
+        <v>430</v>
+      </c>
+      <c r="R22" s="9" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="23" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="H23" s="9" t="s">
+        <v>461</v>
+      </c>
+      <c r="I23" s="9" t="s">
+        <v>461</v>
+      </c>
+      <c r="K23" s="9" t="s">
+        <v>461</v>
+      </c>
+      <c r="L23" s="9" t="s">
+        <v>461</v>
+      </c>
+      <c r="M23" s="9" t="s">
+        <v>461</v>
+      </c>
+      <c r="N23" s="9" t="s">
+        <v>461</v>
+      </c>
+      <c r="O23" s="9" t="s">
+        <v>461</v>
+      </c>
+      <c r="P23" s="9" t="s">
+        <v>461</v>
+      </c>
+      <c r="Q23" s="9" t="s">
+        <v>461</v>
+      </c>
+      <c r="R23" s="9" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="24" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="M24" s="9"/>
+    </row>
+    <row r="25" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>462</v>
+      </c>
+      <c r="H25" s="9" t="s">
+        <v>462</v>
+      </c>
+      <c r="I25" s="9" t="s">
+        <v>462</v>
+      </c>
+      <c r="K25" s="9" t="s">
+        <v>462</v>
+      </c>
+      <c r="L25" s="9" t="s">
+        <v>462</v>
+      </c>
+      <c r="M25" s="9" t="s">
+        <v>462</v>
+      </c>
+      <c r="N25" s="9" t="s">
+        <v>462</v>
+      </c>
+      <c r="O25" s="9" t="s">
+        <v>462</v>
+      </c>
+      <c r="P25" s="9" t="s">
+        <v>462</v>
+      </c>
+      <c r="Q25" s="9" t="s">
+        <v>462</v>
+      </c>
+      <c r="R25" s="9" t="s">
+        <v>462</v>
+      </c>
+      <c r="S25" s="9" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="26" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="E26" s="9" t="s">
+        <v>462</v>
+      </c>
+      <c r="H26" s="9" t="s">
+        <v>462</v>
+      </c>
+      <c r="I26" s="9" t="s">
+        <v>462</v>
+      </c>
+      <c r="K26" s="9" t="s">
+        <v>462</v>
+      </c>
+      <c r="L26" s="9" t="s">
+        <v>462</v>
+      </c>
+      <c r="M26" s="9" t="s">
+        <v>462</v>
+      </c>
+      <c r="N26" s="9" t="s">
+        <v>462</v>
+      </c>
+      <c r="O26" s="9" t="s">
+        <v>462</v>
+      </c>
+      <c r="P26" s="9" t="s">
+        <v>462</v>
+      </c>
+      <c r="Q26" s="9" t="s">
+        <v>462</v>
+      </c>
+      <c r="R26" s="9" t="s">
+        <v>462</v>
+      </c>
+      <c r="S26" s="9" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="27" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="E27" s="9" t="s">
+        <v>463</v>
+      </c>
+      <c r="H27" s="9" t="s">
+        <v>463</v>
+      </c>
+      <c r="I27" s="9" t="s">
+        <v>463</v>
+      </c>
+      <c r="K27" s="9" t="s">
+        <v>463</v>
+      </c>
+      <c r="L27" s="9" t="s">
+        <v>463</v>
+      </c>
+      <c r="M27" s="9" t="s">
+        <v>463</v>
+      </c>
+      <c r="N27" s="9" t="s">
+        <v>463</v>
+      </c>
+      <c r="O27" s="9" t="s">
+        <v>463</v>
+      </c>
+      <c r="P27" s="9" t="s">
+        <v>463</v>
+      </c>
+      <c r="Q27" s="9" t="s">
+        <v>463</v>
+      </c>
+      <c r="R27" s="9" t="s">
+        <v>463</v>
+      </c>
+      <c r="S27" s="9" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="28" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="E28" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="H28" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="I28" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="K28" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="L28" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="M28" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="N28" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="O28" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="P28" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q28" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="R28" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="S28" s="9" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="29" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="E29" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="H29" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="I29" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="K29" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="L29" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="M29" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="N29" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="O29" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="P29" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="Q29" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="R29" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="S29" s="9" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="30" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="E30" s="9" t="s">
+        <v>464</v>
+      </c>
+      <c r="H30" s="9" t="s">
+        <v>464</v>
+      </c>
+      <c r="I30" s="9" t="s">
+        <v>464</v>
+      </c>
+      <c r="K30" s="9" t="s">
+        <v>464</v>
+      </c>
+      <c r="L30" s="9" t="s">
+        <v>464</v>
+      </c>
+      <c r="M30" s="9" t="s">
+        <v>464</v>
+      </c>
+      <c r="N30" s="9" t="s">
+        <v>539</v>
+      </c>
+      <c r="O30" s="9" t="s">
+        <v>540</v>
+      </c>
+      <c r="P30" s="9" t="s">
+        <v>541</v>
+      </c>
+      <c r="Q30" s="9" t="s">
+        <v>542</v>
+      </c>
+      <c r="R30" s="9" t="s">
+        <v>543</v>
+      </c>
+      <c r="S30" s="9" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="31" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="E31" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="H31" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="I31" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="K31" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="L31" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="M31" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="N31" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="O31" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="P31" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q31" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="R31" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="S31" s="9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="32" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="9" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="9" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="34" spans="2:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="9" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="9" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="36" spans="2:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="9" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="37" spans="2:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="9" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="38" spans="2:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="E38" s="9" t="s">
+        <v>480</v>
+      </c>
+      <c r="I38" s="9" t="s">
+        <v>471</v>
+      </c>
+      <c r="K38" s="9" t="s">
+        <v>472</v>
+      </c>
+      <c r="L38" s="9" t="s">
         <v>473</v>
       </c>
-      <c r="K2" s="8" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
-    </row>
-    <row r="4" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="H4" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="I4" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="J4" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="K4" s="8" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>424</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>424</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>424</v>
-      </c>
-      <c r="G5" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="H5" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="I5" s="8" t="s">
-        <v>424</v>
-      </c>
-      <c r="J5" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="K5" s="8" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="G6" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="H6" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="I6" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="J6" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="K6" s="8" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="8" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="8" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="8" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="8" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="8" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="8" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="8" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="8" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="E15" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="G15" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="H15" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="J15" s="8" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="G16" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="H16" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="J16" s="8" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="17" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="E17" s="8" t="s">
+    </row>
+    <row r="39" spans="2:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="E39" s="9" t="s">
         <v>454</v>
       </c>
-      <c r="G17" s="8" t="s">
-        <v>451</v>
-      </c>
-      <c r="H17" s="8" t="s">
-        <v>448</v>
-      </c>
-      <c r="J17" s="8" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="18" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="E18" s="8" t="s">
-        <v>455</v>
-      </c>
-      <c r="G18" s="8" t="s">
-        <v>452</v>
-      </c>
-      <c r="H18" s="8" t="s">
-        <v>449</v>
-      </c>
-      <c r="J18" s="8" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="19" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="E19" s="10" t="s">
-        <v>456</v>
-      </c>
-      <c r="F19" s="10"/>
-      <c r="G19" s="10" t="s">
-        <v>453</v>
-      </c>
-      <c r="H19" s="10" t="s">
-        <v>450</v>
-      </c>
-      <c r="I19" s="10"/>
-      <c r="J19" s="10" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="20" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="E20" s="8" t="s">
-        <v>435</v>
-      </c>
-      <c r="G20" s="8" t="s">
-        <v>435</v>
-      </c>
-      <c r="H20" s="8" t="s">
-        <v>435</v>
-      </c>
-      <c r="J20" s="8" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="21" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="E21" s="8" t="s">
-        <v>436</v>
-      </c>
-      <c r="G21" s="8" t="s">
-        <v>436</v>
-      </c>
-      <c r="H21" s="8" t="s">
-        <v>436</v>
-      </c>
-      <c r="J21" s="8" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="22" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="E22" s="8" t="s">
-        <v>437</v>
-      </c>
-      <c r="G22" s="8" t="s">
-        <v>437</v>
-      </c>
-      <c r="H22" s="8" t="s">
-        <v>437</v>
-      </c>
-      <c r="J22" s="8" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="23" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="E23" s="8" t="s">
-        <v>419</v>
-      </c>
-      <c r="G23" s="8" t="s">
-        <v>419</v>
-      </c>
-      <c r="H23" s="8" t="s">
-        <v>419</v>
-      </c>
-      <c r="J23" s="8" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="24" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="8" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="25" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="8" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="26" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="8" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="27" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="8" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="28" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="8" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="29" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="8" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="30" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="8" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="31" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="8" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="32" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="8" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="33" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="8" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="34" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="8" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="35" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="8" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="36" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="8" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="37" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="8" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="38" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="J38" s="8" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="39" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="8" t="s">
+      <c r="I39" s="9" t="s">
+        <v>454</v>
+      </c>
+      <c r="K39" s="9" t="s">
+        <v>454</v>
+      </c>
+      <c r="L39" s="9" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="40" spans="2:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="J39" s="8" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="40" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="8" t="s">
+      <c r="I40" s="9" t="s">
+        <v>465</v>
+      </c>
+      <c r="K40" s="9" t="s">
+        <v>465</v>
+      </c>
+      <c r="L40" s="9" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="41" spans="2:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="J40" s="8" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="41" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="8" t="s">
+      <c r="E41" s="9" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="42" spans="2:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="J41" s="8" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="42" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="8" t="s">
+      <c r="E42" s="9" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="J42" s="8" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="43" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="8" t="s">
+      <c r="E43" s="9" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B44" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="J43" s="8" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="44" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="8" t="s">
+      <c r="E44" s="9" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="J44" s="8" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="45" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="8" t="s">
+      <c r="E45" s="9" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B46" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="J45" s="8" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="46" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="8" t="s">
+      <c r="E46" s="9" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B47" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="J46" s="8" t="s">
+      <c r="E47" s="9" t="s">
+        <v>507</v>
+      </c>
+      <c r="I47" s="9" t="s">
+        <v>465</v>
+      </c>
+      <c r="K47" s="9" t="s">
+        <v>465</v>
+      </c>
+      <c r="L47" s="9" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B48" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="E48" s="9" t="s">
+        <v>459</v>
+      </c>
+      <c r="M48" s="9" t="s">
+        <v>530</v>
+      </c>
+      <c r="N48" s="9" t="s">
+        <v>537</v>
+      </c>
+      <c r="O48" s="9" t="s">
+        <v>535</v>
+      </c>
+      <c r="P48" s="9" t="s">
+        <v>483</v>
+      </c>
+      <c r="Q48" s="9" t="s">
+        <v>486</v>
+      </c>
+      <c r="R48" s="9" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="49" spans="2:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B49" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="E49" s="9" t="s">
+        <v>466</v>
+      </c>
+      <c r="M49" s="9" t="s">
+        <v>531</v>
+      </c>
+      <c r="N49" s="9" t="s">
+        <v>538</v>
+      </c>
+      <c r="O49" s="9" t="s">
+        <v>536</v>
+      </c>
+      <c r="P49" s="9" t="s">
         <v>481</v>
       </c>
-    </row>
-    <row r="47" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="J47" s="8" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="48" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="8" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="49" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="8" t="s">
+      <c r="Q49" s="9" t="s">
+        <v>487</v>
+      </c>
+      <c r="R49" s="9" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="50" spans="2:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B50" s="9" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="50" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="8" t="s">
+      <c r="E50" s="19" t="s">
+        <v>470</v>
+      </c>
+      <c r="H50" s="19"/>
+      <c r="M50" s="19" t="s">
+        <v>532</v>
+      </c>
+      <c r="N50" s="19" t="s">
+        <v>532</v>
+      </c>
+      <c r="O50" s="19" t="s">
+        <v>532</v>
+      </c>
+      <c r="P50" s="19" t="s">
+        <v>532</v>
+      </c>
+      <c r="Q50" s="19" t="s">
+        <v>532</v>
+      </c>
+      <c r="R50" s="19" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="51" spans="2:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B51" s="9" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="51" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="8" t="s">
+      <c r="E51" s="9" t="s">
+        <v>429</v>
+      </c>
+      <c r="M51" s="9" t="s">
+        <v>429</v>
+      </c>
+      <c r="N51" s="9" t="s">
+        <v>429</v>
+      </c>
+      <c r="O51" s="9" t="s">
+        <v>429</v>
+      </c>
+      <c r="P51" s="9" t="s">
+        <v>429</v>
+      </c>
+      <c r="Q51" s="9" t="s">
+        <v>429</v>
+      </c>
+      <c r="R51" s="9" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="52" spans="2:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B52" s="9" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="52" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="8" t="s">
+      <c r="E52" s="9" t="s">
+        <v>460</v>
+      </c>
+      <c r="M52" s="9" t="s">
+        <v>460</v>
+      </c>
+      <c r="N52" s="9" t="s">
+        <v>460</v>
+      </c>
+      <c r="O52" s="9" t="s">
+        <v>460</v>
+      </c>
+      <c r="P52" s="9" t="s">
+        <v>460</v>
+      </c>
+      <c r="Q52" s="9" t="s">
+        <v>460</v>
+      </c>
+      <c r="R52" s="9" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="53" spans="2:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B53" s="9" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="53" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="8" t="s">
+      <c r="E53" s="9" t="s">
+        <v>430</v>
+      </c>
+      <c r="M53" s="9" t="s">
+        <v>430</v>
+      </c>
+      <c r="N53" s="9" t="s">
+        <v>430</v>
+      </c>
+      <c r="O53" s="9" t="s">
+        <v>430</v>
+      </c>
+      <c r="P53" s="9" t="s">
+        <v>430</v>
+      </c>
+      <c r="Q53" s="9" t="s">
+        <v>430</v>
+      </c>
+      <c r="R53" s="9" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="54" spans="2:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B54" s="9" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="54" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="8" t="s">
+      <c r="E54" s="9" t="s">
+        <v>461</v>
+      </c>
+      <c r="M54" s="9" t="s">
+        <v>461</v>
+      </c>
+      <c r="N54" s="9" t="s">
+        <v>461</v>
+      </c>
+      <c r="O54" s="9" t="s">
+        <v>461</v>
+      </c>
+      <c r="P54" s="9" t="s">
+        <v>461</v>
+      </c>
+      <c r="Q54" s="9" t="s">
+        <v>461</v>
+      </c>
+      <c r="R54" s="9" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="55" spans="2:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B55" s="9" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="55" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="8" t="s">
+    <row r="56" spans="2:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B56" s="9" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="56" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="8" t="s">
-        <v>143</v>
-      </c>
-    </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="E19" r:id="rId1" xr:uid="{6BD42654-447F-49DC-8855-17B4F8F5303C}"/>
-    <hyperlink ref="G19" r:id="rId2" xr:uid="{5D4AA93E-1C3D-46F2-B2D9-3C1B20AC98AE}"/>
-    <hyperlink ref="H19" r:id="rId3" xr:uid="{C943048A-AE48-4DDD-B96E-25F11A5AD65F}"/>
-    <hyperlink ref="J19" r:id="rId4" xr:uid="{00BBB7B6-1A95-41CF-94C2-F84507A68000}"/>
+    <hyperlink ref="H19" r:id="rId1" xr:uid="{C943048A-AE48-4DDD-B96E-25F11A5AD65F}"/>
+    <hyperlink ref="I19" r:id="rId2" xr:uid="{7C5E4BE6-F919-4C66-ACD2-8C758EEB6DE6}"/>
+    <hyperlink ref="K19" r:id="rId3" xr:uid="{08D913F9-DDB3-4E67-8478-233E86C1B9C7}"/>
+    <hyperlink ref="L19" r:id="rId4" xr:uid="{6FE88C49-8026-4A97-A9CE-09B7203C2705}"/>
+    <hyperlink ref="E50" r:id="rId5" xr:uid="{7CC11B74-C4FE-4BA7-96FF-8B9D666FCA07}"/>
+    <hyperlink ref="M50" r:id="rId6" xr:uid="{D7F29343-ACBB-4DA3-86A1-DFFCAFEC061A}"/>
+    <hyperlink ref="N50" r:id="rId7" xr:uid="{416357D5-AD19-4157-A6E1-9C085D0E12D7}"/>
+    <hyperlink ref="O50" r:id="rId8" xr:uid="{87A37C49-36DB-4078-9599-A685A3AED198}"/>
+    <hyperlink ref="P50" r:id="rId9" xr:uid="{861BC7F4-C335-473B-9C62-299FF80DC2F0}"/>
+    <hyperlink ref="Q50" r:id="rId10" xr:uid="{244A26BB-9F6F-4EFA-9B94-031E59B22001}"/>
+    <hyperlink ref="R50" r:id="rId11" xr:uid="{C17FFBF6-680F-412D-BCFA-38E71FDD9555}"/>
+    <hyperlink ref="M19" r:id="rId12" xr:uid="{75273E77-EE66-44F3-BFC2-2482F565891F}"/>
+    <hyperlink ref="N19" r:id="rId13" xr:uid="{2FCD7A8A-B105-44B5-BD07-E4AC7F67F2E5}"/>
+    <hyperlink ref="O19" r:id="rId14" xr:uid="{3FBB9F8C-0913-44E7-8F5D-73D7D9582513}"/>
+    <hyperlink ref="P19" r:id="rId15" xr:uid="{85BC300D-5538-4602-A11E-D85ADA303BDC}"/>
+    <hyperlink ref="Q19" r:id="rId16" xr:uid="{8E2C9EF7-756D-49E7-9D10-9EFD43588001}"/>
+    <hyperlink ref="R19" r:id="rId17" xr:uid="{ABE635ED-3670-4D6F-9316-E56538566125}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId5"/>
+  <pageSetup orientation="portrait" r:id="rId18"/>
 </worksheet>
 </file>
 
@@ -6451,307 +7329,360 @@
   <dimension ref="A1:K57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="6" ySplit="18" topLeftCell="G19" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="18" topLeftCell="H19" activePane="bottomRight" state="frozen"/>
       <selection activeCell="G19" sqref="G19"/>
       <selection pane="topRight" activeCell="G19" sqref="G19"/>
       <selection pane="bottomLeft" activeCell="G19" sqref="G19"/>
-      <selection pane="bottomRight" activeCell="C31" sqref="C31"/>
+      <selection pane="bottomRight" activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.42578125" style="8" customWidth="1"/>
     <col min="2" max="2" width="46.42578125" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="21.42578125" style="8" customWidth="1"/>
-    <col min="6" max="11" width="22.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26" style="8" customWidth="1"/>
+    <col min="4" max="5" width="21.42578125" style="8" customWidth="1"/>
+    <col min="6" max="6" width="28.28515625" style="8" customWidth="1"/>
+    <col min="7" max="7" width="27.85546875" style="8" customWidth="1"/>
+    <col min="8" max="8" width="27.5703125" style="8" customWidth="1"/>
+    <col min="9" max="9" width="27.28515625" style="8" customWidth="1"/>
+    <col min="10" max="11" width="22.28515625" style="8" bestFit="1" customWidth="1"/>
     <col min="12" max="16384" width="9.140625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="6" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="6" t="s">
-        <v>53</v>
-      </c>
       <c r="C1" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D1" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="F1" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="F1" s="7"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
+      <c r="G1" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="J1" s="20" t="s">
+        <v>43</v>
+      </c>
       <c r="K1" s="7"/>
     </row>
     <row r="2" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="C3" s="10"/>
+        <v>144</v>
+      </c>
       <c r="D3" s="10"/>
       <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
     </row>
     <row r="4" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="8" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="8" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="C6" s="8" t="s">
         <v>148</v>
       </c>
-      <c r="C6" s="8" t="s">
-        <v>149</v>
-      </c>
       <c r="D6" s="8" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>152</v>
+        <v>151</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>490</v>
+      </c>
+      <c r="I6" s="8" t="s">
+        <v>491</v>
+      </c>
+      <c r="J6" s="8" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="8" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="8" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="8" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="8" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="8" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="8" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="8" t="s">
         <v>160</v>
       </c>
-      <c r="C16" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="17" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="8" t="s">
+      <c r="C17" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="C17" s="8" t="s">
-        <v>417</v>
-      </c>
-      <c r="E17" s="8" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="18" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="8" t="s">
+      <c r="C18" s="8" t="s">
+        <v>483</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>564</v>
+      </c>
+      <c r="J18" s="9" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="8" t="s">
         <v>162</v>
       </c>
-      <c r="C18" s="8" t="s">
-        <v>439</v>
-      </c>
-      <c r="E18" s="8" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="19" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="8" t="s">
+      <c r="C19" s="10" t="s">
+        <v>481</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>565</v>
+      </c>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="J19" s="9" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="C19" s="10" t="s">
-        <v>440</v>
-      </c>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="20" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="8" t="s">
+      <c r="C20" s="10" t="s">
+        <v>482</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>573</v>
+      </c>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="H20" s="10"/>
+      <c r="J20" s="19" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="8" t="s">
         <v>164</v>
       </c>
-      <c r="C20" s="10" t="s">
-        <v>441</v>
-      </c>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10" t="s">
-        <v>469</v>
-      </c>
-      <c r="G20" s="10"/>
-    </row>
-    <row r="21" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="8" t="s">
+      <c r="C21" s="8" t="s">
+        <v>431</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>431</v>
+      </c>
+      <c r="J21" s="9" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="8" t="s">
         <v>165</v>
       </c>
-      <c r="C21" s="8" t="s">
-        <v>442</v>
-      </c>
-      <c r="E21" s="8" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="22" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="8" t="s">
+      <c r="C22" s="8" t="s">
+        <v>484</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>488</v>
+      </c>
+      <c r="J22" s="9" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="8" t="s">
         <v>166</v>
       </c>
-      <c r="C22" s="8" t="s">
-        <v>443</v>
-      </c>
-      <c r="E22" s="8" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="23" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="8" t="s">
+      <c r="C23" s="8" t="s">
+        <v>432</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>432</v>
+      </c>
+      <c r="J23" s="9" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="C23" s="8" t="s">
-        <v>444</v>
-      </c>
-      <c r="E23" s="8" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="24" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="8" t="s">
+      <c r="C24" s="8" t="s">
+        <v>485</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>489</v>
+      </c>
+      <c r="J24" s="9" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="8" t="s">
         <v>168</v>
       </c>
-      <c r="C24" s="8" t="s">
-        <v>445</v>
-      </c>
-      <c r="E24" s="8" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="25" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="8" t="s">
+    </row>
+    <row r="26" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="8" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="26" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="8" t="s">
+    <row r="27" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="8" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="27" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="8" t="s">
+    <row r="28" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="8" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="28" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="8" t="s">
+    <row r="29" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="8" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="29" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="8" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="30" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="8" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="31" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="31" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="8" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="32" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="8" t="s">
         <v>177</v>
-      </c>
-    </row>
-    <row r="32" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="8" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="33" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="8" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="34" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="8" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="35" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="8" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="36" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="8" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="37" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="8" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="38" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="8" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="39" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="8" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="40" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="8" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="41" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6773,10 +7704,12 @@
     <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C20" r:id="rId1" xr:uid="{E6C7B772-3ADE-47DE-92D9-C52FADBA34E6}"/>
-    <hyperlink ref="E20" r:id="rId2" xr:uid="{E689757C-FCB2-4F31-85B1-0730FFF4C533}"/>
+    <hyperlink ref="D20" r:id="rId1" display="TC06@emailEdit.com" xr:uid="{E6C7B772-3ADE-47DE-92D9-C52FADBA34E6}"/>
+    <hyperlink ref="C20" r:id="rId2" xr:uid="{AFF2B3D0-79F4-46E4-9A22-8FFC4AE8FFCE}"/>
+    <hyperlink ref="J20" r:id="rId3" xr:uid="{839C70FF-ABD4-48C7-ADC0-389AD58BF6A7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
 
@@ -6784,7 +7717,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E52339B-2965-42B0-A1BC-81C519AC92AE}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
@@ -6796,187 +7729,231 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F63230FF-1810-4162-964B-310BDA1B172D}">
-  <dimension ref="A1:I57"/>
+  <dimension ref="A1:H57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.42578125" style="8" customWidth="1"/>
     <col min="2" max="2" width="39.140625" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="9" width="22.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="8"/>
+    <col min="3" max="8" width="22.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="7"/>
+      <c r="C1" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="G1" s="20" t="s">
+        <v>48</v>
+      </c>
       <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-    </row>
-    <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="8" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="8" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="8" t="s">
+      <c r="C3" s="8" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="8" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="8" t="s">
+      <c r="C4" s="8" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="8" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="8" t="s">
+    <row r="6" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="8" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="8" t="s">
+    <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="8" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="8" t="s">
+    <row r="8" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="8" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="8" t="s">
+    <row r="9" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="8" t="s">
         <v>193</v>
       </c>
-      <c r="D8" s="11"/>
-    </row>
-    <row r="9" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="8" t="s">
+    </row>
+    <row r="10" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="8" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="8" t="s">
+    <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="8" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="8" t="s">
+    <row r="12" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="8" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="8" t="s">
+      <c r="D12" s="8" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E12" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>524</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>525</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>526</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="8" t="s">
         <v>199</v>
       </c>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-    </row>
-    <row r="14" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="8" t="s">
+      <c r="D14" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="8" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="8" t="s">
+    <row r="16" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="8" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="8" t="s">
+    <row r="17" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="8" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="17" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="8" t="s">
+    <row r="18" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="8" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="18" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="8" t="s">
+    <row r="19" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="8" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="19" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="8" t="s">
+    <row r="20" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="8" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="20" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="8" t="s">
+    <row r="21" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="8" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="21" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="8" t="s">
+    <row r="22" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="8" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="22" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="8" t="s">
+    <row r="23" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="8" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="23" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="8" t="s">
+    <row r="24" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="8" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="24" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="8" t="s">
+    <row r="25" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="8" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="25" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="8" t="s">
+    <row r="26" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="8" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="26" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="8" t="s">
+    <row r="27" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="8" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="27" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="8" t="s">
+    <row r="28" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="8" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="28" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="8" t="s">
+    <row r="29" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="8" t="s">
         <v>214</v>
-      </c>
-    </row>
-    <row r="29" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="8" t="s">
-        <v>215</v>
       </c>
       <c r="D29" s="9"/>
       <c r="E29" s="9"/>
-      <c r="F29" s="9"/>
-    </row>
-    <row r="30" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D30" s="11"/>
-    </row>
-    <row r="31" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="32" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    </row>
+    <row r="30" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -7003,6 +7980,7 @@
     <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -7010,170 +7988,250 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{142674DC-3449-4E76-B8F1-9E6CC8D00F6C}">
-  <dimension ref="A1:I46"/>
+  <dimension ref="A1:H46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.42578125" style="8" customWidth="1"/>
     <col min="2" max="2" width="39.140625" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="9" width="22.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="8"/>
+    <col min="3" max="8" width="22.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
+      <c r="C1" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="G1" s="20" t="s">
+        <v>48</v>
+      </c>
       <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="8" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B3" s="8" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B3" s="8" t="s">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B4" s="8" t="s">
         <v>217</v>
       </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B4" s="8" t="s">
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B5" s="8" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B5" s="8" t="s">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B6" s="8" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B6" s="8" t="s">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B7" s="8" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B7" s="8" t="s">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B8" s="8" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B8" s="8" t="s">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B9" s="8" t="s">
         <v>222</v>
       </c>
-      <c r="D8" s="12"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B9" s="8" t="s">
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B10" s="8" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B10" s="8" t="s">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B11" s="8" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B11" s="8" t="s">
+      <c r="D11" s="8" t="s">
+        <v>559</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>559</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>559</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B12" s="8" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B12" s="8" t="s">
+      <c r="D12" s="8" t="s">
+        <v>560</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>560</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>560</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B13" s="8" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B13" s="8" t="s">
+      <c r="D13" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B14" s="8" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B14" s="8" t="s">
+      <c r="D14" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B15" s="8" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B15" s="8" t="s">
+      <c r="D15" s="8" t="s">
+        <v>463</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>463</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>463</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B16" s="8" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B16" s="8" t="s">
+      <c r="D16" s="8" t="s">
+        <v>540</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>541</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>542</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B17" s="8" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B17" s="8" t="s">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B18" s="8" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B18" s="8" t="s">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B19" s="8" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B19" s="8" t="s">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B20" s="8" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B20" s="8" t="s">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B21" s="8" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B21" s="8" t="s">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B22" s="8" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B22" s="8" t="s">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B23" s="8" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B23" s="8" t="s">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B24" s="8" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B24" s="8" t="s">
+    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B25" s="8" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B25" s="8" t="s">
+    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B26" s="8" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B26" s="8" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="27" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="28" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="29" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="30" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="31" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="32" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="27" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="28" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
+    </row>
+    <row r="30" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -7189,6 +8247,7 @@
     <row r="45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/target/test-classes/TestData/NewData.xlsx
+++ b/target/test-classes/TestData/NewData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jteja\GFLAutomation\GFL.Wishes\src\test\resources\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E789EF84-F08C-490B-872E-31B89190F3CF}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9655DC9D-2AEE-47F1-AC3C-73F16F0D85F5}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-57720" yWindow="15" windowWidth="29040" windowHeight="15840" firstSheet="3" activeTab="4" xr2:uid="{24025A28-F3F9-43F5-89B1-20F9E5BBA4E0}"/>
+    <workbookView xWindow="-57720" yWindow="15" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{24025A28-F3F9-43F5-89B1-20F9E5BBA4E0}"/>
   </bookViews>
   <sheets>
     <sheet name="RunModes" sheetId="1" r:id="rId1"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1289" uniqueCount="575">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1243" uniqueCount="577">
   <si>
     <t>TestCaseID</t>
   </si>
@@ -1071,9 +1071,6 @@
     <t>slc_service_type_dropdown</t>
   </si>
   <si>
-    <t>slc_margin_radio</t>
-  </si>
-  <si>
     <t>slc_container_count_textfield</t>
   </si>
   <si>
@@ -1419,18 +1416,6 @@
     <t>rency Naveen</t>
   </si>
   <si>
-    <t>NewProspect_08</t>
-  </si>
-  <si>
-    <t>NewProspect_09</t>
-  </si>
-  <si>
-    <t>NewProspect_10</t>
-  </si>
-  <si>
-    <t>NewProspect_11</t>
-  </si>
-  <si>
     <t>TC07Contact</t>
   </si>
   <si>
@@ -1743,40 +1728,61 @@
     <t>teszt.email@gmail.com</t>
   </si>
   <si>
-    <t>zzzzzz</t>
-  </si>
-  <si>
     <t>TC06Contact Edit</t>
   </si>
   <si>
     <t>TC06PositionEdit</t>
   </si>
   <si>
-    <t>Zzzzz</t>
-  </si>
-  <si>
-    <t>NewProspect_TC02</t>
-  </si>
-  <si>
     <t>xyz</t>
   </si>
   <si>
-    <t>NewProspect_TC03</t>
-  </si>
-  <si>
-    <t>NewProspect_TC04</t>
-  </si>
-  <si>
-    <t>NewProspect_TC05</t>
-  </si>
-  <si>
-    <t>NewProspect_TC06</t>
-  </si>
-  <si>
     <t xml:space="preserve"> TC06email@Edit.com</t>
   </si>
   <si>
-    <t>NewProspect_TC07</t>
+    <t>slc_margin_dropdown</t>
+  </si>
+  <si>
+    <t>KG/YD</t>
+  </si>
+  <si>
+    <t>Scotia Recycle</t>
+  </si>
+  <si>
+    <t>contaminated recycling</t>
+  </si>
+  <si>
+    <t>Reg1_Sep5_TC08</t>
+  </si>
+  <si>
+    <t>Reg1_Sep5_TC09</t>
+  </si>
+  <si>
+    <t>Reg1_Sep5_TC10</t>
+  </si>
+  <si>
+    <t>Reg1_Sep5_TC11</t>
+  </si>
+  <si>
+    <t>Reg1_Sep5_TC02</t>
+  </si>
+  <si>
+    <t>Reg1_Sep5_TC03</t>
+  </si>
+  <si>
+    <t>Reg1_Sep5_TC04</t>
+  </si>
+  <si>
+    <t>Reg1_Sep5_TC05</t>
+  </si>
+  <si>
+    <t>Reg1_Sep5_TC06</t>
+  </si>
+  <si>
+    <t>Reg1_Sep5_TC07</t>
+  </si>
+  <si>
+    <t>Reg1_Cus_Sep5_TC05</t>
   </si>
 </sst>
 </file>
@@ -2251,7 +2257,7 @@
   <dimension ref="A1:L27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2846,7 +2852,7 @@
         <v>49</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
@@ -2861,13 +2867,13 @@
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D27" s="3" t="s">
         <v>4</v>
@@ -2977,7 +2983,7 @@
         <v>34</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="H1" s="20" t="s">
         <v>43</v>
@@ -2986,22 +2992,22 @@
         <v>50</v>
       </c>
       <c r="J1" s="20" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="K1" s="20" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="L1" s="20" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="M1" s="20" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="N1" s="20" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="O1" s="20" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3055,40 +3061,40 @@
         <v>246</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="F8" s="8" t="s">
+        <v>438</v>
+      </c>
+      <c r="G8" s="8" t="s">
         <v>439</v>
       </c>
-      <c r="G8" s="8" t="s">
-        <v>440</v>
-      </c>
       <c r="H8" s="8" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="J8" s="8" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="K8" s="8" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="L8" s="8" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="M8" s="8" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
       <c r="N8" s="8" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="O8" s="8" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3106,37 +3112,37 @@
         <v>249</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="J11" s="8" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="K11" s="8" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="L11" s="8" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="M11" s="8" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="N11" s="8" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="O11" s="8" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3660,7 +3666,7 @@
   <dimension ref="A1:G62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3697,16 +3703,16 @@
         <v>288</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3731,16 +3737,16 @@
         <v>290</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3748,16 +3754,16 @@
         <v>291</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3765,16 +3771,16 @@
         <v>292</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3782,16 +3788,16 @@
         <v>293</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3833,16 +3839,16 @@
         <v>296</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3850,16 +3856,16 @@
         <v>297</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3867,16 +3873,16 @@
         <v>298</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3884,16 +3890,16 @@
         <v>299</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3901,16 +3907,16 @@
         <v>300</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3918,16 +3924,16 @@
         <v>301</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3935,16 +3941,16 @@
         <v>302</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="17" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3952,16 +3958,16 @@
         <v>303</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
     </row>
     <row r="18" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4149,7 +4155,7 @@
         <v>322</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
     </row>
     <row r="19" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4271,10 +4277,10 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D89BA3D3-1B94-4C77-B8E7-B6D246A7B5C9}">
-  <dimension ref="A1:L59"/>
+  <dimension ref="A1:J59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4283,12 +4289,11 @@
     <col min="2" max="2" width="43.7109375" style="8" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24.5703125" style="8" customWidth="1"/>
     <col min="4" max="4" width="25.85546875" style="8" customWidth="1"/>
-    <col min="5" max="6" width="24.5703125" style="8" customWidth="1"/>
-    <col min="7" max="12" width="23.85546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="8"/>
+    <col min="5" max="10" width="23.85546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>51</v>
       </c>
@@ -4301,395 +4306,323 @@
       <c r="D1" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="E1" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>30</v>
+      <c r="E1" s="20" t="s">
+        <v>503</v>
+      </c>
+      <c r="F1" s="20" t="s">
+        <v>504</v>
       </c>
       <c r="G1" s="20" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="H1" s="20" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="I1" s="20" t="s">
-        <v>510</v>
-      </c>
-      <c r="J1" s="20" t="s">
-        <v>511</v>
-      </c>
-      <c r="K1" s="20" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="8" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="8" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="8" t="s">
         <v>338</v>
       </c>
       <c r="C4" s="8" t="s">
+        <v>441</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>441</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>441</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>441</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>441</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>441</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="8" t="s">
+        <v>562</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>440</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>440</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>544</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>440</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>440</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>542</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="8" t="s">
+        <v>339</v>
+      </c>
+      <c r="C6" s="8" t="s">
         <v>442</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D6" s="8" t="s">
         <v>442</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E6" s="9" t="s">
         <v>442</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="F6" s="9" t="s">
         <v>442</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="G6" s="9" t="s">
         <v>442</v>
       </c>
-      <c r="H4" s="8" t="s">
+      <c r="H6" s="9" t="s">
         <v>442</v>
       </c>
-      <c r="I4" s="8" t="s">
+      <c r="I6" s="9" t="s">
         <v>442</v>
       </c>
-      <c r="J4" s="8" t="s">
-        <v>442</v>
-      </c>
-      <c r="K4" s="8" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="8" t="s">
-        <v>339</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>441</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>441</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>441</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>441</v>
-      </c>
-      <c r="G5" s="9" t="s">
+    </row>
+    <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="8" t="s">
+        <v>340</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>443</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>443</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>545</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>546</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>443</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>545</v>
+      </c>
+      <c r="I7" s="8" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>444</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>444</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>547</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>547</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>547</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>444</v>
+      </c>
+      <c r="I8" s="8" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>445</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>445</v>
+      </c>
+      <c r="E9" s="8" t="s">
         <v>549</v>
       </c>
-      <c r="H5" s="9" t="s">
-        <v>441</v>
-      </c>
-      <c r="I5" s="9" t="s">
-        <v>441</v>
-      </c>
-      <c r="J5" s="9" t="s">
-        <v>547</v>
-      </c>
-      <c r="K5" s="9" t="s">
+      <c r="F9" s="8" t="s">
+        <v>549</v>
+      </c>
+      <c r="G9" s="8" t="s">
         <v>548</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="8" t="s">
-        <v>340</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>443</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>443</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>443</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>443</v>
-      </c>
-      <c r="G6" s="9" t="s">
-        <v>443</v>
-      </c>
-      <c r="H6" s="9" t="s">
-        <v>443</v>
-      </c>
-      <c r="I6" s="9" t="s">
-        <v>443</v>
-      </c>
-      <c r="J6" s="9" t="s">
-        <v>443</v>
-      </c>
-      <c r="K6" s="9" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="8" t="s">
-        <v>341</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>444</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>444</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>444</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>444</v>
-      </c>
-      <c r="G7" s="8" t="s">
+      <c r="H9" s="8" t="s">
+        <v>445</v>
+      </c>
+      <c r="I9" s="8" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="8" t="s">
+        <v>343</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>565</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>565</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>446</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>446</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>446</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>446</v>
+      </c>
+      <c r="I10" s="8" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="8" t="s">
+        <v>344</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>447</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>447</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>447</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>447</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>447</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>447</v>
+      </c>
+      <c r="I11" s="8" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="8" t="s">
+        <v>345</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>448</v>
+      </c>
+      <c r="D12" t="s">
+        <v>448</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>448</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>448</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>448</v>
+      </c>
+      <c r="H12" s="8" t="s">
+        <v>448</v>
+      </c>
+      <c r="I12" s="8" t="s">
         <v>550</v>
       </c>
-      <c r="H7" s="8" t="s">
-        <v>551</v>
-      </c>
-      <c r="I7" s="8" t="s">
-        <v>444</v>
-      </c>
-      <c r="J7" s="8" t="s">
-        <v>550</v>
-      </c>
-      <c r="K7" s="8" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="8" t="s">
-        <v>342</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>445</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>445</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>445</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>445</v>
-      </c>
-      <c r="G8" s="8" t="s">
+      <c r="J12" s="11"/>
+    </row>
+    <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="8" t="s">
+        <v>346</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>449</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>449</v>
+      </c>
+      <c r="E13" s="8" t="s">
         <v>552</v>
       </c>
-      <c r="H8" s="8" t="s">
+      <c r="F13" s="8" t="s">
         <v>552</v>
       </c>
-      <c r="I8" s="8" t="s">
+      <c r="G13" s="8" t="s">
         <v>552</v>
       </c>
-      <c r="J8" s="8" t="s">
-        <v>445</v>
-      </c>
-      <c r="K8" s="8" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="8" t="s">
-        <v>343</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>446</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>446</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>446</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>446</v>
-      </c>
-      <c r="G9" s="8" t="s">
-        <v>554</v>
-      </c>
-      <c r="H9" s="8" t="s">
-        <v>554</v>
-      </c>
-      <c r="I9" s="8" t="s">
-        <v>553</v>
-      </c>
-      <c r="J9" s="8" t="s">
-        <v>446</v>
-      </c>
-      <c r="K9" s="8" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="8" t="s">
-        <v>344</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>447</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>447</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>447</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>447</v>
-      </c>
-      <c r="G10" s="8" t="s">
-        <v>447</v>
-      </c>
-      <c r="H10" s="8" t="s">
-        <v>447</v>
-      </c>
-      <c r="I10" s="8" t="s">
-        <v>447</v>
-      </c>
-      <c r="J10" s="8" t="s">
-        <v>447</v>
-      </c>
-      <c r="K10" s="8" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="8" t="s">
-        <v>345</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>448</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>448</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>448</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>448</v>
-      </c>
-      <c r="G11" s="8" t="s">
-        <v>448</v>
-      </c>
-      <c r="H11" s="8" t="s">
-        <v>448</v>
-      </c>
-      <c r="I11" s="8" t="s">
-        <v>448</v>
-      </c>
-      <c r="J11" s="8" t="s">
-        <v>448</v>
-      </c>
-      <c r="K11" s="8" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="8" t="s">
-        <v>346</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>449</v>
-      </c>
-      <c r="D12" t="s">
-        <v>449</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>449</v>
-      </c>
-      <c r="F12" s="8" t="s">
-        <v>449</v>
-      </c>
-      <c r="G12" s="8" t="s">
-        <v>449</v>
-      </c>
-      <c r="H12" s="8" t="s">
-        <v>449</v>
-      </c>
-      <c r="I12" s="8" t="s">
-        <v>449</v>
-      </c>
-      <c r="J12" s="8" t="s">
-        <v>449</v>
-      </c>
-      <c r="K12" s="8" t="s">
-        <v>555</v>
-      </c>
-      <c r="L12" s="11"/>
-    </row>
-    <row r="13" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="8" t="s">
+      <c r="H13" s="8" t="s">
+        <v>552</v>
+      </c>
+      <c r="I13" s="8" t="s">
+        <v>552</v>
+      </c>
+      <c r="J13" s="12"/>
+    </row>
+    <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="8" t="s">
         <v>347</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C14" s="8" t="s">
+        <v>564</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>564</v>
+      </c>
+      <c r="E14" s="8" t="s">
         <v>450</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="F14" s="8" t="s">
         <v>450</v>
       </c>
-      <c r="E13" s="8" t="s">
+      <c r="G14" s="8" t="s">
         <v>450</v>
       </c>
-      <c r="F13" s="8" t="s">
+      <c r="H14" s="8" t="s">
         <v>450</v>
       </c>
-      <c r="G13" s="8" t="s">
-        <v>557</v>
-      </c>
-      <c r="H13" s="8" t="s">
-        <v>557</v>
-      </c>
-      <c r="I13" s="8" t="s">
-        <v>557</v>
-      </c>
-      <c r="J13" s="8" t="s">
-        <v>557</v>
-      </c>
-      <c r="K13" s="8" t="s">
-        <v>557</v>
-      </c>
-      <c r="L13" s="12"/>
-    </row>
-    <row r="14" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="8" t="s">
+      <c r="I14" s="8" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="8" t="s">
         <v>348</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>451</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>451</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>451</v>
-      </c>
-      <c r="F14" s="8" t="s">
-        <v>451</v>
-      </c>
-      <c r="G14" s="8" t="s">
-        <v>451</v>
-      </c>
-      <c r="H14" s="8" t="s">
-        <v>451</v>
-      </c>
-      <c r="I14" s="8" t="s">
-        <v>451</v>
-      </c>
-      <c r="J14" s="8" t="s">
-        <v>451</v>
-      </c>
-      <c r="K14" s="8" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="8" t="s">
-        <v>349</v>
       </c>
       <c r="C15" s="8" t="s">
         <v>151</v>
@@ -4712,90 +4645,72 @@
       <c r="I15" s="8" t="s">
         <v>151</v>
       </c>
-      <c r="J15" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="K15" s="8" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="8" t="s">
+        <v>349</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>563</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>563</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>451</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>451</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>451</v>
+      </c>
+      <c r="H16" s="8" t="s">
+        <v>451</v>
+      </c>
+      <c r="I16" s="8" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="8" t="s">
         <v>350</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="C17" s="11" t="s">
         <v>452</v>
       </c>
-      <c r="D16" s="8" t="s">
+      <c r="D17" s="8" t="s">
         <v>452</v>
       </c>
-      <c r="E16" s="8" t="s">
+      <c r="E17" s="8" t="s">
         <v>452</v>
       </c>
-      <c r="F16" s="8" t="s">
+      <c r="F17" s="8" t="s">
         <v>452</v>
       </c>
-      <c r="G16" s="8" t="s">
+      <c r="G17" s="8" t="s">
         <v>452</v>
       </c>
-      <c r="H16" s="8" t="s">
+      <c r="H17" s="8" t="s">
         <v>452</v>
       </c>
-      <c r="I16" s="8" t="s">
+      <c r="I17" s="8" t="s">
         <v>452</v>
       </c>
-      <c r="J16" s="8" t="s">
-        <v>452</v>
-      </c>
-      <c r="K16" s="8" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="17" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="8" t="s">
+    </row>
+    <row r="18" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="8" t="s">
         <v>351</v>
       </c>
-      <c r="C17" s="8" t="s">
-        <v>453</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>453</v>
-      </c>
-      <c r="E17" s="8" t="s">
-        <v>453</v>
-      </c>
-      <c r="F17" s="8" t="s">
-        <v>453</v>
-      </c>
-      <c r="G17" s="8" t="s">
-        <v>453</v>
-      </c>
-      <c r="H17" s="8" t="s">
-        <v>453</v>
-      </c>
-      <c r="I17" s="8" t="s">
-        <v>453</v>
-      </c>
-      <c r="J17" s="8" t="s">
-        <v>453</v>
-      </c>
-      <c r="K17" s="8" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="18" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="8" t="s">
-        <v>352</v>
-      </c>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
       <c r="G18" s="9"/>
       <c r="H18" s="9"/>
       <c r="I18" s="9"/>
-      <c r="J18" s="9"/>
-      <c r="K18" s="9"/>
-    </row>
-    <row r="19" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="8" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C19" s="8" t="s">
         <v>55</v>
@@ -4818,258 +4733,204 @@
       <c r="I19" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="J19" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="K19" s="8" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="20" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="8" t="s">
-        <v>425</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="E20" s="8" t="s">
-        <v>55</v>
-      </c>
+        <v>424</v>
+      </c>
+      <c r="E20" s="9"/>
       <c r="F20" s="8" t="s">
         <v>55</v>
       </c>
       <c r="G20" s="9"/>
-      <c r="H20" s="8" t="s">
-        <v>55</v>
-      </c>
+      <c r="H20" s="9"/>
       <c r="I20" s="9"/>
-      <c r="J20" s="9"/>
-      <c r="K20" s="9"/>
-    </row>
-    <row r="21" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="8" t="s">
+        <v>425</v>
+      </c>
+      <c r="E21" s="9"/>
+      <c r="F21" s="8" t="s">
+        <v>553</v>
+      </c>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="9"/>
+    </row>
+    <row r="22" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="8" t="s">
         <v>426</v>
       </c>
-      <c r="C21" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="E21" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="F21" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="G21" s="9"/>
-      <c r="H21" s="8" t="s">
-        <v>558</v>
-      </c>
-      <c r="I21" s="9"/>
-      <c r="J21" s="9"/>
-      <c r="K21" s="9"/>
-    </row>
-    <row r="22" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="8" t="s">
-        <v>427</v>
-      </c>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
       <c r="G22" s="9"/>
       <c r="H22" s="9"/>
       <c r="I22" s="9"/>
-      <c r="J22" s="9"/>
-      <c r="K22" s="9"/>
-    </row>
-    <row r="23" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="8" t="s">
-        <v>428</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="D23" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="E23" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="F23" s="8" t="s">
-        <v>55</v>
-      </c>
+        <v>427</v>
+      </c>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
       <c r="G23" s="9"/>
       <c r="H23" s="9"/>
       <c r="I23" s="9"/>
-      <c r="J23" s="9"/>
-      <c r="K23" s="9"/>
-    </row>
-    <row r="24" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="8" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="8" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="25" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="8" t="s">
-        <v>355</v>
-      </c>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
       <c r="G25" s="9"/>
       <c r="H25" s="9"/>
       <c r="I25" s="9"/>
-      <c r="J25" s="9"/>
-      <c r="K25" s="9"/>
-    </row>
-    <row r="26" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="8" t="s">
-        <v>356</v>
-      </c>
+        <v>355</v>
+      </c>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
       <c r="G26" s="9"/>
       <c r="H26" s="9"/>
       <c r="I26" s="9"/>
-      <c r="J26" s="9"/>
-      <c r="K26" s="9"/>
-    </row>
-    <row r="27" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="8" t="s">
+        <v>356</v>
+      </c>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9" t="s">
+        <v>551</v>
+      </c>
+      <c r="H27" s="9"/>
+      <c r="I27" s="9"/>
+    </row>
+    <row r="28" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="8" t="s">
         <v>357</v>
       </c>
-      <c r="G27" s="9"/>
-      <c r="H27" s="9"/>
-      <c r="I27" s="9" t="s">
-        <v>556</v>
-      </c>
-      <c r="J27" s="9"/>
-      <c r="K27" s="9"/>
-    </row>
-    <row r="28" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="8" t="s">
-        <v>358</v>
-      </c>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
       <c r="G28" s="9"/>
       <c r="H28" s="9"/>
       <c r="I28" s="9"/>
-      <c r="J28" s="9"/>
-      <c r="K28" s="9"/>
-    </row>
-    <row r="29" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="8" t="s">
-        <v>359</v>
-      </c>
+        <v>358</v>
+      </c>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
       <c r="G29" s="9"/>
       <c r="H29" s="9"/>
       <c r="I29" s="9"/>
-      <c r="J29" s="9"/>
-      <c r="K29" s="9"/>
-    </row>
-    <row r="30" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="8" t="s">
-        <v>360</v>
-      </c>
+        <v>359</v>
+      </c>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
       <c r="G30" s="9"/>
       <c r="H30" s="9"/>
       <c r="I30" s="9"/>
-      <c r="J30" s="9"/>
-      <c r="K30" s="9"/>
-    </row>
-    <row r="31" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="8" t="s">
-        <v>361</v>
-      </c>
+        <v>360</v>
+      </c>
+      <c r="E31" s="9"/>
+      <c r="F31" s="9"/>
       <c r="G31" s="9"/>
       <c r="H31" s="9"/>
       <c r="I31" s="9"/>
-      <c r="J31" s="9"/>
-      <c r="K31" s="9"/>
-    </row>
-    <row r="32" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="8" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="8" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="33" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="8" t="s">
+    <row r="34" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="8" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="34" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="8" t="s">
+    <row r="35" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="8" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="35" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="8" t="s">
+    <row r="36" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="8" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="36" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="8" t="s">
+    <row r="37" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="8" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="37" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="8" t="s">
+    <row r="38" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="8" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="38" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="8" t="s">
+    <row r="39" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="8" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="39" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="8" t="s">
+    <row r="40" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="8" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="40" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="8" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="41" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="8" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="8" t="s">
         <v>423</v>
-      </c>
-    </row>
-    <row r="42" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="8" t="s">
-        <v>424</v>
-      </c>
-      <c r="C42" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="D42" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="E42" s="8" t="s">
-        <v>55</v>
       </c>
       <c r="F42" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="H42" s="8" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="43" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="8" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="44" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B44" s="8" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="44" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="8" t="s">
+    <row r="45" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="8" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="45" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="8" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="46" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="47" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="48" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="46" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="47" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="48" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5135,212 +4996,212 @@
     </row>
     <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="8" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="8" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="8" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="8" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="8" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="8" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="8" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="8" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="8" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="8" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="8" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="8" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="8" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="8" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="17" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="8" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="18" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="8" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="19" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="8" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="20" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="8" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="21" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="8" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="22" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="8" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="23" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="8" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="24" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="8" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="25" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="8" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="26" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="8" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="27" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="8" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="28" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="8" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="29" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="8" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="30" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="8" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="31" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="8" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="32" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="8" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="33" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="8" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="34" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="8" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="35" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="8" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="36" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="8" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="37" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="8" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="38" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="8" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="39" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="8" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="40" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="8" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="41" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="8" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="42" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="8" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="43" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="8" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="44" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5400,29 +5261,29 @@
         <v>52</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="I1" s="13"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="14"/>
       <c r="B2" s="14" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C2" s="14"/>
       <c r="D2" s="14"/>
@@ -5434,7 +5295,7 @@
     <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="14"/>
       <c r="B3" s="14" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C3" s="15"/>
       <c r="D3" s="15"/>
@@ -5446,25 +5307,25 @@
     <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="14"/>
       <c r="B4" s="14" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="F4" s="14" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="G4" s="14" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="H4" s="14" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5546,10 +5407,10 @@
   <dimension ref="A1:AB33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="6" ySplit="16" topLeftCell="N17" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="16" topLeftCell="R17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A17" sqref="A17"/>
-      <selection pane="bottomRight" activeCell="E7" sqref="E7"/>
+      <selection pane="bottomRight" activeCell="T4" sqref="T4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5634,7 +5495,7 @@
         <v>40</v>
       </c>
       <c r="S1" s="20" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="T1" s="20" t="s">
         <v>43</v>
@@ -5643,25 +5504,25 @@
         <v>50</v>
       </c>
       <c r="V1" s="20" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="W1" s="20" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="X1" s="20" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="Y1" s="20" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="Z1" s="20" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="AA1" s="20" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="AB1" s="20" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
     </row>
     <row r="2" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5745,70 +5606,70 @@
         <v>56</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>568</v>
+        <v>560</v>
       </c>
       <c r="D4" s="21" t="s">
-        <v>568</v>
+        <v>560</v>
       </c>
       <c r="E4" s="21" t="s">
-        <v>568</v>
+        <v>560</v>
       </c>
       <c r="F4" s="21" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="G4" s="21" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="H4" s="21" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="I4" s="21" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="J4" s="21" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="L4" s="21" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="N4" s="21" t="s">
-        <v>563</v>
-      </c>
-      <c r="P4" s="8" t="s">
-        <v>566</v>
+        <v>560</v>
+      </c>
+      <c r="P4" s="21" t="s">
+        <v>560</v>
       </c>
       <c r="R4" s="8" t="s">
+        <v>509</v>
+      </c>
+      <c r="S4" s="8" t="s">
+        <v>510</v>
+      </c>
+      <c r="T4" s="8" t="s">
+        <v>560</v>
+      </c>
+      <c r="U4" s="8" t="s">
+        <v>523</v>
+      </c>
+      <c r="V4" s="8" t="s">
+        <v>524</v>
+      </c>
+      <c r="W4" s="8" t="s">
+        <v>512</v>
+      </c>
+      <c r="X4" s="8" t="s">
+        <v>513</v>
+      </c>
+      <c r="Y4" s="8" t="s">
         <v>514</v>
       </c>
-      <c r="S4" s="8" t="s">
+      <c r="Z4" s="8" t="s">
         <v>515</v>
       </c>
-      <c r="T4" s="8" t="s">
-        <v>524</v>
-      </c>
-      <c r="U4" s="8" t="s">
-        <v>528</v>
-      </c>
-      <c r="V4" s="8" t="s">
-        <v>529</v>
-      </c>
-      <c r="W4" s="8" t="s">
+      <c r="AA4" s="8" t="s">
+        <v>516</v>
+      </c>
+      <c r="AB4" s="8" t="s">
         <v>517</v>
-      </c>
-      <c r="X4" s="8" t="s">
-        <v>518</v>
-      </c>
-      <c r="Y4" s="8" t="s">
-        <v>519</v>
-      </c>
-      <c r="Z4" s="8" t="s">
-        <v>520</v>
-      </c>
-      <c r="AA4" s="8" t="s">
-        <v>521</v>
-      </c>
-      <c r="AB4" s="8" t="s">
-        <v>522</v>
       </c>
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.25">
@@ -5841,16 +5702,16 @@
         <v>62</v>
       </c>
       <c r="K10" s="8" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="M10" s="8" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="O10" s="8" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="Q10" s="8" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.25">
@@ -5875,16 +5736,16 @@
         <v>64</v>
       </c>
       <c r="K12" s="8" t="s">
-        <v>455</v>
+        <v>566</v>
       </c>
       <c r="M12" s="8" t="s">
-        <v>456</v>
+        <v>567</v>
       </c>
       <c r="O12" s="8" t="s">
-        <v>457</v>
+        <v>568</v>
       </c>
       <c r="Q12" s="8" t="s">
-        <v>458</v>
+        <v>569</v>
       </c>
     </row>
     <row r="13" spans="1:28" x14ac:dyDescent="0.25">
@@ -5999,15 +5860,21 @@
         <v>84</v>
       </c>
     </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B33" s="8" t="s">
         <v>85</v>
       </c>
       <c r="K33" s="8" t="s">
-        <v>455</v>
+        <v>566</v>
       </c>
       <c r="M33" s="8" t="s">
-        <v>456</v>
+        <v>567</v>
+      </c>
+      <c r="O33" s="8" t="s">
+        <v>568</v>
+      </c>
+      <c r="Q33" s="8" t="s">
+        <v>569</v>
       </c>
     </row>
   </sheetData>
@@ -6022,10 +5889,10 @@
   <dimension ref="A1:S56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="6" ySplit="18" topLeftCell="G19" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="18" topLeftCell="O19" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A19" sqref="A19"/>
-      <selection pane="bottomRight" activeCell="H11" sqref="H11"/>
+      <selection pane="bottomRight" activeCell="S5" sqref="S5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6083,22 +5950,22 @@
         <v>34</v>
       </c>
       <c r="M1" s="20" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="N1" s="20" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="O1" s="20" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="P1" s="20" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="Q1" s="20" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="R1" s="20" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="S1" s="20" t="s">
         <v>43</v>
@@ -6108,56 +5975,56 @@
       <c r="B2" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="C2" s="21" t="s">
+      <c r="C2" s="8" t="s">
+        <v>570</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>571</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>572</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>573</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>574</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>575</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>566</v>
+      </c>
+      <c r="J2" s="8" t="s">
         <v>567</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="K2" s="8" t="s">
+        <v>568</v>
+      </c>
+      <c r="L2" s="8" t="s">
         <v>569</v>
       </c>
-      <c r="E2" s="8" t="s">
-        <v>570</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>571</v>
-      </c>
-      <c r="G2" s="12" t="s">
-        <v>572</v>
-      </c>
-      <c r="H2" s="8" t="s">
-        <v>574</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>455</v>
-      </c>
-      <c r="J2" s="8" t="s">
-        <v>456</v>
-      </c>
-      <c r="K2" s="8" t="s">
-        <v>457</v>
-      </c>
-      <c r="L2" s="8" t="s">
-        <v>458</v>
-      </c>
       <c r="M2" s="8" t="s">
+        <v>512</v>
+      </c>
+      <c r="N2" s="8" t="s">
+        <v>513</v>
+      </c>
+      <c r="O2" s="8" t="s">
+        <v>514</v>
+      </c>
+      <c r="P2" s="8" t="s">
+        <v>515</v>
+      </c>
+      <c r="Q2" s="8" t="s">
+        <v>516</v>
+      </c>
+      <c r="R2" s="8" t="s">
         <v>517</v>
       </c>
-      <c r="N2" s="8" t="s">
-        <v>518</v>
-      </c>
-      <c r="O2" s="8" t="s">
-        <v>519</v>
-      </c>
-      <c r="P2" s="8" t="s">
-        <v>520</v>
-      </c>
-      <c r="Q2" s="8" t="s">
-        <v>521</v>
-      </c>
-      <c r="R2" s="8" t="s">
-        <v>522</v>
-      </c>
-      <c r="S2" s="9" t="s">
-        <v>524</v>
+      <c r="S2" s="8" t="s">
+        <v>576</v>
       </c>
     </row>
     <row r="3" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6195,37 +6062,37 @@
         <v>89</v>
       </c>
       <c r="I4" s="8" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="J4" s="8" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="K4" s="8" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="L4" s="8" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="M4" s="8" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="N4" s="8" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="O4" s="8" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="P4" s="8" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="Q4" s="8" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="R4" s="8" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="S4" s="8" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="5" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6233,19 +6100,19 @@
         <v>90</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="F5" s="23" t="s">
         <v>148</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="H5" s="9" t="s">
         <v>148</v>
@@ -6254,7 +6121,7 @@
         <v>148</v>
       </c>
       <c r="J5" s="9" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="K5" s="9" t="s">
         <v>148</v>
@@ -6281,7 +6148,7 @@
         <v>148</v>
       </c>
       <c r="S5" s="9" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="6" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6385,19 +6252,19 @@
         <v>101</v>
       </c>
       <c r="H15" s="9" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="I15" s="9" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="K15" s="9" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="L15" s="9" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="M15" s="9" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
     </row>
     <row r="16" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6405,19 +6272,19 @@
         <v>102</v>
       </c>
       <c r="H16" s="9" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="I16" s="9" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="K16" s="9" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="L16" s="9" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="M16" s="9" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
     </row>
     <row r="17" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6425,34 +6292,34 @@
         <v>103</v>
       </c>
       <c r="H17" s="9" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="I17" s="9" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="K17" s="9" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="L17" s="9" t="s">
+        <v>473</v>
+      </c>
+      <c r="M17" s="9" t="s">
+        <v>525</v>
+      </c>
+      <c r="N17" s="9" t="s">
+        <v>532</v>
+      </c>
+      <c r="O17" s="9" t="s">
+        <v>530</v>
+      </c>
+      <c r="P17" s="9" t="s">
         <v>478</v>
       </c>
-      <c r="M17" s="9" t="s">
-        <v>530</v>
-      </c>
-      <c r="N17" s="9" t="s">
-        <v>537</v>
-      </c>
-      <c r="O17" s="9" t="s">
-        <v>535</v>
-      </c>
-      <c r="P17" s="9" t="s">
-        <v>483</v>
-      </c>
       <c r="Q17" s="9" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="R17" s="9" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
     </row>
     <row r="18" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6460,34 +6327,34 @@
         <v>104</v>
       </c>
       <c r="H18" s="9" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="I18" s="9" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="K18" s="9" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="L18" s="9" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="M18" s="9" t="s">
+        <v>526</v>
+      </c>
+      <c r="N18" s="9" t="s">
+        <v>533</v>
+      </c>
+      <c r="O18" s="9" t="s">
         <v>531</v>
       </c>
-      <c r="N18" s="9" t="s">
-        <v>538</v>
-      </c>
-      <c r="O18" s="9" t="s">
-        <v>536</v>
-      </c>
       <c r="P18" s="9" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="Q18" s="9" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="R18" s="9" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
     </row>
     <row r="19" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6498,35 +6365,35 @@
       <c r="F19" s="19"/>
       <c r="G19" s="19"/>
       <c r="H19" s="19" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="I19" s="19" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="J19" s="19"/>
       <c r="K19" s="19" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="L19" s="19" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="M19" s="19" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="N19" s="19" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="O19" s="19" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="P19" s="19" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="Q19" s="19" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="R19" s="19" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
     </row>
     <row r="20" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6534,34 +6401,34 @@
         <v>106</v>
       </c>
       <c r="H20" s="9" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="I20" s="9" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="K20" s="9" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="L20" s="9" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="M20" s="9" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="N20" s="9" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="O20" s="9" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="P20" s="9" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="Q20" s="9" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="R20" s="9" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="21" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6569,34 +6436,34 @@
         <v>107</v>
       </c>
       <c r="H21" s="9" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="I21" s="9" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="K21" s="9" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="L21" s="9" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="M21" s="9" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="N21" s="9" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="O21" s="9" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="P21" s="9" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="Q21" s="9" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="R21" s="9" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
     </row>
     <row r="22" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6604,34 +6471,34 @@
         <v>108</v>
       </c>
       <c r="H22" s="9" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="I22" s="9" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="K22" s="9" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="L22" s="9" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="M22" s="9" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="N22" s="9" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="O22" s="9" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="P22" s="9" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="Q22" s="9" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="R22" s="9" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="23" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6639,34 +6506,34 @@
         <v>109</v>
       </c>
       <c r="H23" s="9" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="I23" s="9" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="K23" s="9" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="L23" s="9" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="M23" s="9" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="N23" s="9" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="O23" s="9" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="P23" s="9" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="Q23" s="9" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="R23" s="9" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
     </row>
     <row r="24" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6680,40 +6547,40 @@
         <v>111</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="H25" s="9" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="I25" s="9" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="K25" s="9" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="L25" s="9" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="M25" s="9" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="N25" s="9" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="O25" s="9" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="P25" s="9" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="Q25" s="9" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="R25" s="9" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="S25" s="9" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
     </row>
     <row r="26" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6721,40 +6588,40 @@
         <v>112</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="H26" s="9" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="I26" s="9" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="K26" s="9" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="L26" s="9" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="M26" s="9" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="N26" s="9" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="O26" s="9" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="P26" s="9" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="Q26" s="9" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="R26" s="9" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="S26" s="9" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
     </row>
     <row r="27" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6762,40 +6629,40 @@
         <v>113</v>
       </c>
       <c r="E27" s="9" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="H27" s="9" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="I27" s="9" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="K27" s="9" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="L27" s="9" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="M27" s="9" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="N27" s="9" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="O27" s="9" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="P27" s="9" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="Q27" s="9" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="R27" s="9" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="S27" s="9" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
     </row>
     <row r="28" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6885,40 +6752,40 @@
         <v>116</v>
       </c>
       <c r="E30" s="9" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="H30" s="9" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="I30" s="9" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="K30" s="9" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="L30" s="9" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="M30" s="9" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="N30" s="9" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
       <c r="O30" s="9" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="P30" s="9" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
       <c r="Q30" s="9" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="R30" s="9" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="S30" s="9" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
     </row>
     <row r="31" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6997,16 +6864,16 @@
         <v>124</v>
       </c>
       <c r="E38" s="9" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="I38" s="9" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="K38" s="9" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="L38" s="9" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
     </row>
     <row r="39" spans="2:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7014,16 +6881,16 @@
         <v>125</v>
       </c>
       <c r="E39" s="9" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="I39" s="9" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="K39" s="9" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="L39" s="9" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="40" spans="2:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7031,13 +6898,13 @@
         <v>126</v>
       </c>
       <c r="I40" s="9" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="K40" s="9" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="L40" s="9" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
     </row>
     <row r="41" spans="2:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7045,7 +6912,7 @@
         <v>127</v>
       </c>
       <c r="E41" s="9" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
     </row>
     <row r="42" spans="2:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7053,7 +6920,7 @@
         <v>128</v>
       </c>
       <c r="E42" s="9" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
     </row>
     <row r="43" spans="2:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7061,7 +6928,7 @@
         <v>129</v>
       </c>
       <c r="E43" s="9" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
     </row>
     <row r="44" spans="2:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7085,7 +6952,7 @@
         <v>132</v>
       </c>
       <c r="E46" s="9" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
     </row>
     <row r="47" spans="2:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7093,16 +6960,16 @@
         <v>133</v>
       </c>
       <c r="E47" s="9" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="I47" s="9" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="K47" s="9" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="L47" s="9" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
     </row>
     <row r="48" spans="2:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7110,25 +6977,25 @@
         <v>134</v>
       </c>
       <c r="E48" s="9" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="M48" s="9" t="s">
+        <v>525</v>
+      </c>
+      <c r="N48" s="9" t="s">
+        <v>532</v>
+      </c>
+      <c r="O48" s="9" t="s">
         <v>530</v>
       </c>
-      <c r="N48" s="9" t="s">
-        <v>537</v>
-      </c>
-      <c r="O48" s="9" t="s">
-        <v>535</v>
-      </c>
       <c r="P48" s="9" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="Q48" s="9" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="R48" s="9" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
     </row>
     <row r="49" spans="2:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7136,25 +7003,25 @@
         <v>135</v>
       </c>
       <c r="E49" s="9" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="M49" s="9" t="s">
+        <v>526</v>
+      </c>
+      <c r="N49" s="9" t="s">
+        <v>533</v>
+      </c>
+      <c r="O49" s="9" t="s">
         <v>531</v>
       </c>
-      <c r="N49" s="9" t="s">
-        <v>538</v>
-      </c>
-      <c r="O49" s="9" t="s">
-        <v>536</v>
-      </c>
       <c r="P49" s="9" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="Q49" s="9" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="R49" s="9" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
     </row>
     <row r="50" spans="2:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7162,26 +7029,26 @@
         <v>136</v>
       </c>
       <c r="E50" s="19" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="H50" s="19"/>
       <c r="M50" s="19" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="N50" s="19" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="O50" s="19" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="P50" s="19" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="Q50" s="19" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="R50" s="19" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
     </row>
     <row r="51" spans="2:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7189,25 +7056,25 @@
         <v>137</v>
       </c>
       <c r="E51" s="9" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="M51" s="9" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="N51" s="9" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="O51" s="9" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="P51" s="9" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="Q51" s="9" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="R51" s="9" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="52" spans="2:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7215,25 +7082,25 @@
         <v>138</v>
       </c>
       <c r="E52" s="9" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="M52" s="9" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="N52" s="9" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="O52" s="9" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="P52" s="9" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="Q52" s="9" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="R52" s="9" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
     </row>
     <row r="53" spans="2:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7241,25 +7108,25 @@
         <v>139</v>
       </c>
       <c r="E53" s="9" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="M53" s="9" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="N53" s="9" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="O53" s="9" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="P53" s="9" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="Q53" s="9" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="R53" s="9" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="54" spans="2:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7267,25 +7134,25 @@
         <v>140</v>
       </c>
       <c r="E54" s="9" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="M54" s="9" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="N54" s="9" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="O54" s="9" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="P54" s="9" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="Q54" s="9" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="R54" s="9" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
     </row>
     <row r="55" spans="2:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7333,7 +7200,7 @@
       <selection activeCell="G19" sqref="G19"/>
       <selection pane="topRight" activeCell="G19" sqref="G19"/>
       <selection pane="bottomLeft" activeCell="G19" sqref="G19"/>
-      <selection pane="bottomRight" activeCell="E17" sqref="E17"/>
+      <selection pane="bottomRight" activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7426,10 +7293,10 @@
         <v>151</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="I6" s="8" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="J6" s="8" t="s">
         <v>148</v>
@@ -7507,13 +7374,13 @@
         <v>161</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>564</v>
+        <v>558</v>
       </c>
       <c r="J18" s="9" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
     </row>
     <row r="19" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7521,15 +7388,15 @@
         <v>162</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>565</v>
+        <v>559</v>
       </c>
       <c r="E19" s="10"/>
       <c r="F19" s="10"/>
       <c r="J19" s="9" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
     </row>
     <row r="20" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7537,16 +7404,16 @@
         <v>163</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>573</v>
+        <v>561</v>
       </c>
       <c r="E20" s="10"/>
       <c r="F20" s="10"/>
       <c r="H20" s="10"/>
       <c r="J20" s="19" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
     </row>
     <row r="21" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7554,13 +7421,13 @@
         <v>164</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="J21" s="9" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="22" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7568,13 +7435,13 @@
         <v>165</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="J22" s="9" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
     </row>
     <row r="23" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7582,13 +7449,13 @@
         <v>166</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="J23" s="9" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="24" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7596,13 +7463,13 @@
         <v>167</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="J24" s="9" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
     </row>
     <row r="25" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7777,7 +7644,7 @@
         <v>187</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7785,7 +7652,7 @@
         <v>188</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7845,16 +7712,16 @@
         <v>198</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8076,16 +7943,16 @@
         <v>224</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -8093,16 +7960,16 @@
         <v>225</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -8144,16 +8011,16 @@
         <v>228</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -8161,16 +8028,16 @@
         <v>229</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.25">
